--- a/name/vnindex/20230112/VNINDEX_HOSE_5p_20230112.xlsx
+++ b/name/vnindex/20230112/VNINDEX_HOSE_5p_20230112.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:P117"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -454,2457 +454,5807 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1673514900000</v>
+        <v>1673514840000</v>
       </c>
       <c r="B2">
-        <v>3611700</v>
+        <v>1317300</v>
       </c>
       <c r="C2">
-        <v>4874500</v>
+        <v>1611800</v>
       </c>
       <c r="D2">
-        <v>2771000</v>
+        <v>2677500</v>
       </c>
       <c r="E2">
-        <v>59795759000</v>
+        <v>22935573000</v>
       </c>
       <c r="F2">
-        <v>84537092000</v>
+        <v>27059386000</v>
       </c>
       <c r="G2">
-        <v>38467253000</v>
+        <v>37708719000</v>
       </c>
       <c r="H2">
-        <v>11257200</v>
+        <v>5606600</v>
       </c>
       <c r="I2">
-        <v>182800104000</v>
+        <v>87703678000</v>
       </c>
       <c r="J2" t="str">
-        <v>2023-01-12T09:15:00.000Z</v>
+        <v>2023-01-12T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>182800104000</v>
+        <v>87703678000</v>
       </c>
       <c r="L2">
-        <v>11257200</v>
+        <v>5606600</v>
       </c>
       <c r="M2">
-        <v>1262800</v>
+        <v>294500</v>
       </c>
       <c r="N2">
-        <v>24741333000</v>
+        <v>4123813000</v>
       </c>
       <c r="O2">
-        <v>1262800</v>
+        <v>294500</v>
       </c>
       <c r="P2">
-        <v>24741333000</v>
+        <v>4123813000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1673515200000</v>
+        <v>1673514960000</v>
       </c>
       <c r="B3">
-        <v>2826400</v>
+        <v>994200</v>
       </c>
       <c r="C3">
-        <v>3949200</v>
+        <v>1741100</v>
       </c>
       <c r="D3">
-        <v>167800</v>
+        <v>23700</v>
       </c>
       <c r="E3">
-        <v>42026316000</v>
+        <v>15067882000</v>
       </c>
       <c r="F3">
-        <v>74591672000</v>
+        <v>30489182000</v>
       </c>
       <c r="G3">
-        <v>2541947000</v>
+        <v>322875000</v>
       </c>
       <c r="H3">
-        <v>6943400</v>
+        <v>2759000</v>
       </c>
       <c r="I3">
-        <v>119159935000</v>
+        <v>45879939000</v>
       </c>
       <c r="J3" t="str">
-        <v>2023-01-12T09:20:00.000Z</v>
+        <v>2023-01-12T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>301960039000</v>
+        <v>133583617000</v>
       </c>
       <c r="L3">
-        <v>18200600</v>
+        <v>8365600</v>
       </c>
       <c r="M3">
-        <v>1122800</v>
+        <v>746900</v>
       </c>
       <c r="N3">
-        <v>32565356000</v>
+        <v>15421300000</v>
       </c>
       <c r="O3">
-        <v>2385600</v>
+        <v>1041400</v>
       </c>
       <c r="P3">
-        <v>57306689000</v>
+        <v>19545113000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1673515500000</v>
+        <v>1673515080000</v>
       </c>
       <c r="B4">
-        <v>2541200</v>
+        <v>1300200</v>
       </c>
       <c r="C4">
-        <v>2341000</v>
+        <v>1521600</v>
       </c>
       <c r="D4">
-        <v>89500</v>
+        <v>69800</v>
       </c>
       <c r="E4">
-        <v>42465745000</v>
+        <v>21792304000</v>
       </c>
       <c r="F4">
-        <v>41924522000</v>
+        <v>26988524000</v>
       </c>
       <c r="G4">
-        <v>1571071000</v>
+        <v>435659000.00000006</v>
       </c>
       <c r="H4">
-        <v>4971700</v>
+        <v>2891600</v>
       </c>
       <c r="I4">
-        <v>85961338000</v>
+        <v>49216487000</v>
       </c>
       <c r="J4" t="str">
-        <v>2023-01-12T09:25:00.000Z</v>
+        <v>2023-01-12T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>387921377000</v>
+        <v>182800104000</v>
       </c>
       <c r="L4">
-        <v>23172300</v>
+        <v>11257200</v>
       </c>
       <c r="M4">
-        <v>-200200</v>
+        <v>221400</v>
       </c>
       <c r="N4">
-        <v>-541223000</v>
+        <v>5196220000</v>
       </c>
       <c r="O4">
-        <v>2185400</v>
+        <v>1262800</v>
       </c>
       <c r="P4">
-        <v>56765466000</v>
+        <v>24741333000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1673515800000</v>
+        <v>1673515200000</v>
       </c>
       <c r="B5">
-        <v>2491200</v>
+        <v>1078500</v>
       </c>
       <c r="C5">
-        <v>2832700</v>
+        <v>1511400</v>
       </c>
       <c r="D5">
-        <v>29800</v>
+        <v>10000</v>
       </c>
       <c r="E5">
-        <v>43676454000</v>
+        <v>17827625000</v>
       </c>
       <c r="F5">
-        <v>51332825000</v>
+        <v>31734685000</v>
       </c>
       <c r="G5">
-        <v>795306000</v>
+        <v>154465000</v>
       </c>
       <c r="H5">
-        <v>5353700</v>
+        <v>2599900</v>
       </c>
       <c r="I5">
-        <v>95804585000</v>
+        <v>49716775000</v>
       </c>
       <c r="J5" t="str">
-        <v>2023-01-12T09:30:00.000Z</v>
+        <v>2023-01-12T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>483725962000</v>
+        <v>232516879000</v>
       </c>
       <c r="L5">
-        <v>28526000</v>
+        <v>13857100</v>
       </c>
       <c r="M5">
-        <v>341500</v>
+        <v>432900</v>
       </c>
       <c r="N5">
-        <v>7656371000</v>
+        <v>13907060000</v>
       </c>
       <c r="O5">
-        <v>2526900</v>
+        <v>1695700</v>
       </c>
       <c r="P5">
-        <v>64421837000</v>
+        <v>38648393000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1673516100000</v>
+        <v>1673515320000</v>
       </c>
       <c r="B6">
-        <v>3679600</v>
+        <v>1109800</v>
       </c>
       <c r="C6">
-        <v>2741300</v>
+        <v>1674000</v>
       </c>
       <c r="D6">
-        <v>32800</v>
+        <v>144600</v>
       </c>
       <c r="E6">
-        <v>59090338000</v>
+        <v>15079027000</v>
       </c>
       <c r="F6">
-        <v>50552794000</v>
+        <v>29367178000</v>
       </c>
       <c r="G6">
-        <v>880505000</v>
+        <v>2120642000</v>
       </c>
       <c r="H6">
-        <v>6453700</v>
+        <v>2928400</v>
       </c>
       <c r="I6">
-        <v>110523637000</v>
+        <v>46566847000</v>
       </c>
       <c r="J6" t="str">
-        <v>2023-01-12T09:35:00.000Z</v>
+        <v>2023-01-12T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>594249599000</v>
+        <v>279083726000</v>
       </c>
       <c r="L6">
-        <v>34979700</v>
+        <v>16785500</v>
       </c>
       <c r="M6">
-        <v>-938300</v>
+        <v>564200</v>
       </c>
       <c r="N6">
-        <v>-8537544000</v>
+        <v>14288151000</v>
       </c>
       <c r="O6">
-        <v>1588600</v>
+        <v>2259900</v>
       </c>
       <c r="P6">
-        <v>55884293000</v>
+        <v>52936544000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1673516400000</v>
+        <v>1673515440000</v>
       </c>
       <c r="B7">
-        <v>2820700</v>
+        <v>1074900</v>
       </c>
       <c r="C7">
-        <v>2110700</v>
+        <v>1385400</v>
       </c>
       <c r="D7">
-        <v>29300</v>
+        <v>71700</v>
       </c>
       <c r="E7">
-        <v>42790025000</v>
+        <v>16551903000</v>
       </c>
       <c r="F7">
-        <v>40181981000</v>
+        <v>23303858000</v>
       </c>
       <c r="G7">
-        <v>363676000</v>
+        <v>1580851000</v>
       </c>
       <c r="H7">
-        <v>4960700</v>
+        <v>2532000</v>
       </c>
       <c r="I7">
-        <v>83335682000</v>
+        <v>41436612000</v>
       </c>
       <c r="J7" t="str">
-        <v>2023-01-12T09:40:00.000Z</v>
+        <v>2023-01-12T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>677585281000</v>
+        <v>320520338000</v>
       </c>
       <c r="L7">
-        <v>39940400</v>
+        <v>19317500</v>
       </c>
       <c r="M7">
-        <v>-710000</v>
+        <v>310500</v>
       </c>
       <c r="N7">
-        <v>-2608044000</v>
+        <v>6751955000</v>
       </c>
       <c r="O7">
-        <v>878600</v>
+        <v>2570400</v>
       </c>
       <c r="P7">
-        <v>53276249000</v>
+        <v>59688499000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1673516700000</v>
+        <v>1673515560000</v>
       </c>
       <c r="B8">
-        <v>1936400</v>
+        <v>1095000</v>
       </c>
       <c r="C8">
-        <v>3175900</v>
+        <v>959600</v>
       </c>
       <c r="D8">
-        <v>50000</v>
+        <v>25700</v>
       </c>
       <c r="E8">
-        <v>29265990000</v>
+        <v>18957416000</v>
       </c>
       <c r="F8">
-        <v>59157544000</v>
+        <v>17741881000</v>
       </c>
       <c r="G8">
-        <v>502821000</v>
+        <v>199714000</v>
       </c>
       <c r="H8">
-        <v>5162300</v>
+        <v>2080300</v>
       </c>
       <c r="I8">
-        <v>88926355000</v>
+        <v>36899011000</v>
       </c>
       <c r="J8" t="str">
-        <v>2023-01-12T09:45:00.000Z</v>
+        <v>2023-01-12T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>766511636000</v>
+        <v>357419349000</v>
       </c>
       <c r="L8">
-        <v>45102700</v>
+        <v>21397800</v>
       </c>
       <c r="M8">
-        <v>1239500</v>
+        <v>-135400</v>
       </c>
       <c r="N8">
-        <v>29891554000</v>
+        <v>-1215535000</v>
       </c>
       <c r="O8">
-        <v>2118100</v>
+        <v>2435000</v>
       </c>
       <c r="P8">
-        <v>83167803000</v>
+        <v>58472964000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1673517000000</v>
+        <v>1673515680000</v>
       </c>
       <c r="B9">
-        <v>2033500</v>
+        <v>1009400</v>
       </c>
       <c r="C9">
-        <v>3472500</v>
+        <v>759800</v>
       </c>
       <c r="D9">
-        <v>36600</v>
+        <v>5300</v>
       </c>
       <c r="E9">
-        <v>37672317000</v>
+        <v>16076090000</v>
       </c>
       <c r="F9">
-        <v>61027718000</v>
+        <v>14368592000</v>
       </c>
       <c r="G9">
-        <v>437423000</v>
+        <v>57346000</v>
       </c>
       <c r="H9">
-        <v>5542600</v>
+        <v>1774500</v>
       </c>
       <c r="I9">
-        <v>99137458000</v>
+        <v>30502028000</v>
       </c>
       <c r="J9" t="str">
-        <v>2023-01-12T09:50:00.000Z</v>
+        <v>2023-01-12T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>865649094000</v>
+        <v>387921377000</v>
       </c>
       <c r="L9">
-        <v>50645300</v>
+        <v>23172300</v>
       </c>
       <c r="M9">
-        <v>1439000</v>
+        <v>-249600</v>
       </c>
       <c r="N9">
-        <v>23355401000</v>
+        <v>-1707498000</v>
       </c>
       <c r="O9">
-        <v>3557100</v>
+        <v>2185400</v>
       </c>
       <c r="P9">
-        <v>106523204000</v>
+        <v>56765466000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1673517300000</v>
+        <v>1673515800000</v>
       </c>
       <c r="B10">
-        <v>2196800</v>
+        <v>1203000</v>
       </c>
       <c r="C10">
-        <v>3516800</v>
+        <v>945100</v>
       </c>
       <c r="D10">
-        <v>6700</v>
+        <v>18700</v>
       </c>
       <c r="E10">
-        <v>45345229000</v>
+        <v>21545848000</v>
       </c>
       <c r="F10">
-        <v>65263229000</v>
+        <v>18109751000</v>
       </c>
       <c r="G10">
-        <v>212361000</v>
+        <v>368429000</v>
       </c>
       <c r="H10">
-        <v>5720300</v>
+        <v>2166800</v>
       </c>
       <c r="I10">
-        <v>110820819000</v>
+        <v>40024028000</v>
       </c>
       <c r="J10" t="str">
-        <v>2023-01-12T09:55:00.000Z</v>
+        <v>2023-01-12T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>976469913000</v>
+        <v>427945405000</v>
       </c>
       <c r="L10">
-        <v>56365600</v>
+        <v>25339100</v>
       </c>
       <c r="M10">
-        <v>1320000</v>
+        <v>-257900</v>
       </c>
       <c r="N10">
-        <v>19918000000</v>
+        <v>-3436097000</v>
       </c>
       <c r="O10">
-        <v>4877100</v>
+        <v>1927500</v>
       </c>
       <c r="P10">
-        <v>126441204000</v>
+        <v>53329369000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1673517600000</v>
+        <v>1673515920000</v>
       </c>
       <c r="B11">
-        <v>2455700</v>
+        <v>823300</v>
       </c>
       <c r="C11">
-        <v>2080800</v>
+        <v>1000800</v>
       </c>
       <c r="D11">
-        <v>20800</v>
+        <v>1100</v>
       </c>
       <c r="E11">
-        <v>51101132000</v>
+        <v>14441394000</v>
       </c>
       <c r="F11">
-        <v>40018584000</v>
+        <v>17328705000</v>
       </c>
       <c r="G11">
-        <v>560102000</v>
+        <v>10865000</v>
       </c>
       <c r="H11">
-        <v>4557300</v>
+        <v>1825200</v>
       </c>
       <c r="I11">
-        <v>91679818000</v>
+        <v>31780964000</v>
       </c>
       <c r="J11" t="str">
-        <v>2023-01-12T10:00:00.000Z</v>
+        <v>2023-01-12T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>1068149731000</v>
+        <v>459726369000</v>
       </c>
       <c r="L11">
-        <v>60922900</v>
+        <v>27164300</v>
       </c>
       <c r="M11">
-        <v>-374900</v>
+        <v>177500</v>
       </c>
       <c r="N11">
-        <v>-11082548000</v>
+        <v>2887311000</v>
       </c>
       <c r="O11">
-        <v>4502200</v>
+        <v>2105000</v>
       </c>
       <c r="P11">
-        <v>115358656000</v>
+        <v>56216680000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1673517900000</v>
+        <v>1673516040000</v>
       </c>
       <c r="B12">
-        <v>3952800</v>
+        <v>1007000</v>
       </c>
       <c r="C12">
-        <v>1372500</v>
+        <v>1624600</v>
       </c>
       <c r="D12">
-        <v>25000</v>
+        <v>10600</v>
       </c>
       <c r="E12">
-        <v>68626795000</v>
+        <v>16337325000</v>
       </c>
       <c r="F12">
-        <v>26301870000</v>
+        <v>29497623000</v>
       </c>
       <c r="G12">
-        <v>522286000</v>
+        <v>421532000</v>
       </c>
       <c r="H12">
-        <v>5350300</v>
+        <v>2642200</v>
       </c>
       <c r="I12">
-        <v>95450951000</v>
+        <v>46256480000</v>
       </c>
       <c r="J12" t="str">
-        <v>2023-01-12T10:05:00.000Z</v>
+        <v>2023-01-12T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>1163600682000</v>
+        <v>505982849000</v>
       </c>
       <c r="L12">
-        <v>66273200</v>
+        <v>29806500</v>
       </c>
       <c r="M12">
-        <v>-2580300</v>
+        <v>617600</v>
       </c>
       <c r="N12">
-        <v>-42324925000</v>
+        <v>13160298000</v>
       </c>
       <c r="O12">
-        <v>1921900</v>
+        <v>2722600</v>
       </c>
       <c r="P12">
-        <v>73033731000</v>
+        <v>69376978000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1673518200000</v>
+        <v>1673516160000</v>
       </c>
       <c r="B13">
-        <v>4051900</v>
+        <v>1377300</v>
       </c>
       <c r="C13">
-        <v>1274800</v>
+        <v>1265300</v>
       </c>
       <c r="D13">
-        <v>42900</v>
+        <v>10200</v>
       </c>
       <c r="E13">
-        <v>67535864000</v>
+        <v>23026196000</v>
       </c>
       <c r="F13">
-        <v>23806215000</v>
+        <v>22709471000</v>
       </c>
       <c r="G13">
-        <v>909665000</v>
+        <v>185100000</v>
       </c>
       <c r="H13">
-        <v>5369600</v>
+        <v>2652800</v>
       </c>
       <c r="I13">
-        <v>92251744000</v>
+        <v>45920767000</v>
       </c>
       <c r="J13" t="str">
-        <v>2023-01-12T10:10:00.000Z</v>
+        <v>2023-01-12T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>1255852426000</v>
+        <v>551903616000</v>
       </c>
       <c r="L13">
-        <v>71642800</v>
+        <v>32459300</v>
       </c>
       <c r="M13">
-        <v>-2777100</v>
+        <v>-112000</v>
       </c>
       <c r="N13">
-        <v>-43729649000</v>
+        <v>-316725000</v>
       </c>
       <c r="O13">
-        <v>-855200</v>
+        <v>2610600</v>
       </c>
       <c r="P13">
-        <v>29304082000</v>
+        <v>69060253000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1673518500000</v>
+        <v>1673516280000</v>
       </c>
       <c r="B14">
-        <v>3959100</v>
+        <v>1760200</v>
       </c>
       <c r="C14">
-        <v>1537500</v>
+        <v>738200</v>
       </c>
       <c r="D14">
-        <v>7900</v>
+        <v>22000</v>
       </c>
       <c r="E14">
-        <v>72655775000</v>
+        <v>27416029000</v>
       </c>
       <c r="F14">
-        <v>29523820000</v>
+        <v>14240069000</v>
       </c>
       <c r="G14">
-        <v>231359000</v>
+        <v>689885000</v>
       </c>
       <c r="H14">
-        <v>5504500</v>
+        <v>2520400</v>
       </c>
       <c r="I14">
-        <v>102410954000</v>
+        <v>42345983000</v>
       </c>
       <c r="J14" t="str">
-        <v>2023-01-12T10:15:00.000Z</v>
+        <v>2023-01-12T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>1358263380000</v>
+        <v>594249599000</v>
       </c>
       <c r="L14">
-        <v>77147300</v>
+        <v>34979700</v>
       </c>
       <c r="M14">
-        <v>-2421600</v>
+        <v>-1022000</v>
       </c>
       <c r="N14">
-        <v>-43131955000</v>
+        <v>-13175960000</v>
       </c>
       <c r="O14">
-        <v>-3276800</v>
+        <v>1588600</v>
       </c>
       <c r="P14">
-        <v>-13827873000</v>
+        <v>55884293000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1673518800000</v>
+        <v>1673516400000</v>
       </c>
       <c r="B15">
-        <v>4231800</v>
+        <v>1274800</v>
       </c>
       <c r="C15">
-        <v>1753300</v>
+        <v>772800</v>
       </c>
       <c r="D15">
-        <v>569300</v>
+        <v>7800</v>
       </c>
       <c r="E15">
-        <v>69819091000</v>
+        <v>18721393000</v>
       </c>
       <c r="F15">
-        <v>33029821000</v>
+        <v>14307119000</v>
       </c>
       <c r="G15">
-        <v>3255406000</v>
+        <v>108868000</v>
       </c>
       <c r="H15">
-        <v>6554400</v>
+        <v>2055400</v>
       </c>
       <c r="I15">
-        <v>106104318000</v>
+        <v>33137380000</v>
       </c>
       <c r="J15" t="str">
-        <v>2023-01-12T10:20:00.000Z</v>
+        <v>2023-01-12T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>1464367698000</v>
+        <v>627386979000</v>
       </c>
       <c r="L15">
-        <v>83701700</v>
+        <v>37035100</v>
       </c>
       <c r="M15">
-        <v>-2478500</v>
+        <v>-502000</v>
       </c>
       <c r="N15">
-        <v>-36789270000</v>
+        <v>-4414274000</v>
       </c>
       <c r="O15">
-        <v>-5755300</v>
+        <v>1086600</v>
       </c>
       <c r="P15">
-        <v>-50617143000</v>
+        <v>51470019000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1673519100000</v>
+        <v>1673516520000</v>
       </c>
       <c r="B16">
-        <v>2706500</v>
+        <v>826300</v>
       </c>
       <c r="C16">
-        <v>2072000</v>
+        <v>893400</v>
       </c>
       <c r="D16">
-        <v>31800</v>
+        <v>9400</v>
       </c>
       <c r="E16">
-        <v>44736652000</v>
+        <v>14107283000</v>
       </c>
       <c r="F16">
-        <v>36084072000</v>
+        <v>17241478000</v>
       </c>
       <c r="G16">
-        <v>492914000</v>
+        <v>63458000</v>
       </c>
       <c r="H16">
-        <v>4810300</v>
+        <v>1729100</v>
       </c>
       <c r="I16">
-        <v>81313638000</v>
+        <v>31412219000</v>
       </c>
       <c r="J16" t="str">
-        <v>2023-01-12T10:25:00.000Z</v>
+        <v>2023-01-12T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>1545681336000</v>
+        <v>658799198000</v>
       </c>
       <c r="L16">
-        <v>88512000</v>
+        <v>38764200</v>
       </c>
       <c r="M16">
-        <v>-634500</v>
+        <v>67100</v>
       </c>
       <c r="N16">
-        <v>-8652580000</v>
+        <v>3134195000</v>
       </c>
       <c r="O16">
-        <v>-6389800</v>
+        <v>1153700</v>
       </c>
       <c r="P16">
-        <v>-59269723000</v>
+        <v>54604214000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1673519400000</v>
+        <v>1673516640000</v>
       </c>
       <c r="B17">
-        <v>1664800</v>
+        <v>1128500</v>
       </c>
       <c r="C17">
-        <v>2591200</v>
+        <v>1224400</v>
       </c>
       <c r="D17">
-        <v>16300</v>
+        <v>12700</v>
       </c>
       <c r="E17">
-        <v>28413603000</v>
+        <v>17105237000</v>
       </c>
       <c r="F17">
-        <v>55336619000</v>
+        <v>24815372000</v>
       </c>
       <c r="G17">
-        <v>260447000</v>
+        <v>194956000</v>
       </c>
       <c r="H17">
-        <v>4272300</v>
+        <v>2365600</v>
       </c>
       <c r="I17">
-        <v>84010669000</v>
+        <v>42115565000</v>
       </c>
       <c r="J17" t="str">
-        <v>2023-01-12T10:30:00.000Z</v>
+        <v>2023-01-12T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>1629692005000</v>
+        <v>700914763000</v>
       </c>
       <c r="L17">
-        <v>92784300</v>
+        <v>41129800</v>
       </c>
       <c r="M17">
-        <v>926400</v>
+        <v>95900</v>
       </c>
       <c r="N17">
-        <v>26923016000</v>
+        <v>7710135000</v>
       </c>
       <c r="O17">
-        <v>-5463400</v>
+        <v>1249600</v>
       </c>
       <c r="P17">
-        <v>-32346707000</v>
+        <v>62314349000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1673519700000</v>
+        <v>1673516760000</v>
       </c>
       <c r="B18">
-        <v>1684300</v>
+        <v>636500</v>
       </c>
       <c r="C18">
-        <v>2855600</v>
+        <v>1216400</v>
       </c>
       <c r="D18">
-        <v>7300</v>
+        <v>25400</v>
       </c>
       <c r="E18">
-        <v>34217703000</v>
+        <v>10249041000</v>
       </c>
       <c r="F18">
-        <v>57798909000</v>
+        <v>24763352000</v>
       </c>
       <c r="G18">
-        <v>244607000</v>
+        <v>212872000</v>
       </c>
       <c r="H18">
-        <v>4547200</v>
+        <v>1878300</v>
       </c>
       <c r="I18">
-        <v>92261219000</v>
+        <v>35225265000</v>
       </c>
       <c r="J18" t="str">
-        <v>2023-01-12T10:35:00.000Z</v>
+        <v>2023-01-12T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>1721953224000</v>
+        <v>736140028000</v>
       </c>
       <c r="L18">
-        <v>97331500</v>
+        <v>43008100</v>
       </c>
       <c r="M18">
-        <v>1171300</v>
+        <v>579900</v>
       </c>
       <c r="N18">
-        <v>23581206000</v>
+        <v>14514311000</v>
       </c>
       <c r="O18">
-        <v>-4292100</v>
+        <v>1829500</v>
       </c>
       <c r="P18">
-        <v>-8765501000</v>
+        <v>76828660000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1673520000000</v>
+        <v>1673516880000</v>
       </c>
       <c r="B19">
-        <v>2131400</v>
+        <v>891000</v>
       </c>
       <c r="C19">
-        <v>1937900</v>
+        <v>1179600</v>
       </c>
       <c r="D19">
-        <v>7500</v>
+        <v>24000</v>
       </c>
       <c r="E19">
-        <v>37294425000</v>
+        <v>11873061000</v>
       </c>
       <c r="F19">
-        <v>36599514000</v>
+        <v>18212204000</v>
       </c>
       <c r="G19">
-        <v>114809000</v>
+        <v>286343000</v>
       </c>
       <c r="H19">
-        <v>4076800</v>
+        <v>2094600</v>
       </c>
       <c r="I19">
-        <v>74008748000</v>
+        <v>30371608000</v>
       </c>
       <c r="J19" t="str">
-        <v>2023-01-12T10:40:00.000Z</v>
+        <v>2023-01-12T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>1795961972000</v>
+        <v>766511636000</v>
       </c>
       <c r="L19">
-        <v>101408300</v>
+        <v>45102700</v>
       </c>
       <c r="M19">
-        <v>-193500</v>
+        <v>288600</v>
       </c>
       <c r="N19">
-        <v>-694911000</v>
+        <v>6339143000</v>
       </c>
       <c r="O19">
-        <v>-4485600</v>
+        <v>2118100</v>
       </c>
       <c r="P19">
-        <v>-9460412000</v>
+        <v>83167803000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1673520300000</v>
+        <v>1673517000000</v>
       </c>
       <c r="B20">
-        <v>2642300</v>
+        <v>653600</v>
       </c>
       <c r="C20">
-        <v>2299300</v>
+        <v>1171500</v>
       </c>
       <c r="D20">
-        <v>17100</v>
+        <v>19400</v>
       </c>
       <c r="E20">
-        <v>47308626000</v>
+        <v>13032566000</v>
       </c>
       <c r="F20">
-        <v>46849625000</v>
+        <v>18250308000</v>
       </c>
       <c r="G20">
-        <v>202588000</v>
+        <v>137953000</v>
       </c>
       <c r="H20">
-        <v>4958700</v>
+        <v>1844500</v>
       </c>
       <c r="I20">
-        <v>94360839000</v>
+        <v>31420827000</v>
       </c>
       <c r="J20" t="str">
-        <v>2023-01-12T10:45:00.000Z</v>
+        <v>2023-01-12T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>1890322811000</v>
+        <v>797932463000</v>
       </c>
       <c r="L20">
-        <v>106367000</v>
+        <v>46947200</v>
       </c>
       <c r="M20">
-        <v>-343000</v>
+        <v>517900</v>
       </c>
       <c r="N20">
-        <v>-459001000</v>
+        <v>5217742000</v>
       </c>
       <c r="O20">
-        <v>-4828600</v>
+        <v>2636000</v>
       </c>
       <c r="P20">
-        <v>-9919413000</v>
+        <v>88385545000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1673520600000</v>
+        <v>1673517120000</v>
       </c>
       <c r="B21">
-        <v>3088600</v>
+        <v>885900</v>
       </c>
       <c r="C21">
-        <v>2056000</v>
+        <v>1765900</v>
       </c>
       <c r="D21">
-        <v>6800</v>
+        <v>16200</v>
       </c>
       <c r="E21">
-        <v>60439533000</v>
+        <v>15270518000</v>
       </c>
       <c r="F21">
-        <v>41392287000</v>
+        <v>34954306000</v>
       </c>
       <c r="G21">
-        <v>71973000</v>
+        <v>272670000</v>
       </c>
       <c r="H21">
-        <v>5151400</v>
+        <v>2668000</v>
       </c>
       <c r="I21">
-        <v>101903793000</v>
+        <v>50497494000</v>
       </c>
       <c r="J21" t="str">
-        <v>2023-01-12T10:50:00.000Z</v>
+        <v>2023-01-12T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>1992226604000</v>
+        <v>848429957000</v>
       </c>
       <c r="L21">
-        <v>111518400</v>
+        <v>49615200</v>
       </c>
       <c r="M21">
-        <v>-1032600</v>
+        <v>880000</v>
       </c>
       <c r="N21">
-        <v>-19047246000</v>
+        <v>19683788000</v>
       </c>
       <c r="O21">
-        <v>-5861200</v>
+        <v>3516000</v>
       </c>
       <c r="P21">
-        <v>-28966659000</v>
+        <v>108069333000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1673520900000</v>
+        <v>1673517240000</v>
       </c>
       <c r="B22">
-        <v>1994000</v>
+        <v>898100</v>
       </c>
       <c r="C22">
-        <v>1715700</v>
+        <v>1448600</v>
       </c>
       <c r="D22">
-        <v>6300</v>
+        <v>4800</v>
       </c>
       <c r="E22">
-        <v>36748345000</v>
+        <v>18993834000</v>
       </c>
       <c r="F22">
-        <v>34725580000</v>
+        <v>25433151000</v>
       </c>
       <c r="G22">
-        <v>158488000</v>
+        <v>97080000</v>
       </c>
       <c r="H22">
-        <v>3716000</v>
+        <v>2351500</v>
       </c>
       <c r="I22">
-        <v>71632413000</v>
+        <v>44524065000</v>
       </c>
       <c r="J22" t="str">
-        <v>2023-01-12T10:55:00.000Z</v>
+        <v>2023-01-12T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>2063859017000</v>
+        <v>892954022000</v>
       </c>
       <c r="L22">
-        <v>115234400</v>
+        <v>51966700</v>
       </c>
       <c r="M22">
-        <v>-278300</v>
+        <v>550500</v>
       </c>
       <c r="N22">
-        <v>-2022765000</v>
+        <v>6439317000</v>
       </c>
       <c r="O22">
-        <v>-6139500</v>
+        <v>4066500</v>
       </c>
       <c r="P22">
-        <v>-30989424000</v>
+        <v>114508650000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1673521200000</v>
+        <v>1673517360000</v>
       </c>
       <c r="B23">
-        <v>3866500</v>
+        <v>1163500</v>
       </c>
       <c r="C23">
-        <v>2223300</v>
+        <v>1439900</v>
       </c>
       <c r="D23">
-        <v>59900</v>
+        <v>1500</v>
       </c>
       <c r="E23">
-        <v>70087213000</v>
+        <v>23877042000</v>
       </c>
       <c r="F23">
-        <v>44360337000</v>
+        <v>23406178000</v>
       </c>
       <c r="G23">
-        <v>1149968000</v>
+        <v>40682000</v>
       </c>
       <c r="H23">
-        <v>6149700</v>
+        <v>2604900</v>
       </c>
       <c r="I23">
-        <v>115597518000</v>
+        <v>47323902000</v>
       </c>
       <c r="J23" t="str">
-        <v>2023-01-12T11:00:00.000Z</v>
+        <v>2023-01-12T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>2179456535000</v>
+        <v>940277924000</v>
       </c>
       <c r="L23">
-        <v>121384100</v>
+        <v>54571600</v>
       </c>
       <c r="M23">
-        <v>-1643200</v>
+        <v>276400</v>
       </c>
       <c r="N23">
-        <v>-25726876000</v>
+        <v>-470864000</v>
       </c>
       <c r="O23">
-        <v>-7782700</v>
+        <v>4342900</v>
       </c>
       <c r="P23">
-        <v>-56716300000</v>
+        <v>114037786000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1673521500000</v>
+        <v>1673517480000</v>
       </c>
       <c r="B24">
-        <v>3840200</v>
+        <v>629200</v>
       </c>
       <c r="C24">
-        <v>1735800</v>
+        <v>1163400</v>
       </c>
       <c r="D24">
-        <v>14200</v>
+        <v>1400</v>
       </c>
       <c r="E24">
-        <v>57717070000</v>
+        <v>11843586000</v>
       </c>
       <c r="F24">
-        <v>32733247000</v>
+        <v>24247004000</v>
       </c>
       <c r="G24">
-        <v>489907000</v>
+        <v>101399000</v>
       </c>
       <c r="H24">
-        <v>5590200</v>
+        <v>1794000</v>
       </c>
       <c r="I24">
-        <v>90940224000</v>
+        <v>36191989000</v>
       </c>
       <c r="J24" t="str">
-        <v>2023-01-12T11:05:00.000Z</v>
+        <v>2023-01-12T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>2270396759000</v>
+        <v>976469913000</v>
       </c>
       <c r="L24">
-        <v>126974300</v>
+        <v>56365600</v>
       </c>
       <c r="M24">
-        <v>-2104400</v>
+        <v>534200</v>
       </c>
       <c r="N24">
-        <v>-24983823000</v>
+        <v>12403418000</v>
       </c>
       <c r="O24">
-        <v>-9887100</v>
+        <v>4877100</v>
       </c>
       <c r="P24">
-        <v>-81700123000</v>
+        <v>126441204000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1673521800000</v>
+        <v>1673517600000</v>
       </c>
       <c r="B25">
-        <v>3756200</v>
+        <v>1075200</v>
       </c>
       <c r="C25">
-        <v>2044900</v>
+        <v>969500</v>
       </c>
       <c r="D25">
-        <v>39500</v>
+        <v>100</v>
       </c>
       <c r="E25">
-        <v>64299863000</v>
+        <v>20967141000</v>
       </c>
       <c r="F25">
-        <v>36774538000</v>
+        <v>19414407000</v>
       </c>
       <c r="G25">
-        <v>572362000</v>
+        <v>362000</v>
       </c>
       <c r="H25">
-        <v>5840600</v>
+        <v>2044800</v>
       </c>
       <c r="I25">
-        <v>101646763000</v>
+        <v>40381910000</v>
       </c>
       <c r="J25" t="str">
-        <v>2023-01-12T11:10:00.000Z</v>
+        <v>2023-01-12T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>2372043522000</v>
+        <v>1016851823000</v>
       </c>
       <c r="L25">
-        <v>132814900</v>
+        <v>58410400</v>
       </c>
       <c r="M25">
-        <v>-1711300</v>
+        <v>-105700</v>
       </c>
       <c r="N25">
-        <v>-27525325000</v>
+        <v>-1552734000</v>
       </c>
       <c r="O25">
-        <v>-11598400</v>
+        <v>4771400</v>
       </c>
       <c r="P25">
-        <v>-109225448000</v>
+        <v>124888470000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1673522100000</v>
+        <v>1673517720000</v>
       </c>
       <c r="B26">
-        <v>3614400</v>
+        <v>854400</v>
       </c>
       <c r="C26">
-        <v>3257100</v>
+        <v>802900</v>
       </c>
       <c r="D26">
-        <v>14200</v>
+        <v>20600</v>
       </c>
       <c r="E26">
-        <v>62128899000</v>
+        <v>20699194000</v>
       </c>
       <c r="F26">
-        <v>54882276000</v>
+        <v>14332387000</v>
       </c>
       <c r="G26">
-        <v>212008000</v>
+        <v>558370000</v>
       </c>
       <c r="H26">
-        <v>6885700</v>
+        <v>1677900</v>
       </c>
       <c r="I26">
-        <v>117223183000</v>
+        <v>35589951000</v>
       </c>
       <c r="J26" t="str">
-        <v>2023-01-12T11:15:00.000Z</v>
+        <v>2023-01-12T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>2489266705000</v>
+        <v>1052441774000</v>
       </c>
       <c r="L26">
-        <v>139700600</v>
+        <v>60088300</v>
       </c>
       <c r="M26">
-        <v>-357300</v>
+        <v>-51500</v>
       </c>
       <c r="N26">
-        <v>-7246623000</v>
+        <v>-6366807000</v>
       </c>
       <c r="O26">
-        <v>-11955700</v>
+        <v>4719900</v>
       </c>
       <c r="P26">
-        <v>-116472071000</v>
+        <v>118521663000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1673522400000</v>
+        <v>1673517840000</v>
       </c>
       <c r="B27">
-        <v>1611300</v>
+        <v>1043200</v>
       </c>
       <c r="C27">
-        <v>2849100</v>
+        <v>539300</v>
       </c>
       <c r="D27">
-        <v>34600</v>
+        <v>100</v>
       </c>
       <c r="E27">
-        <v>28770016000</v>
+        <v>19244525000</v>
       </c>
       <c r="F27">
-        <v>60943830000</v>
+        <v>9906496000</v>
       </c>
       <c r="G27">
-        <v>817191000</v>
+        <v>1370000</v>
       </c>
       <c r="H27">
-        <v>4495000</v>
+        <v>1582600</v>
       </c>
       <c r="I27">
-        <v>90531037000</v>
+        <v>29152391000</v>
       </c>
       <c r="J27" t="str">
-        <v>2023-01-12T11:20:00.000Z</v>
+        <v>2023-01-12T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>2579797742000</v>
+        <v>1081594165000</v>
       </c>
       <c r="L27">
-        <v>144195600</v>
+        <v>61670900</v>
       </c>
       <c r="M27">
-        <v>1237800</v>
+        <v>-503900</v>
       </c>
       <c r="N27">
-        <v>32173814000</v>
+        <v>-9338029000</v>
       </c>
       <c r="O27">
-        <v>-10717900</v>
+        <v>4216000</v>
       </c>
       <c r="P27">
-        <v>-84298257000</v>
+        <v>109183634000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1673522700000</v>
+        <v>1673517960000</v>
       </c>
       <c r="B28">
-        <v>1691000</v>
+        <v>1705200</v>
       </c>
       <c r="C28">
-        <v>2764300</v>
+        <v>541600</v>
       </c>
       <c r="D28">
-        <v>5200</v>
+        <v>24900</v>
       </c>
       <c r="E28">
-        <v>33285765000</v>
+        <v>30991381000</v>
       </c>
       <c r="F28">
-        <v>55868942000</v>
+        <v>10155709000</v>
       </c>
       <c r="G28">
-        <v>172563000</v>
+        <v>516636000</v>
       </c>
       <c r="H28">
-        <v>4460500</v>
+        <v>2271700</v>
       </c>
       <c r="I28">
-        <v>89327270000</v>
+        <v>41663726000</v>
       </c>
       <c r="J28" t="str">
-        <v>2023-01-12T11:25:00.000Z</v>
+        <v>2023-01-12T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>2669125012000</v>
+        <v>1123257891000</v>
       </c>
       <c r="L28">
-        <v>148656100</v>
+        <v>63942600</v>
       </c>
       <c r="M28">
-        <v>1073300</v>
+        <v>-1163600</v>
       </c>
       <c r="N28">
-        <v>22583177000</v>
+        <v>-20835672000</v>
       </c>
       <c r="O28">
-        <v>-9644600</v>
+        <v>3052400</v>
       </c>
       <c r="P28">
-        <v>-61715080000</v>
+        <v>88347962000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1673523000000</v>
+        <v>1673518080000</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1730500</v>
       </c>
       <c r="C29">
-        <v>2400</v>
+        <v>600000</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>27825686000</v>
       </c>
       <c r="F29">
-        <v>62520000</v>
+        <v>12511455000</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>5650000</v>
       </c>
       <c r="H29">
-        <v>2400</v>
+        <v>2330600</v>
       </c>
       <c r="I29">
-        <v>62520000</v>
+        <v>40342791000</v>
       </c>
       <c r="J29" t="str">
-        <v>2023-01-12T11:30:00.000Z</v>
+        <v>2023-01-12T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>2669187532000</v>
+        <v>1163600682000</v>
       </c>
       <c r="L29">
-        <v>148658500</v>
+        <v>66273200</v>
       </c>
       <c r="M29">
-        <v>2400</v>
+        <v>-1130500</v>
       </c>
       <c r="N29">
-        <v>62520000</v>
+        <v>-15314231000</v>
       </c>
       <c r="O29">
-        <v>-9642200</v>
+        <v>1921900</v>
       </c>
       <c r="P29">
-        <v>-61652560000</v>
+        <v>73033731000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1673528400000</v>
+        <v>1673518200000</v>
       </c>
       <c r="B30">
-        <v>5789900</v>
+        <v>1626900</v>
       </c>
       <c r="C30">
-        <v>6407400</v>
+        <v>431200</v>
       </c>
       <c r="D30">
-        <v>220100</v>
+        <v>4400</v>
       </c>
       <c r="E30">
-        <v>98417054000</v>
+        <v>25023046000</v>
       </c>
       <c r="F30">
-        <v>112565211000</v>
+        <v>8681394000</v>
       </c>
       <c r="G30">
-        <v>3330125000</v>
+        <v>91410000</v>
       </c>
       <c r="H30">
-        <v>12417400</v>
+        <v>2062500</v>
       </c>
       <c r="I30">
-        <v>214312390000</v>
+        <v>33795850000</v>
       </c>
       <c r="J30" t="str">
-        <v>2023-01-12T13:00:00.000Z</v>
+        <v>2023-01-12T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>2883499922000</v>
+        <v>1197396532000</v>
       </c>
       <c r="L30">
-        <v>161075900</v>
+        <v>68335700</v>
       </c>
       <c r="M30">
-        <v>617500</v>
+        <v>-1195700</v>
       </c>
       <c r="N30">
-        <v>14148157000</v>
+        <v>-16341652000</v>
       </c>
       <c r="O30">
-        <v>-9024700</v>
+        <v>726200</v>
       </c>
       <c r="P30">
-        <v>-47504403000</v>
+        <v>56692079000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1673528700000</v>
+        <v>1673518320000</v>
       </c>
       <c r="B31">
-        <v>4589900</v>
+        <v>1715700</v>
       </c>
       <c r="C31">
-        <v>3355500</v>
+        <v>630400</v>
       </c>
       <c r="D31">
-        <v>46500</v>
+        <v>32500</v>
       </c>
       <c r="E31">
-        <v>79847715000</v>
+        <v>31515428000</v>
       </c>
       <c r="F31">
-        <v>57642950000</v>
+        <v>11202486000</v>
       </c>
       <c r="G31">
-        <v>733141000</v>
+        <v>779300000</v>
       </c>
       <c r="H31">
-        <v>7991900</v>
+        <v>2378600</v>
       </c>
       <c r="I31">
-        <v>138223806000</v>
+        <v>43497214000</v>
       </c>
       <c r="J31" t="str">
-        <v>2023-01-12T13:05:00.000Z</v>
+        <v>2023-01-12T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>3021723728000</v>
+        <v>1240893746000</v>
       </c>
       <c r="L31">
-        <v>169067800</v>
+        <v>70714300</v>
       </c>
       <c r="M31">
-        <v>-1234400</v>
+        <v>-1085300</v>
       </c>
       <c r="N31">
-        <v>-22204765000</v>
+        <v>-20312942000</v>
       </c>
       <c r="O31">
-        <v>-10259100</v>
+        <v>-359100</v>
       </c>
       <c r="P31">
-        <v>-69709168000</v>
+        <v>36379137000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1673529000000</v>
+        <v>1673518440000</v>
       </c>
       <c r="B32">
-        <v>9443300</v>
+        <v>1741300</v>
       </c>
       <c r="C32">
-        <v>1800900</v>
+        <v>603500</v>
       </c>
       <c r="D32">
-        <v>50700</v>
+        <v>6200</v>
       </c>
       <c r="E32">
-        <v>146849442000</v>
+        <v>28871150000</v>
       </c>
       <c r="F32">
-        <v>34493477000</v>
+        <v>10927680000</v>
       </c>
       <c r="G32">
-        <v>1119238000</v>
+        <v>56275000</v>
       </c>
       <c r="H32">
-        <v>11294900</v>
+        <v>2351000</v>
       </c>
       <c r="I32">
-        <v>182462157000</v>
+        <v>39855105000</v>
       </c>
       <c r="J32" t="str">
-        <v>2023-01-12T13:10:00.000Z</v>
+        <v>2023-01-12T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>3204185885000</v>
+        <v>1280748851000</v>
       </c>
       <c r="L32">
-        <v>180362700</v>
+        <v>73065300</v>
       </c>
       <c r="M32">
-        <v>-7642400</v>
+        <v>-1137800</v>
       </c>
       <c r="N32">
-        <v>-112355965000</v>
+        <v>-17943470000</v>
       </c>
       <c r="O32">
-        <v>-17901500</v>
+        <v>-1496900</v>
       </c>
       <c r="P32">
-        <v>-182065133000</v>
+        <v>18435667000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1673529300000</v>
+        <v>1673518560000</v>
       </c>
       <c r="B33">
-        <v>7860400</v>
+        <v>1248500</v>
       </c>
       <c r="C33">
-        <v>4557300</v>
+        <v>489100</v>
       </c>
       <c r="D33">
-        <v>47600</v>
+        <v>2500</v>
       </c>
       <c r="E33">
-        <v>126899112000</v>
+        <v>23973257000</v>
       </c>
       <c r="F33">
-        <v>79278700000</v>
+        <v>9704773000</v>
       </c>
       <c r="G33">
-        <v>799785000</v>
+        <v>67090000</v>
       </c>
       <c r="H33">
-        <v>12465300</v>
+        <v>1740100</v>
       </c>
       <c r="I33">
-        <v>206977597000</v>
+        <v>33745120000</v>
       </c>
       <c r="J33" t="str">
-        <v>2023-01-12T13:15:00.000Z</v>
+        <v>2023-01-12T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>3411163482000</v>
+        <v>1314493971000</v>
       </c>
       <c r="L33">
-        <v>192828000</v>
+        <v>74805400</v>
       </c>
       <c r="M33">
-        <v>-3303100</v>
+        <v>-759400</v>
       </c>
       <c r="N33">
-        <v>-47620412000</v>
+        <v>-14268484000</v>
       </c>
       <c r="O33">
-        <v>-21204600</v>
+        <v>-2256300</v>
       </c>
       <c r="P33">
-        <v>-229685545000</v>
+        <v>4167183000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1673529600000</v>
+        <v>1673518680000</v>
       </c>
       <c r="B34">
-        <v>3143800</v>
+        <v>1678600</v>
       </c>
       <c r="C34">
-        <v>6680600</v>
+        <v>658100</v>
       </c>
       <c r="D34">
-        <v>67300</v>
+        <v>5200</v>
       </c>
       <c r="E34">
-        <v>58070190000</v>
+        <v>30808758000</v>
       </c>
       <c r="F34">
-        <v>109786806000</v>
+        <v>12813702000</v>
       </c>
       <c r="G34">
-        <v>781327000</v>
+        <v>146949000</v>
       </c>
       <c r="H34">
-        <v>9891700</v>
+        <v>2341900</v>
       </c>
       <c r="I34">
-        <v>168638323000</v>
+        <v>43769409000</v>
       </c>
       <c r="J34" t="str">
-        <v>2023-01-12T13:20:00.000Z</v>
+        <v>2023-01-12T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>3579801805000</v>
+        <v>1358263380000</v>
       </c>
       <c r="L34">
-        <v>202719700</v>
+        <v>77147300</v>
       </c>
       <c r="M34">
-        <v>3536800</v>
+        <v>-1020500</v>
       </c>
       <c r="N34">
-        <v>51716616000</v>
+        <v>-17995056000</v>
       </c>
       <c r="O34">
-        <v>-17667800</v>
+        <v>-3276800</v>
       </c>
       <c r="P34">
-        <v>-177968929000</v>
+        <v>-13827873000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1673529900000</v>
+        <v>1673518800000</v>
       </c>
       <c r="B35">
-        <v>4493600</v>
+        <v>1928900</v>
       </c>
       <c r="C35">
-        <v>5943000</v>
+        <v>675300</v>
       </c>
       <c r="D35">
-        <v>117200</v>
+        <v>1500</v>
       </c>
       <c r="E35">
-        <v>71992071000</v>
+        <v>30667251000</v>
       </c>
       <c r="F35">
-        <v>103400035000</v>
+        <v>13056114000</v>
       </c>
       <c r="G35">
-        <v>1877369000</v>
+        <v>88250000</v>
       </c>
       <c r="H35">
-        <v>10553800</v>
+        <v>2605700</v>
       </c>
       <c r="I35">
-        <v>177269475000</v>
+        <v>43811615000</v>
       </c>
       <c r="J35" t="str">
-        <v>2023-01-12T13:25:00.000Z</v>
+        <v>2023-01-12T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>3757071280000</v>
+        <v>1402074995000</v>
       </c>
       <c r="L35">
-        <v>213273500</v>
+        <v>79753000</v>
       </c>
       <c r="M35">
-        <v>1449400</v>
+        <v>-1253600</v>
       </c>
       <c r="N35">
-        <v>31407964000</v>
+        <v>-17611137000</v>
       </c>
       <c r="O35">
-        <v>-16218400</v>
+        <v>-4530400</v>
       </c>
       <c r="P35">
-        <v>-146560965000</v>
+        <v>-31439010000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1673530200000</v>
+        <v>1673518920000</v>
       </c>
       <c r="B36">
-        <v>5739900</v>
+        <v>1555100</v>
       </c>
       <c r="C36">
-        <v>3401400</v>
+        <v>721600</v>
       </c>
       <c r="D36">
-        <v>57100</v>
+        <v>562000</v>
       </c>
       <c r="E36">
-        <v>101544271000</v>
+        <v>26311405000</v>
       </c>
       <c r="F36">
-        <v>63893706000</v>
+        <v>13005377000</v>
       </c>
       <c r="G36">
-        <v>1064244000</v>
+        <v>3130242000</v>
       </c>
       <c r="H36">
-        <v>9198400</v>
+        <v>2838700</v>
       </c>
       <c r="I36">
-        <v>166502221000</v>
+        <v>42447024000</v>
       </c>
       <c r="J36" t="str">
-        <v>2023-01-12T13:30:00.000Z</v>
+        <v>2023-01-12T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>3923573501000</v>
+        <v>1444522019000</v>
       </c>
       <c r="L36">
-        <v>222471900</v>
+        <v>82591700</v>
       </c>
       <c r="M36">
-        <v>-2338500</v>
+        <v>-833500</v>
       </c>
       <c r="N36">
-        <v>-37650565000</v>
+        <v>-13306028000</v>
       </c>
       <c r="O36">
-        <v>-18556900</v>
+        <v>-5363900</v>
       </c>
       <c r="P36">
-        <v>-184211530000</v>
+        <v>-44745038000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1673530500000</v>
+        <v>1673519040000</v>
       </c>
       <c r="B37">
-        <v>6801100</v>
+        <v>1473200</v>
       </c>
       <c r="C37">
-        <v>3522600</v>
+        <v>778700</v>
       </c>
       <c r="D37">
-        <v>68300</v>
+        <v>7200</v>
       </c>
       <c r="E37">
-        <v>122817771000</v>
+        <v>24856870000</v>
       </c>
       <c r="F37">
-        <v>56622623000</v>
+        <v>14548114000</v>
       </c>
       <c r="G37">
-        <v>875750000</v>
+        <v>47699000</v>
       </c>
       <c r="H37">
-        <v>10392000</v>
+        <v>2259100</v>
       </c>
       <c r="I37">
-        <v>180316144000</v>
+        <v>39452683000</v>
       </c>
       <c r="J37" t="str">
-        <v>2023-01-12T13:35:00.000Z</v>
+        <v>2023-01-12T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>4103889645000</v>
+        <v>1483974702000</v>
       </c>
       <c r="L37">
-        <v>232863900</v>
+        <v>84850800</v>
       </c>
       <c r="M37">
-        <v>-3278500</v>
+        <v>-694500</v>
       </c>
       <c r="N37">
-        <v>-66195148000</v>
+        <v>-10308756000</v>
       </c>
       <c r="O37">
-        <v>-21835400</v>
+        <v>-6058400</v>
       </c>
       <c r="P37">
-        <v>-250406678000</v>
+        <v>-55053794000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1673530800000</v>
+        <v>1673519160000</v>
       </c>
       <c r="B38">
-        <v>4360500</v>
+        <v>1221900</v>
       </c>
       <c r="C38">
-        <v>3409900</v>
+        <v>806800</v>
       </c>
       <c r="D38">
-        <v>24500</v>
+        <v>14400</v>
       </c>
       <c r="E38">
-        <v>75640887000</v>
+        <v>19518348000</v>
       </c>
       <c r="F38">
-        <v>61021631000</v>
+        <v>13104222000</v>
       </c>
       <c r="G38">
-        <v>599536000</v>
+        <v>100656000</v>
       </c>
       <c r="H38">
-        <v>7794900</v>
+        <v>2043100</v>
       </c>
       <c r="I38">
-        <v>137262054000</v>
+        <v>32723226000</v>
       </c>
       <c r="J38" t="str">
-        <v>2023-01-12T13:40:00.000Z</v>
+        <v>2023-01-12T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>4241151699000</v>
+        <v>1516697928000</v>
       </c>
       <c r="L38">
-        <v>240658800</v>
+        <v>86893900</v>
       </c>
       <c r="M38">
-        <v>-950600</v>
+        <v>-415100</v>
       </c>
       <c r="N38">
-        <v>-14619256000</v>
+        <v>-6414126000</v>
       </c>
       <c r="O38">
-        <v>-22786000</v>
+        <v>-6473500</v>
       </c>
       <c r="P38">
-        <v>-265025934000</v>
+        <v>-61467920000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1673531100000</v>
+        <v>1673519280000</v>
       </c>
       <c r="B39">
-        <v>6263700</v>
+        <v>759200</v>
       </c>
       <c r="C39">
-        <v>2575000</v>
+        <v>842900</v>
       </c>
       <c r="D39">
-        <v>74300</v>
+        <v>16000</v>
       </c>
       <c r="E39">
-        <v>112965088000</v>
+        <v>13201869000</v>
       </c>
       <c r="F39">
-        <v>47057666000</v>
+        <v>15400066000</v>
       </c>
       <c r="G39">
-        <v>2206493000</v>
+        <v>381473000</v>
       </c>
       <c r="H39">
-        <v>8913000</v>
+        <v>1618100</v>
       </c>
       <c r="I39">
-        <v>162229247000</v>
+        <v>28983408000</v>
       </c>
       <c r="J39" t="str">
-        <v>2023-01-12T13:45:00.000Z</v>
+        <v>2023-01-12T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>4403380946000</v>
+        <v>1545681336000</v>
       </c>
       <c r="L39">
-        <v>249571800</v>
+        <v>88512000</v>
       </c>
       <c r="M39">
-        <v>-3688700</v>
+        <v>83700</v>
       </c>
       <c r="N39">
-        <v>-65907422000</v>
+        <v>2198197000</v>
       </c>
       <c r="O39">
-        <v>-26474700</v>
+        <v>-6389800</v>
       </c>
       <c r="P39">
-        <v>-330933356000</v>
+        <v>-59269723000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1673531400000</v>
+        <v>1673519400000</v>
       </c>
       <c r="B40">
-        <v>3939600</v>
+        <v>879100</v>
       </c>
       <c r="C40">
-        <v>5668000</v>
+        <v>793000</v>
       </c>
       <c r="D40">
-        <v>46100</v>
+        <v>5300</v>
       </c>
       <c r="E40">
-        <v>69159924000</v>
+        <v>12323133000</v>
       </c>
       <c r="F40">
-        <v>93304933000</v>
+        <v>16114064000</v>
       </c>
       <c r="G40">
-        <v>943901000</v>
+        <v>92005000</v>
       </c>
       <c r="H40">
-        <v>9653700</v>
+        <v>1677400</v>
       </c>
       <c r="I40">
-        <v>163408758000</v>
+        <v>28529202000</v>
       </c>
       <c r="J40" t="str">
-        <v>2023-01-12T13:50:00.000Z</v>
+        <v>2023-01-12T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>4566789704000</v>
+        <v>1574210538000</v>
       </c>
       <c r="L40">
-        <v>259225500</v>
+        <v>90189400</v>
       </c>
       <c r="M40">
-        <v>1728400</v>
+        <v>-86100</v>
       </c>
       <c r="N40">
-        <v>24145009000</v>
+        <v>3790931000</v>
       </c>
       <c r="O40">
-        <v>-24746300</v>
+        <v>-6475900</v>
       </c>
       <c r="P40">
-        <v>-306788347000</v>
+        <v>-55478792000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1673531700000</v>
+        <v>1673519520000</v>
       </c>
       <c r="B41">
-        <v>4458600</v>
+        <v>583300</v>
       </c>
       <c r="C41">
-        <v>11587500</v>
+        <v>1107000</v>
       </c>
       <c r="D41">
-        <v>83700</v>
+        <v>10000</v>
       </c>
       <c r="E41">
-        <v>64379277000</v>
+        <v>11953377000</v>
       </c>
       <c r="F41">
-        <v>182915751000</v>
+        <v>23160003000</v>
       </c>
       <c r="G41">
-        <v>1249685000</v>
+        <v>156087000</v>
       </c>
       <c r="H41">
-        <v>16129800</v>
+        <v>1700300</v>
       </c>
       <c r="I41">
-        <v>248544713000</v>
+        <v>35269467000</v>
       </c>
       <c r="J41" t="str">
-        <v>2023-01-12T13:55:00.000Z</v>
+        <v>2023-01-12T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>4815334417000</v>
+        <v>1609480005000</v>
       </c>
       <c r="L41">
-        <v>275355300</v>
+        <v>91889700</v>
       </c>
       <c r="M41">
-        <v>7128900</v>
+        <v>523700</v>
       </c>
       <c r="N41">
-        <v>118536474000</v>
+        <v>11206626000</v>
       </c>
       <c r="O41">
-        <v>-17617400</v>
+        <v>-5952200</v>
       </c>
       <c r="P41">
-        <v>-188251873000</v>
+        <v>-44272166000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1673532000000</v>
+        <v>1673519640000</v>
       </c>
       <c r="B42">
-        <v>5647100</v>
+        <v>499300</v>
       </c>
       <c r="C42">
-        <v>9193400</v>
+        <v>1234000</v>
       </c>
       <c r="D42">
-        <v>50400</v>
+        <v>1400</v>
       </c>
       <c r="E42">
-        <v>84172529000</v>
+        <v>10044042000</v>
       </c>
       <c r="F42">
-        <v>154976911000</v>
+        <v>28125297000</v>
       </c>
       <c r="G42">
-        <v>1168701000</v>
+        <v>13883000</v>
       </c>
       <c r="H42">
-        <v>14890900</v>
+        <v>1734700</v>
       </c>
       <c r="I42">
-        <v>240318141000</v>
+        <v>38183222000</v>
       </c>
       <c r="J42" t="str">
-        <v>2023-01-12T14:00:00.000Z</v>
+        <v>2023-01-12T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>5055652558000</v>
+        <v>1647663227000</v>
       </c>
       <c r="L42">
-        <v>290246200</v>
+        <v>93624400</v>
       </c>
       <c r="M42">
-        <v>3546300</v>
+        <v>734700</v>
       </c>
       <c r="N42">
-        <v>70804382000</v>
+        <v>18081255000</v>
       </c>
       <c r="O42">
-        <v>-14071100</v>
+        <v>-5217500</v>
       </c>
       <c r="P42">
-        <v>-117447491000</v>
+        <v>-26190911000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1673532300000</v>
+        <v>1673519760000</v>
       </c>
       <c r="B43">
-        <v>5555600</v>
+        <v>548000</v>
       </c>
       <c r="C43">
-        <v>3335100</v>
+        <v>1277400</v>
       </c>
       <c r="D43">
-        <v>60200</v>
+        <v>4300</v>
       </c>
       <c r="E43">
-        <v>90358354000</v>
+        <v>9739834000</v>
       </c>
       <c r="F43">
-        <v>58726359000</v>
+        <v>25798982000</v>
       </c>
       <c r="G43">
-        <v>1550726000</v>
+        <v>50709000</v>
       </c>
       <c r="H43">
-        <v>8950900</v>
+        <v>1829700</v>
       </c>
       <c r="I43">
-        <v>150635439000</v>
+        <v>35589525000</v>
       </c>
       <c r="J43" t="str">
-        <v>2023-01-12T14:05:00.000Z</v>
+        <v>2023-01-12T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>5206287997000</v>
+        <v>1683252752000</v>
       </c>
       <c r="L43">
-        <v>299197100</v>
+        <v>95454100</v>
       </c>
       <c r="M43">
-        <v>-2220500</v>
+        <v>729400</v>
       </c>
       <c r="N43">
-        <v>-31631995000</v>
+        <v>16059148000</v>
       </c>
       <c r="O43">
-        <v>-16291600</v>
+        <v>-4488100</v>
       </c>
       <c r="P43">
-        <v>-149079486000</v>
+        <v>-10131763000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1673532600000</v>
+        <v>1673519880000</v>
       </c>
       <c r="B44">
-        <v>6457500</v>
+        <v>839400</v>
       </c>
       <c r="C44">
-        <v>2830300</v>
+        <v>1035400</v>
       </c>
       <c r="D44">
-        <v>82000</v>
+        <v>2600</v>
       </c>
       <c r="E44">
-        <v>118863160000</v>
+        <v>18570920000</v>
       </c>
       <c r="F44">
-        <v>53584639000</v>
+        <v>19937182000</v>
       </c>
       <c r="G44">
-        <v>1500401000</v>
+        <v>192370000</v>
       </c>
       <c r="H44">
-        <v>9369800</v>
+        <v>1877400</v>
       </c>
       <c r="I44">
-        <v>173948200000</v>
+        <v>38700472000</v>
       </c>
       <c r="J44" t="str">
-        <v>2023-01-12T14:10:00.000Z</v>
+        <v>2023-01-12T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>5380236197000</v>
+        <v>1721953224000</v>
       </c>
       <c r="L44">
-        <v>308566900</v>
+        <v>97331500</v>
       </c>
       <c r="M44">
-        <v>-3627200</v>
+        <v>196000</v>
       </c>
       <c r="N44">
-        <v>-65278521000</v>
+        <v>1366262000</v>
       </c>
       <c r="O44">
-        <v>-19918800</v>
+        <v>-4292100</v>
       </c>
       <c r="P44">
-        <v>-214358007000</v>
+        <v>-8765501000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1673532900000</v>
+        <v>1673520000000</v>
       </c>
       <c r="B45">
-        <v>6591100</v>
+        <v>1009900</v>
       </c>
       <c r="C45">
-        <v>5408100</v>
+        <v>867700</v>
       </c>
       <c r="D45">
-        <v>136400</v>
+        <v>4400</v>
       </c>
       <c r="E45">
-        <v>115299659000</v>
+        <v>18704825000</v>
       </c>
       <c r="F45">
-        <v>102446779000</v>
+        <v>16027090000</v>
       </c>
       <c r="G45">
-        <v>2544265000</v>
+        <v>36494000</v>
       </c>
       <c r="H45">
-        <v>12135600</v>
+        <v>1882000</v>
       </c>
       <c r="I45">
-        <v>220290703000</v>
+        <v>34768409000</v>
       </c>
       <c r="J45" t="str">
-        <v>2023-01-12T14:15:00.000Z</v>
+        <v>2023-01-12T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>5600526900000</v>
+        <v>1756721633000</v>
       </c>
       <c r="L45">
-        <v>320702500</v>
+        <v>99213500</v>
       </c>
       <c r="M45">
-        <v>-1183000</v>
+        <v>-142200</v>
       </c>
       <c r="N45">
-        <v>-12852880000</v>
+        <v>-2677735000</v>
       </c>
       <c r="O45">
-        <v>-21101800</v>
+        <v>-4434300</v>
       </c>
       <c r="P45">
-        <v>-227210887000</v>
+        <v>-11443236000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1673533200000</v>
+        <v>1673520120000</v>
       </c>
       <c r="B46">
-        <v>3409800</v>
+        <v>769100</v>
       </c>
       <c r="C46">
-        <v>7670600</v>
+        <v>657500</v>
       </c>
       <c r="D46">
-        <v>51300</v>
+        <v>3100</v>
       </c>
       <c r="E46">
-        <v>59204246000</v>
+        <v>12363196000</v>
       </c>
       <c r="F46">
-        <v>142357864000</v>
+        <v>12440032000</v>
       </c>
       <c r="G46">
-        <v>970121000</v>
+        <v>78315000</v>
       </c>
       <c r="H46">
-        <v>11131700</v>
+        <v>1429700</v>
       </c>
       <c r="I46">
-        <v>202532231000</v>
+        <v>24881543000</v>
       </c>
       <c r="J46" t="str">
-        <v>2023-01-12T14:20:00.000Z</v>
+        <v>2023-01-12T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>5803059131000</v>
+        <v>1781603176000</v>
       </c>
       <c r="L46">
-        <v>331834200</v>
+        <v>100643200</v>
       </c>
       <c r="M46">
-        <v>4260800</v>
+        <v>-111600</v>
       </c>
       <c r="N46">
-        <v>83153618000</v>
+        <v>76836000</v>
       </c>
       <c r="O46">
-        <v>-16841000</v>
+        <v>-4545900</v>
       </c>
       <c r="P46">
-        <v>-144057269000</v>
+        <v>-11366400000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1673533500000</v>
+        <v>1673520240000</v>
       </c>
       <c r="B47">
-        <v>7626500</v>
+        <v>925400</v>
       </c>
       <c r="C47">
-        <v>6644400</v>
+        <v>1172600</v>
       </c>
       <c r="D47">
-        <v>154900</v>
+        <v>1000</v>
       </c>
       <c r="E47">
-        <v>114358880000</v>
+        <v>16690924000</v>
       </c>
       <c r="F47">
-        <v>108105110000</v>
+        <v>24089844000</v>
       </c>
       <c r="G47">
-        <v>3021148000</v>
+        <v>15500000</v>
       </c>
       <c r="H47">
-        <v>14425800</v>
+        <v>2099000</v>
       </c>
       <c r="I47">
-        <v>225485138000</v>
+        <v>40796268000</v>
       </c>
       <c r="J47" t="str">
-        <v>2023-01-12T14:25:00.000Z</v>
+        <v>2023-01-12T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>6028544269000</v>
+        <v>1822399444000</v>
       </c>
       <c r="L47">
-        <v>346260000</v>
+        <v>102742200</v>
       </c>
       <c r="M47">
-        <v>-982100</v>
+        <v>247200</v>
       </c>
       <c r="N47">
-        <v>-6253770000</v>
+        <v>7398920000</v>
       </c>
       <c r="O47">
-        <v>-17823100</v>
+        <v>-4298700</v>
       </c>
       <c r="P47">
-        <v>-150311039000</v>
+        <v>-3967480000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1673533800000</v>
+        <v>1673520360000</v>
       </c>
       <c r="B48">
-        <v>31200</v>
+        <v>813100</v>
       </c>
       <c r="C48">
-        <v>11800</v>
+        <v>933300</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>11600</v>
       </c>
       <c r="E48">
-        <v>458566000</v>
+        <v>16176839000</v>
       </c>
       <c r="F48">
-        <v>171170000</v>
+        <v>17154364000</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>68388000</v>
       </c>
       <c r="H48">
-        <v>43000</v>
+        <v>1758000</v>
       </c>
       <c r="I48">
-        <v>629736000</v>
+        <v>33399591000</v>
       </c>
       <c r="J48" t="str">
-        <v>2023-01-12T14:30:00.000Z</v>
+        <v>2023-01-12T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>6029174005000</v>
+        <v>1855799035000</v>
       </c>
       <c r="L48">
-        <v>346303000</v>
+        <v>104500200</v>
       </c>
       <c r="M48">
-        <v>-19400</v>
+        <v>120200</v>
       </c>
       <c r="N48">
-        <v>-287396000</v>
+        <v>977525000</v>
       </c>
       <c r="O48">
-        <v>-17842500</v>
+        <v>-4178500</v>
       </c>
       <c r="P48">
-        <v>-150598435000</v>
+        <v>-2989955000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1673534400000</v>
+        <v>1673520480000</v>
       </c>
       <c r="B49">
-        <v>22400</v>
+        <v>1256200</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>606100</v>
       </c>
       <c r="D49">
-        <v>27100</v>
+        <v>4500</v>
       </c>
       <c r="E49">
-        <v>206079999.99999997</v>
+        <v>20667267000</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>13737809000</v>
       </c>
       <c r="G49">
-        <v>169461000</v>
+        <v>118700000</v>
       </c>
       <c r="H49">
-        <v>49500</v>
+        <v>1866800</v>
       </c>
       <c r="I49">
-        <v>375541000</v>
+        <v>34523776000</v>
       </c>
       <c r="J49" t="str">
-        <v>2023-01-12T14:40:00.000Z</v>
+        <v>2023-01-12T10:48:00.000Z</v>
       </c>
       <c r="K49">
-        <v>6029549546000</v>
+        <v>1890322811000</v>
       </c>
       <c r="L49">
-        <v>346352500</v>
+        <v>106367000</v>
       </c>
       <c r="M49">
-        <v>-22400</v>
+        <v>-650100</v>
       </c>
       <c r="N49">
-        <v>-206079999.99999997</v>
+        <v>-6929458000</v>
       </c>
       <c r="O49">
-        <v>-17864900</v>
+        <v>-4828600</v>
       </c>
       <c r="P49">
-        <v>-150804515000</v>
+        <v>-9919413000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>1673534700000</v>
+        <v>1673520600000</v>
       </c>
       <c r="B50">
-        <v>2036000</v>
+        <v>858500</v>
       </c>
       <c r="C50">
+        <v>1028000</v>
+      </c>
+      <c r="D50">
+        <v>1200</v>
+      </c>
+      <c r="E50">
+        <v>16862168000</v>
+      </c>
+      <c r="F50">
+        <v>20583576000</v>
+      </c>
+      <c r="G50">
+        <v>19210000</v>
+      </c>
+      <c r="H50">
+        <v>1887700</v>
+      </c>
+      <c r="I50">
+        <v>37464954000</v>
+      </c>
+      <c r="J50" t="str">
+        <v>2023-01-12T10:50:00.000Z</v>
+      </c>
+      <c r="K50">
+        <v>1927787765000</v>
+      </c>
+      <c r="L50">
+        <v>108254700</v>
+      </c>
+      <c r="M50">
+        <v>169500</v>
+      </c>
+      <c r="N50">
+        <v>3721408000</v>
+      </c>
+      <c r="O50">
+        <v>-4659100</v>
+      </c>
+      <c r="P50">
+        <v>-6198005000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>1673520720000</v>
+      </c>
+      <c r="B51">
+        <v>1477500</v>
+      </c>
+      <c r="C51">
+        <v>754800</v>
+      </c>
+      <c r="D51">
+        <v>5500</v>
+      </c>
+      <c r="E51">
+        <v>27404372000</v>
+      </c>
+      <c r="F51">
+        <v>15535415000</v>
+      </c>
+      <c r="G51">
+        <v>52257000</v>
+      </c>
+      <c r="H51">
+        <v>2237800</v>
+      </c>
+      <c r="I51">
+        <v>42992044000</v>
+      </c>
+      <c r="J51" t="str">
+        <v>2023-01-12T10:52:00.000Z</v>
+      </c>
+      <c r="K51">
+        <v>1970779809000</v>
+      </c>
+      <c r="L51">
+        <v>110492500</v>
+      </c>
+      <c r="M51">
+        <v>-722700</v>
+      </c>
+      <c r="N51">
+        <v>-11868957000</v>
+      </c>
+      <c r="O51">
+        <v>-5381800</v>
+      </c>
+      <c r="P51">
+        <v>-18066962000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>1673520840000</v>
+      </c>
+      <c r="B52">
+        <v>1224000</v>
+      </c>
+      <c r="C52">
+        <v>621900</v>
+      </c>
+      <c r="D52">
+        <v>2400</v>
+      </c>
+      <c r="E52">
+        <v>22418645000</v>
+      </c>
+      <c r="F52">
+        <v>12189946000</v>
+      </c>
+      <c r="G52">
+        <v>54786000</v>
+      </c>
+      <c r="H52">
+        <v>1848300</v>
+      </c>
+      <c r="I52">
+        <v>34663377000</v>
+      </c>
+      <c r="J52" t="str">
+        <v>2023-01-12T10:54:00.000Z</v>
+      </c>
+      <c r="K52">
+        <v>2005443186000</v>
+      </c>
+      <c r="L52">
+        <v>112340800</v>
+      </c>
+      <c r="M52">
+        <v>-602100</v>
+      </c>
+      <c r="N52">
+        <v>-10228699000</v>
+      </c>
+      <c r="O52">
+        <v>-5983900</v>
+      </c>
+      <c r="P52">
+        <v>-28295661000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>1673520960000</v>
+      </c>
+      <c r="B53">
+        <v>609900</v>
+      </c>
+      <c r="C53">
+        <v>709000</v>
+      </c>
+      <c r="D53">
+        <v>2900</v>
+      </c>
+      <c r="E53">
+        <v>11616794000</v>
+      </c>
+      <c r="F53">
+        <v>14261631000</v>
+      </c>
+      <c r="G53">
+        <v>72350000</v>
+      </c>
+      <c r="H53">
+        <v>1321800</v>
+      </c>
+      <c r="I53">
+        <v>25950775000</v>
+      </c>
+      <c r="J53" t="str">
+        <v>2023-01-12T10:56:00.000Z</v>
+      </c>
+      <c r="K53">
+        <v>2031393961000</v>
+      </c>
+      <c r="L53">
+        <v>113662600</v>
+      </c>
+      <c r="M53">
+        <v>99100</v>
+      </c>
+      <c r="N53">
+        <v>2644837000</v>
+      </c>
+      <c r="O53">
+        <v>-5884800</v>
+      </c>
+      <c r="P53">
+        <v>-25650824000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>1673521080000</v>
+      </c>
+      <c r="B54">
+        <v>912700</v>
+      </c>
+      <c r="C54">
+        <v>658000</v>
+      </c>
+      <c r="D54">
+        <v>1100</v>
+      </c>
+      <c r="E54">
+        <v>18885899000</v>
+      </c>
+      <c r="F54">
+        <v>13547299000</v>
+      </c>
+      <c r="G54">
+        <v>31857999.999999996</v>
+      </c>
+      <c r="H54">
+        <v>1571800</v>
+      </c>
+      <c r="I54">
+        <v>32465056000</v>
+      </c>
+      <c r="J54" t="str">
+        <v>2023-01-12T10:58:00.000Z</v>
+      </c>
+      <c r="K54">
+        <v>2063859017000</v>
+      </c>
+      <c r="L54">
+        <v>115234400</v>
+      </c>
+      <c r="M54">
+        <v>-254700</v>
+      </c>
+      <c r="N54">
+        <v>-5338600000</v>
+      </c>
+      <c r="O54">
+        <v>-6139500</v>
+      </c>
+      <c r="P54">
+        <v>-30989424000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>1673521200000</v>
+      </c>
+      <c r="B55">
+        <v>1027500</v>
+      </c>
+      <c r="C55">
+        <v>862300</v>
+      </c>
+      <c r="D55">
+        <v>17800</v>
+      </c>
+      <c r="E55">
+        <v>17120395000</v>
+      </c>
+      <c r="F55">
+        <v>19072927000</v>
+      </c>
+      <c r="G55">
+        <v>418470000</v>
+      </c>
+      <c r="H55">
+        <v>1907600</v>
+      </c>
+      <c r="I55">
+        <v>36611792000</v>
+      </c>
+      <c r="J55" t="str">
+        <v>2023-01-12T11:00:00.000Z</v>
+      </c>
+      <c r="K55">
+        <v>2100470809000</v>
+      </c>
+      <c r="L55">
+        <v>117142000</v>
+      </c>
+      <c r="M55">
+        <v>-165200</v>
+      </c>
+      <c r="N55">
+        <v>1952532000</v>
+      </c>
+      <c r="O55">
+        <v>-6304700</v>
+      </c>
+      <c r="P55">
+        <v>-29036892000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>1673521320000</v>
+      </c>
+      <c r="B56">
+        <v>1929100</v>
+      </c>
+      <c r="C56">
+        <v>988800</v>
+      </c>
+      <c r="D56">
+        <v>5000</v>
+      </c>
+      <c r="E56">
+        <v>35518764000</v>
+      </c>
+      <c r="F56">
+        <v>18999246000</v>
+      </c>
+      <c r="G56">
+        <v>134425000</v>
+      </c>
+      <c r="H56">
+        <v>2922900</v>
+      </c>
+      <c r="I56">
+        <v>54652435000</v>
+      </c>
+      <c r="J56" t="str">
+        <v>2023-01-12T11:02:00.000Z</v>
+      </c>
+      <c r="K56">
+        <v>2155123244000</v>
+      </c>
+      <c r="L56">
+        <v>120064900</v>
+      </c>
+      <c r="M56">
+        <v>-940300</v>
+      </c>
+      <c r="N56">
+        <v>-16519518000</v>
+      </c>
+      <c r="O56">
+        <v>-7245000</v>
+      </c>
+      <c r="P56">
+        <v>-45556410000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>1673521440000</v>
+      </c>
+      <c r="B57">
+        <v>1751100</v>
+      </c>
+      <c r="C57">
+        <v>756800</v>
+      </c>
+      <c r="D57">
+        <v>37100</v>
+      </c>
+      <c r="E57">
+        <v>28778912000</v>
+      </c>
+      <c r="F57">
+        <v>12704978000</v>
+      </c>
+      <c r="G57">
+        <v>597073000</v>
+      </c>
+      <c r="H57">
+        <v>2545000</v>
+      </c>
+      <c r="I57">
+        <v>42080963000</v>
+      </c>
+      <c r="J57" t="str">
+        <v>2023-01-12T11:04:00.000Z</v>
+      </c>
+      <c r="K57">
+        <v>2197204207000</v>
+      </c>
+      <c r="L57">
+        <v>122609900</v>
+      </c>
+      <c r="M57">
+        <v>-994300</v>
+      </c>
+      <c r="N57">
+        <v>-16073934000</v>
+      </c>
+      <c r="O57">
+        <v>-8239300</v>
+      </c>
+      <c r="P57">
+        <v>-61630344000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>1673521560000</v>
+      </c>
+      <c r="B58">
+        <v>1730200</v>
+      </c>
+      <c r="C58">
+        <v>767500</v>
+      </c>
+      <c r="D58">
+        <v>13000</v>
+      </c>
+      <c r="E58">
+        <v>26568717000</v>
+      </c>
+      <c r="F58">
+        <v>15105148000</v>
+      </c>
+      <c r="G58">
+        <v>471089000</v>
+      </c>
+      <c r="H58">
+        <v>2510700</v>
+      </c>
+      <c r="I58">
+        <v>42144954000</v>
+      </c>
+      <c r="J58" t="str">
+        <v>2023-01-12T11:06:00.000Z</v>
+      </c>
+      <c r="K58">
+        <v>2239349161000</v>
+      </c>
+      <c r="L58">
+        <v>125120600</v>
+      </c>
+      <c r="M58">
+        <v>-962700</v>
+      </c>
+      <c r="N58">
+        <v>-11463569000</v>
+      </c>
+      <c r="O58">
+        <v>-9202000</v>
+      </c>
+      <c r="P58">
+        <v>-73093913000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>1673521680000</v>
+      </c>
+      <c r="B59">
+        <v>1268800</v>
+      </c>
+      <c r="C59">
+        <v>583700</v>
+      </c>
+      <c r="D59">
+        <v>1200</v>
+      </c>
+      <c r="E59">
+        <v>19817495000</v>
+      </c>
+      <c r="F59">
+        <v>11211285000</v>
+      </c>
+      <c r="G59">
+        <v>18818000</v>
+      </c>
+      <c r="H59">
+        <v>1853700</v>
+      </c>
+      <c r="I59">
+        <v>31047598000</v>
+      </c>
+      <c r="J59" t="str">
+        <v>2023-01-12T11:08:00.000Z</v>
+      </c>
+      <c r="K59">
+        <v>2270396759000</v>
+      </c>
+      <c r="L59">
+        <v>126974300</v>
+      </c>
+      <c r="M59">
+        <v>-685100</v>
+      </c>
+      <c r="N59">
+        <v>-8606210000</v>
+      </c>
+      <c r="O59">
+        <v>-9887100</v>
+      </c>
+      <c r="P59">
+        <v>-81700123000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>1673521800000</v>
+      </c>
+      <c r="B60">
+        <v>2050900</v>
+      </c>
+      <c r="C60">
+        <v>550100</v>
+      </c>
+      <c r="D60">
+        <v>2200</v>
+      </c>
+      <c r="E60">
+        <v>32157591000</v>
+      </c>
+      <c r="F60">
+        <v>11131186000</v>
+      </c>
+      <c r="G60">
+        <v>87490000</v>
+      </c>
+      <c r="H60">
+        <v>2603200</v>
+      </c>
+      <c r="I60">
+        <v>43376267000</v>
+      </c>
+      <c r="J60" t="str">
+        <v>2023-01-12T11:10:00.000Z</v>
+      </c>
+      <c r="K60">
+        <v>2313773026000</v>
+      </c>
+      <c r="L60">
+        <v>129577500</v>
+      </c>
+      <c r="M60">
+        <v>-1500800</v>
+      </c>
+      <c r="N60">
+        <v>-21026405000</v>
+      </c>
+      <c r="O60">
+        <v>-11387900</v>
+      </c>
+      <c r="P60">
+        <v>-102726528000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>1673521920000</v>
+      </c>
+      <c r="B61">
+        <v>1006000</v>
+      </c>
+      <c r="C61">
+        <v>1047800</v>
+      </c>
+      <c r="D61">
+        <v>5300</v>
+      </c>
+      <c r="E61">
+        <v>19682541000</v>
+      </c>
+      <c r="F61">
+        <v>17470817000</v>
+      </c>
+      <c r="G61">
+        <v>85116000</v>
+      </c>
+      <c r="H61">
+        <v>2059100</v>
+      </c>
+      <c r="I61">
+        <v>37238474000</v>
+      </c>
+      <c r="J61" t="str">
+        <v>2023-01-12T11:12:00.000Z</v>
+      </c>
+      <c r="K61">
+        <v>2351011500000</v>
+      </c>
+      <c r="L61">
+        <v>131636600</v>
+      </c>
+      <c r="M61">
+        <v>41800</v>
+      </c>
+      <c r="N61">
+        <v>-2211724000</v>
+      </c>
+      <c r="O61">
+        <v>-11346100</v>
+      </c>
+      <c r="P61">
+        <v>-104938252000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>1673522040000</v>
+      </c>
+      <c r="B62">
+        <v>1998600</v>
+      </c>
+      <c r="C62">
+        <v>1290600</v>
+      </c>
+      <c r="D62">
+        <v>40400</v>
+      </c>
+      <c r="E62">
+        <v>34524883000</v>
+      </c>
+      <c r="F62">
+        <v>20411220000</v>
+      </c>
+      <c r="G62">
+        <v>445815000</v>
+      </c>
+      <c r="H62">
+        <v>3329600</v>
+      </c>
+      <c r="I62">
+        <v>55381918000</v>
+      </c>
+      <c r="J62" t="str">
+        <v>2023-01-12T11:14:00.000Z</v>
+      </c>
+      <c r="K62">
+        <v>2406393418000</v>
+      </c>
+      <c r="L62">
+        <v>134966200</v>
+      </c>
+      <c r="M62">
+        <v>-708000</v>
+      </c>
+      <c r="N62">
+        <v>-14113663000</v>
+      </c>
+      <c r="O62">
+        <v>-12054100</v>
+      </c>
+      <c r="P62">
+        <v>-119051915000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>1673522160000</v>
+      </c>
+      <c r="B63">
+        <v>1317600</v>
+      </c>
+      <c r="C63">
+        <v>1323700</v>
+      </c>
+      <c r="D63">
+        <v>4900</v>
+      </c>
+      <c r="E63">
+        <v>22218997000</v>
+      </c>
+      <c r="F63">
+        <v>22531790000</v>
+      </c>
+      <c r="G63">
+        <v>134304000</v>
+      </c>
+      <c r="H63">
+        <v>2646200</v>
+      </c>
+      <c r="I63">
+        <v>44885091000</v>
+      </c>
+      <c r="J63" t="str">
+        <v>2023-01-12T11:16:00.000Z</v>
+      </c>
+      <c r="K63">
+        <v>2451278509000</v>
+      </c>
+      <c r="L63">
+        <v>137612400</v>
+      </c>
+      <c r="M63">
+        <v>6100</v>
+      </c>
+      <c r="N63">
+        <v>312793000</v>
+      </c>
+      <c r="O63">
+        <v>-12048000</v>
+      </c>
+      <c r="P63">
+        <v>-118739122000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>1673522280000</v>
+      </c>
+      <c r="B64">
+        <v>997500</v>
+      </c>
+      <c r="C64">
+        <v>1089800</v>
+      </c>
+      <c r="D64">
+        <v>900</v>
+      </c>
+      <c r="E64">
+        <v>17844750000</v>
+      </c>
+      <c r="F64">
+        <v>20111801000</v>
+      </c>
+      <c r="G64">
+        <v>31645000</v>
+      </c>
+      <c r="H64">
+        <v>2088200</v>
+      </c>
+      <c r="I64">
+        <v>37988196000</v>
+      </c>
+      <c r="J64" t="str">
+        <v>2023-01-12T11:18:00.000Z</v>
+      </c>
+      <c r="K64">
+        <v>2489266705000</v>
+      </c>
+      <c r="L64">
+        <v>139700600</v>
+      </c>
+      <c r="M64">
+        <v>92300</v>
+      </c>
+      <c r="N64">
+        <v>2267051000</v>
+      </c>
+      <c r="O64">
+        <v>-11955700</v>
+      </c>
+      <c r="P64">
+        <v>-116472071000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>1673522400000</v>
+      </c>
+      <c r="B65">
+        <v>718000</v>
+      </c>
+      <c r="C65">
+        <v>1578800</v>
+      </c>
+      <c r="D65">
+        <v>4700</v>
+      </c>
+      <c r="E65">
+        <v>13418071000</v>
+      </c>
+      <c r="F65">
+        <v>32656584000</v>
+      </c>
+      <c r="G65">
+        <v>118211000</v>
+      </c>
+      <c r="H65">
+        <v>2301500</v>
+      </c>
+      <c r="I65">
+        <v>46192866000</v>
+      </c>
+      <c r="J65" t="str">
+        <v>2023-01-12T11:20:00.000Z</v>
+      </c>
+      <c r="K65">
+        <v>2535459571000</v>
+      </c>
+      <c r="L65">
+        <v>142002100</v>
+      </c>
+      <c r="M65">
+        <v>860800</v>
+      </c>
+      <c r="N65">
+        <v>19238513000</v>
+      </c>
+      <c r="O65">
+        <v>-11094900</v>
+      </c>
+      <c r="P65">
+        <v>-97233558000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>1673522520000</v>
+      </c>
+      <c r="B66">
+        <v>721900</v>
+      </c>
+      <c r="C66">
+        <v>832700</v>
+      </c>
+      <c r="D66">
+        <v>11300</v>
+      </c>
+      <c r="E66">
+        <v>12421612000</v>
+      </c>
+      <c r="F66">
+        <v>16370870000</v>
+      </c>
+      <c r="G66">
+        <v>87500000</v>
+      </c>
+      <c r="H66">
+        <v>1565900</v>
+      </c>
+      <c r="I66">
+        <v>28879982000</v>
+      </c>
+      <c r="J66" t="str">
+        <v>2023-01-12T11:22:00.000Z</v>
+      </c>
+      <c r="K66">
+        <v>2564339553000</v>
+      </c>
+      <c r="L66">
+        <v>143568000</v>
+      </c>
+      <c r="M66">
+        <v>110800</v>
+      </c>
+      <c r="N66">
+        <v>3949258000</v>
+      </c>
+      <c r="O66">
+        <v>-10984100</v>
+      </c>
+      <c r="P66">
+        <v>-93284300000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1673522640000</v>
+      </c>
+      <c r="B67">
+        <v>461000</v>
+      </c>
+      <c r="C67">
+        <v>1063400</v>
+      </c>
+      <c r="D67">
+        <v>19000</v>
+      </c>
+      <c r="E67">
+        <v>9194973000</v>
+      </c>
+      <c r="F67">
+        <v>26256607000</v>
+      </c>
+      <c r="G67">
+        <v>613508000</v>
+      </c>
+      <c r="H67">
+        <v>1543400</v>
+      </c>
+      <c r="I67">
+        <v>36065088000</v>
+      </c>
+      <c r="J67" t="str">
+        <v>2023-01-12T11:24:00.000Z</v>
+      </c>
+      <c r="K67">
+        <v>2600404641000</v>
+      </c>
+      <c r="L67">
+        <v>145111400</v>
+      </c>
+      <c r="M67">
+        <v>602400</v>
+      </c>
+      <c r="N67">
+        <v>17061634000</v>
+      </c>
+      <c r="O67">
+        <v>-10381700</v>
+      </c>
+      <c r="P67">
+        <v>-76222666000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>1673522760000</v>
+      </c>
+      <c r="B68">
+        <v>562200</v>
+      </c>
+      <c r="C68">
+        <v>1323900</v>
+      </c>
+      <c r="D68">
+        <v>3400</v>
+      </c>
+      <c r="E68">
+        <v>11688679000</v>
+      </c>
+      <c r="F68">
+        <v>25210897000</v>
+      </c>
+      <c r="G68">
+        <v>39355000</v>
+      </c>
+      <c r="H68">
+        <v>1889500</v>
+      </c>
+      <c r="I68">
+        <v>36938931000</v>
+      </c>
+      <c r="J68" t="str">
+        <v>2023-01-12T11:26:00.000Z</v>
+      </c>
+      <c r="K68">
+        <v>2637343572000</v>
+      </c>
+      <c r="L68">
+        <v>147000900</v>
+      </c>
+      <c r="M68">
+        <v>761700</v>
+      </c>
+      <c r="N68">
+        <v>13522218000</v>
+      </c>
+      <c r="O68">
+        <v>-9620000</v>
+      </c>
+      <c r="P68">
+        <v>-62700448000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>1673522880000</v>
+      </c>
+      <c r="B69">
+        <v>839200</v>
+      </c>
+      <c r="C69">
+        <v>814600</v>
+      </c>
+      <c r="D69">
+        <v>1400</v>
+      </c>
+      <c r="E69">
+        <v>15332446000</v>
+      </c>
+      <c r="F69">
+        <v>16317814000</v>
+      </c>
+      <c r="G69">
+        <v>131180000</v>
+      </c>
+      <c r="H69">
+        <v>1655200</v>
+      </c>
+      <c r="I69">
+        <v>31781440000</v>
+      </c>
+      <c r="J69" t="str">
+        <v>2023-01-12T11:28:00.000Z</v>
+      </c>
+      <c r="K69">
+        <v>2669125012000</v>
+      </c>
+      <c r="L69">
+        <v>148656100</v>
+      </c>
+      <c r="M69">
+        <v>-24600</v>
+      </c>
+      <c r="N69">
+        <v>985368000</v>
+      </c>
+      <c r="O69">
+        <v>-9644600</v>
+      </c>
+      <c r="P69">
+        <v>-61715080000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>1673523000000</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>2400</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>62520000</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>2400</v>
+      </c>
+      <c r="I70">
+        <v>62520000</v>
+      </c>
+      <c r="J70" t="str">
+        <v>2023-01-12T11:30:00.000Z</v>
+      </c>
+      <c r="K70">
+        <v>2669187532000</v>
+      </c>
+      <c r="L70">
+        <v>148658500</v>
+      </c>
+      <c r="M70">
+        <v>2400</v>
+      </c>
+      <c r="N70">
+        <v>62520000</v>
+      </c>
+      <c r="O70">
+        <v>-9642200</v>
+      </c>
+      <c r="P70">
+        <v>-61652560000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>1673528400000</v>
+      </c>
+      <c r="B71">
+        <v>3628700</v>
+      </c>
+      <c r="C71">
+        <v>2835300</v>
+      </c>
+      <c r="D71">
+        <v>202800</v>
+      </c>
+      <c r="E71">
+        <v>59083776000</v>
+      </c>
+      <c r="F71">
+        <v>51432443000</v>
+      </c>
+      <c r="G71">
+        <v>3130753000</v>
+      </c>
+      <c r="H71">
+        <v>6666800</v>
+      </c>
+      <c r="I71">
+        <v>113646972000</v>
+      </c>
+      <c r="J71" t="str">
+        <v>2023-01-12T13:00:00.000Z</v>
+      </c>
+      <c r="K71">
+        <v>2782834504000</v>
+      </c>
+      <c r="L71">
+        <v>155325300</v>
+      </c>
+      <c r="M71">
+        <v>-793400</v>
+      </c>
+      <c r="N71">
+        <v>-7651333000</v>
+      </c>
+      <c r="O71">
+        <v>-10435600</v>
+      </c>
+      <c r="P71">
+        <v>-69303893000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>1673528520000</v>
+      </c>
+      <c r="B72">
+        <v>1426700</v>
+      </c>
+      <c r="C72">
+        <v>2224800</v>
+      </c>
+      <c r="D72">
+        <v>16000</v>
+      </c>
+      <c r="E72">
+        <v>26427855000</v>
+      </c>
+      <c r="F72">
+        <v>39710085000</v>
+      </c>
+      <c r="G72">
+        <v>148902000</v>
+      </c>
+      <c r="H72">
+        <v>3667500</v>
+      </c>
+      <c r="I72">
+        <v>66286842000</v>
+      </c>
+      <c r="J72" t="str">
+        <v>2023-01-12T13:02:00.000Z</v>
+      </c>
+      <c r="K72">
+        <v>2849121346000</v>
+      </c>
+      <c r="L72">
+        <v>158992800</v>
+      </c>
+      <c r="M72">
+        <v>798100</v>
+      </c>
+      <c r="N72">
+        <v>13282230000</v>
+      </c>
+      <c r="O72">
+        <v>-9637500</v>
+      </c>
+      <c r="P72">
+        <v>-56021663000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1673528640000</v>
+      </c>
+      <c r="B73">
+        <v>1315100</v>
+      </c>
+      <c r="C73">
+        <v>2281700</v>
+      </c>
+      <c r="D73">
+        <v>25400</v>
+      </c>
+      <c r="E73">
+        <v>22627896000</v>
+      </c>
+      <c r="F73">
+        <v>36951707000</v>
+      </c>
+      <c r="G73">
+        <v>254017000</v>
+      </c>
+      <c r="H73">
+        <v>3622200</v>
+      </c>
+      <c r="I73">
+        <v>59833620000</v>
+      </c>
+      <c r="J73" t="str">
+        <v>2023-01-12T13:04:00.000Z</v>
+      </c>
+      <c r="K73">
+        <v>2908954966000</v>
+      </c>
+      <c r="L73">
+        <v>162615000</v>
+      </c>
+      <c r="M73">
+        <v>966600</v>
+      </c>
+      <c r="N73">
+        <v>14323811000</v>
+      </c>
+      <c r="O73">
+        <v>-8670900</v>
+      </c>
+      <c r="P73">
+        <v>-41697852000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>1673528760000</v>
+      </c>
+      <c r="B74">
+        <v>1456900</v>
+      </c>
+      <c r="C74">
+        <v>1151900</v>
+      </c>
+      <c r="D74">
+        <v>14800</v>
+      </c>
+      <c r="E74">
+        <v>24694401000</v>
+      </c>
+      <c r="F74">
+        <v>20872263000</v>
+      </c>
+      <c r="G74">
+        <v>454291000</v>
+      </c>
+      <c r="H74">
+        <v>2623600</v>
+      </c>
+      <c r="I74">
+        <v>46020955000</v>
+      </c>
+      <c r="J74" t="str">
+        <v>2023-01-12T13:06:00.000Z</v>
+      </c>
+      <c r="K74">
+        <v>2954975921000</v>
+      </c>
+      <c r="L74">
+        <v>165238600</v>
+      </c>
+      <c r="M74">
+        <v>-305000</v>
+      </c>
+      <c r="N74">
+        <v>-3822138000</v>
+      </c>
+      <c r="O74">
+        <v>-8975900</v>
+      </c>
+      <c r="P74">
+        <v>-45519990000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>1673528880000</v>
+      </c>
+      <c r="B75">
+        <v>2552400</v>
+      </c>
+      <c r="C75">
+        <v>1269200</v>
+      </c>
+      <c r="D75">
+        <v>7600</v>
+      </c>
+      <c r="E75">
+        <v>45430841000</v>
+      </c>
+      <c r="F75">
+        <v>21241663000</v>
+      </c>
+      <c r="G75">
+        <v>75303000</v>
+      </c>
+      <c r="H75">
+        <v>3829200</v>
+      </c>
+      <c r="I75">
+        <v>66747807000</v>
+      </c>
+      <c r="J75" t="str">
+        <v>2023-01-12T13:08:00.000Z</v>
+      </c>
+      <c r="K75">
+        <v>3021723728000</v>
+      </c>
+      <c r="L75">
+        <v>169067800</v>
+      </c>
+      <c r="M75">
+        <v>-1283200</v>
+      </c>
+      <c r="N75">
+        <v>-24189178000</v>
+      </c>
+      <c r="O75">
+        <v>-10259100</v>
+      </c>
+      <c r="P75">
+        <v>-69709168000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>1673529000000</v>
+      </c>
+      <c r="B76">
+        <v>2745800</v>
+      </c>
+      <c r="C76">
+        <v>775700</v>
+      </c>
+      <c r="D76">
+        <v>19900</v>
+      </c>
+      <c r="E76">
+        <v>45261453000</v>
+      </c>
+      <c r="F76">
+        <v>15319039000</v>
+      </c>
+      <c r="G76">
+        <v>426063000</v>
+      </c>
+      <c r="H76">
+        <v>3541400</v>
+      </c>
+      <c r="I76">
+        <v>61006555000</v>
+      </c>
+      <c r="J76" t="str">
+        <v>2023-01-12T13:10:00.000Z</v>
+      </c>
+      <c r="K76">
+        <v>3082730283000</v>
+      </c>
+      <c r="L76">
+        <v>172609200</v>
+      </c>
+      <c r="M76">
+        <v>-1970100</v>
+      </c>
+      <c r="N76">
+        <v>-29942414000</v>
+      </c>
+      <c r="O76">
+        <v>-12229200</v>
+      </c>
+      <c r="P76">
+        <v>-99651582000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>1673529120000</v>
+      </c>
+      <c r="B77">
+        <v>3997100</v>
+      </c>
+      <c r="C77">
+        <v>580100</v>
+      </c>
+      <c r="D77">
+        <v>10600</v>
+      </c>
+      <c r="E77">
+        <v>61688759000</v>
+      </c>
+      <c r="F77">
+        <v>10898005000</v>
+      </c>
+      <c r="G77">
+        <v>313781000</v>
+      </c>
+      <c r="H77">
+        <v>4587800</v>
+      </c>
+      <c r="I77">
+        <v>72900545000</v>
+      </c>
+      <c r="J77" t="str">
+        <v>2023-01-12T13:12:00.000Z</v>
+      </c>
+      <c r="K77">
+        <v>3155630828000</v>
+      </c>
+      <c r="L77">
+        <v>177197000</v>
+      </c>
+      <c r="M77">
+        <v>-3417000</v>
+      </c>
+      <c r="N77">
+        <v>-50790754000</v>
+      </c>
+      <c r="O77">
+        <v>-15646200</v>
+      </c>
+      <c r="P77">
+        <v>-150442336000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>1673529240000</v>
+      </c>
+      <c r="B78">
+        <v>5360000</v>
+      </c>
+      <c r="C78">
+        <v>1125300</v>
+      </c>
+      <c r="D78">
+        <v>35700</v>
+      </c>
+      <c r="E78">
+        <v>82974808000</v>
+      </c>
+      <c r="F78">
+        <v>19363913000</v>
+      </c>
+      <c r="G78">
+        <v>719241000</v>
+      </c>
+      <c r="H78">
+        <v>6521000</v>
+      </c>
+      <c r="I78">
+        <v>103057962000</v>
+      </c>
+      <c r="J78" t="str">
+        <v>2023-01-12T13:14:00.000Z</v>
+      </c>
+      <c r="K78">
+        <v>3258688790000</v>
+      </c>
+      <c r="L78">
+        <v>183718000</v>
+      </c>
+      <c r="M78">
+        <v>-4234700</v>
+      </c>
+      <c r="N78">
+        <v>-63610895000</v>
+      </c>
+      <c r="O78">
+        <v>-19880900</v>
+      </c>
+      <c r="P78">
+        <v>-214053231000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>1673529360000</v>
+      </c>
+      <c r="B79">
+        <v>3050600</v>
+      </c>
+      <c r="C79">
+        <v>1428800</v>
+      </c>
+      <c r="D79">
+        <v>25300</v>
+      </c>
+      <c r="E79">
+        <v>50810079000</v>
+      </c>
+      <c r="F79">
+        <v>26378994000</v>
+      </c>
+      <c r="G79">
+        <v>370345000</v>
+      </c>
+      <c r="H79">
+        <v>4504700</v>
+      </c>
+      <c r="I79">
+        <v>77559418000</v>
+      </c>
+      <c r="J79" t="str">
+        <v>2023-01-12T13:16:00.000Z</v>
+      </c>
+      <c r="K79">
+        <v>3336248208000</v>
+      </c>
+      <c r="L79">
+        <v>188222700</v>
+      </c>
+      <c r="M79">
+        <v>-1621800</v>
+      </c>
+      <c r="N79">
+        <v>-24431085000</v>
+      </c>
+      <c r="O79">
+        <v>-21502700</v>
+      </c>
+      <c r="P79">
+        <v>-238484316000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>1673529480000</v>
+      </c>
+      <c r="B80">
+        <v>2150200</v>
+      </c>
+      <c r="C80">
+        <v>2448300</v>
+      </c>
+      <c r="D80">
+        <v>6800</v>
+      </c>
+      <c r="E80">
+        <v>33013455000</v>
+      </c>
+      <c r="F80">
+        <v>41812226000</v>
+      </c>
+      <c r="G80">
+        <v>89593000</v>
+      </c>
+      <c r="H80">
+        <v>4605300</v>
+      </c>
+      <c r="I80">
+        <v>74915274000</v>
+      </c>
+      <c r="J80" t="str">
+        <v>2023-01-12T13:18:00.000Z</v>
+      </c>
+      <c r="K80">
+        <v>3411163482000</v>
+      </c>
+      <c r="L80">
+        <v>192828000</v>
+      </c>
+      <c r="M80">
+        <v>298100</v>
+      </c>
+      <c r="N80">
+        <v>8798771000</v>
+      </c>
+      <c r="O80">
+        <v>-21204600</v>
+      </c>
+      <c r="P80">
+        <v>-229685545000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>1673529600000</v>
+      </c>
+      <c r="B81">
+        <v>994900</v>
+      </c>
+      <c r="C81">
+        <v>2521000</v>
+      </c>
+      <c r="D81">
+        <v>11900</v>
+      </c>
+      <c r="E81">
+        <v>16082062000</v>
+      </c>
+      <c r="F81">
+        <v>42105387000</v>
+      </c>
+      <c r="G81">
+        <v>161959000</v>
+      </c>
+      <c r="H81">
+        <v>3527800</v>
+      </c>
+      <c r="I81">
+        <v>58349408000</v>
+      </c>
+      <c r="J81" t="str">
+        <v>2023-01-12T13:20:00.000Z</v>
+      </c>
+      <c r="K81">
+        <v>3469512890000</v>
+      </c>
+      <c r="L81">
+        <v>196355800</v>
+      </c>
+      <c r="M81">
+        <v>1526100</v>
+      </c>
+      <c r="N81">
+        <v>26023325000</v>
+      </c>
+      <c r="O81">
+        <v>-19678500</v>
+      </c>
+      <c r="P81">
+        <v>-203662220000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>1673529720000</v>
+      </c>
+      <c r="B82">
+        <v>1180400</v>
+      </c>
+      <c r="C82">
+        <v>2518900</v>
+      </c>
+      <c r="D82">
+        <v>34600</v>
+      </c>
+      <c r="E82">
+        <v>21913856000</v>
+      </c>
+      <c r="F82">
+        <v>42977225000</v>
+      </c>
+      <c r="G82">
+        <v>232642000</v>
+      </c>
+      <c r="H82">
+        <v>3733900</v>
+      </c>
+      <c r="I82">
+        <v>65123723000</v>
+      </c>
+      <c r="J82" t="str">
+        <v>2023-01-12T13:22:00.000Z</v>
+      </c>
+      <c r="K82">
+        <v>3534636613000</v>
+      </c>
+      <c r="L82">
+        <v>200089700</v>
+      </c>
+      <c r="M82">
+        <v>1338500</v>
+      </c>
+      <c r="N82">
+        <v>21063369000</v>
+      </c>
+      <c r="O82">
+        <v>-18340000</v>
+      </c>
+      <c r="P82">
+        <v>-182598851000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>1673529840000</v>
+      </c>
+      <c r="B83">
+        <v>1718600</v>
+      </c>
+      <c r="C83">
+        <v>3078100</v>
+      </c>
+      <c r="D83">
+        <v>22200</v>
+      </c>
+      <c r="E83">
+        <v>32438962000</v>
+      </c>
+      <c r="F83">
+        <v>48375421000</v>
+      </c>
+      <c r="G83">
+        <v>407101000</v>
+      </c>
+      <c r="H83">
+        <v>4818900</v>
+      </c>
+      <c r="I83">
+        <v>81221484000</v>
+      </c>
+      <c r="J83" t="str">
+        <v>2023-01-12T13:24:00.000Z</v>
+      </c>
+      <c r="K83">
+        <v>3615858097000</v>
+      </c>
+      <c r="L83">
+        <v>204908600</v>
+      </c>
+      <c r="M83">
+        <v>1359500</v>
+      </c>
+      <c r="N83">
+        <v>15936459000</v>
+      </c>
+      <c r="O83">
+        <v>-16980500</v>
+      </c>
+      <c r="P83">
+        <v>-166662392000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>1673529960000</v>
+      </c>
+      <c r="B84">
+        <v>2332700</v>
+      </c>
+      <c r="C84">
+        <v>2596500</v>
+      </c>
+      <c r="D84">
+        <v>22500</v>
+      </c>
+      <c r="E84">
+        <v>35466568000</v>
+      </c>
+      <c r="F84">
+        <v>43424012000</v>
+      </c>
+      <c r="G84">
+        <v>476695000</v>
+      </c>
+      <c r="H84">
+        <v>4951700</v>
+      </c>
+      <c r="I84">
+        <v>79367275000</v>
+      </c>
+      <c r="J84" t="str">
+        <v>2023-01-12T13:26:00.000Z</v>
+      </c>
+      <c r="K84">
+        <v>3695225372000</v>
+      </c>
+      <c r="L84">
+        <v>209860300</v>
+      </c>
+      <c r="M84">
+        <v>263800</v>
+      </c>
+      <c r="N84">
+        <v>7957444000</v>
+      </c>
+      <c r="O84">
+        <v>-16716700</v>
+      </c>
+      <c r="P84">
+        <v>-158704948000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>1673530080000</v>
+      </c>
+      <c r="B85">
+        <v>1410800</v>
+      </c>
+      <c r="C85">
+        <v>1909100</v>
+      </c>
+      <c r="D85">
+        <v>93300</v>
+      </c>
+      <c r="E85">
+        <v>24160813000</v>
+      </c>
+      <c r="F85">
+        <v>36304796000</v>
+      </c>
+      <c r="G85">
+        <v>1380299000</v>
+      </c>
+      <c r="H85">
+        <v>3413200</v>
+      </c>
+      <c r="I85">
+        <v>61845908000</v>
+      </c>
+      <c r="J85" t="str">
+        <v>2023-01-12T13:28:00.000Z</v>
+      </c>
+      <c r="K85">
+        <v>3757071280000</v>
+      </c>
+      <c r="L85">
+        <v>213273500</v>
+      </c>
+      <c r="M85">
+        <v>498300</v>
+      </c>
+      <c r="N85">
+        <v>12143983000</v>
+      </c>
+      <c r="O85">
+        <v>-16218400</v>
+      </c>
+      <c r="P85">
+        <v>-146560965000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>1673530200000</v>
+      </c>
+      <c r="B86">
+        <v>1739900</v>
+      </c>
+      <c r="C86">
+        <v>1815600</v>
+      </c>
+      <c r="D86">
+        <v>42100</v>
+      </c>
+      <c r="E86">
+        <v>29721853000</v>
+      </c>
+      <c r="F86">
+        <v>34170648000</v>
+      </c>
+      <c r="G86">
+        <v>855382000</v>
+      </c>
+      <c r="H86">
+        <v>3597600</v>
+      </c>
+      <c r="I86">
+        <v>64747883000</v>
+      </c>
+      <c r="J86" t="str">
+        <v>2023-01-12T13:30:00.000Z</v>
+      </c>
+      <c r="K86">
+        <v>3821819163000</v>
+      </c>
+      <c r="L86">
+        <v>216871100</v>
+      </c>
+      <c r="M86">
+        <v>75700</v>
+      </c>
+      <c r="N86">
+        <v>4448795000</v>
+      </c>
+      <c r="O86">
+        <v>-16142700</v>
+      </c>
+      <c r="P86">
+        <v>-142112170000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>1673530320000</v>
+      </c>
+      <c r="B87">
+        <v>2558800</v>
+      </c>
+      <c r="C87">
+        <v>957000</v>
+      </c>
+      <c r="D87">
+        <v>9400</v>
+      </c>
+      <c r="E87">
+        <v>47934107000</v>
+      </c>
+      <c r="F87">
+        <v>18455121000</v>
+      </c>
+      <c r="G87">
+        <v>127107000</v>
+      </c>
+      <c r="H87">
+        <v>3525200</v>
+      </c>
+      <c r="I87">
+        <v>66516335000</v>
+      </c>
+      <c r="J87" t="str">
+        <v>2023-01-12T13:32:00.000Z</v>
+      </c>
+      <c r="K87">
+        <v>3888335498000</v>
+      </c>
+      <c r="L87">
+        <v>220396300</v>
+      </c>
+      <c r="M87">
+        <v>-1601800</v>
+      </c>
+      <c r="N87">
+        <v>-29478986000</v>
+      </c>
+      <c r="O87">
+        <v>-17744500</v>
+      </c>
+      <c r="P87">
+        <v>-171591156000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>1673530440000</v>
+      </c>
+      <c r="B88">
+        <v>3065900</v>
+      </c>
+      <c r="C88">
+        <v>1373400</v>
+      </c>
+      <c r="D88">
+        <v>11700</v>
+      </c>
+      <c r="E88">
+        <v>54616850000</v>
+      </c>
+      <c r="F88">
+        <v>24167632000</v>
+      </c>
+      <c r="G88">
+        <v>206100000</v>
+      </c>
+      <c r="H88">
+        <v>4451000</v>
+      </c>
+      <c r="I88">
+        <v>78990582000</v>
+      </c>
+      <c r="J88" t="str">
+        <v>2023-01-12T13:34:00.000Z</v>
+      </c>
+      <c r="K88">
+        <v>3967326080000</v>
+      </c>
+      <c r="L88">
+        <v>224847300</v>
+      </c>
+      <c r="M88">
+        <v>-1692500</v>
+      </c>
+      <c r="N88">
+        <v>-30449218000</v>
+      </c>
+      <c r="O88">
+        <v>-19437000</v>
+      </c>
+      <c r="P88">
+        <v>-202040374000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1673530560000</v>
+      </c>
+      <c r="B89">
+        <v>2286400</v>
+      </c>
+      <c r="C89">
+        <v>1653400</v>
+      </c>
+      <c r="D89">
+        <v>36300</v>
+      </c>
+      <c r="E89">
+        <v>42721021000</v>
+      </c>
+      <c r="F89">
+        <v>26138985000</v>
+      </c>
+      <c r="G89">
+        <v>381346000</v>
+      </c>
+      <c r="H89">
+        <v>3976100</v>
+      </c>
+      <c r="I89">
+        <v>69241352000</v>
+      </c>
+      <c r="J89" t="str">
+        <v>2023-01-12T13:36:00.000Z</v>
+      </c>
+      <c r="K89">
+        <v>4036567432000</v>
+      </c>
+      <c r="L89">
+        <v>228823400</v>
+      </c>
+      <c r="M89">
+        <v>-633000</v>
+      </c>
+      <c r="N89">
+        <v>-16582036000</v>
+      </c>
+      <c r="O89">
+        <v>-20070000</v>
+      </c>
+      <c r="P89">
+        <v>-218622410000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>1673530680000</v>
+      </c>
+      <c r="B90">
+        <v>2890000</v>
+      </c>
+      <c r="C90">
+        <v>1124600</v>
+      </c>
+      <c r="D90">
+        <v>25900</v>
+      </c>
+      <c r="E90">
+        <v>49368211000</v>
+      </c>
+      <c r="F90">
+        <v>17583943000</v>
+      </c>
+      <c r="G90">
+        <v>370059000</v>
+      </c>
+      <c r="H90">
+        <v>4040500</v>
+      </c>
+      <c r="I90">
+        <v>67322213000</v>
+      </c>
+      <c r="J90" t="str">
+        <v>2023-01-12T13:38:00.000Z</v>
+      </c>
+      <c r="K90">
+        <v>4103889645000</v>
+      </c>
+      <c r="L90">
+        <v>232863900</v>
+      </c>
+      <c r="M90">
+        <v>-1765400</v>
+      </c>
+      <c r="N90">
+        <v>-31784268000</v>
+      </c>
+      <c r="O90">
+        <v>-21835400</v>
+      </c>
+      <c r="P90">
+        <v>-250406678000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>1673530800000</v>
+      </c>
+      <c r="B91">
+        <v>2179500</v>
+      </c>
+      <c r="C91">
+        <v>1046600</v>
+      </c>
+      <c r="D91">
+        <v>13100</v>
+      </c>
+      <c r="E91">
+        <v>37586711000</v>
+      </c>
+      <c r="F91">
+        <v>18720927000</v>
+      </c>
+      <c r="G91">
+        <v>227925000</v>
+      </c>
+      <c r="H91">
+        <v>3239200</v>
+      </c>
+      <c r="I91">
+        <v>56535563000</v>
+      </c>
+      <c r="J91" t="str">
+        <v>2023-01-12T13:40:00.000Z</v>
+      </c>
+      <c r="K91">
+        <v>4160425208000</v>
+      </c>
+      <c r="L91">
+        <v>236103100</v>
+      </c>
+      <c r="M91">
+        <v>-1132900</v>
+      </c>
+      <c r="N91">
+        <v>-18865784000</v>
+      </c>
+      <c r="O91">
+        <v>-22968300</v>
+      </c>
+      <c r="P91">
+        <v>-269272462000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1673530920000</v>
+      </c>
+      <c r="B92">
+        <v>1499700</v>
+      </c>
+      <c r="C92">
+        <v>1608500</v>
+      </c>
+      <c r="D92">
+        <v>9300</v>
+      </c>
+      <c r="E92">
+        <v>26779362000</v>
+      </c>
+      <c r="F92">
+        <v>27918408000</v>
+      </c>
+      <c r="G92">
+        <v>316674000</v>
+      </c>
+      <c r="H92">
+        <v>3117500</v>
+      </c>
+      <c r="I92">
+        <v>55014444000</v>
+      </c>
+      <c r="J92" t="str">
+        <v>2023-01-12T13:42:00.000Z</v>
+      </c>
+      <c r="K92">
+        <v>4215439652000</v>
+      </c>
+      <c r="L92">
+        <v>239220600</v>
+      </c>
+      <c r="M92">
+        <v>108800</v>
+      </c>
+      <c r="N92">
+        <v>1139046000</v>
+      </c>
+      <c r="O92">
+        <v>-22859500</v>
+      </c>
+      <c r="P92">
+        <v>-268133416000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>1673531040000</v>
+      </c>
+      <c r="B93">
+        <v>1407400</v>
+      </c>
+      <c r="C93">
+        <v>1417800</v>
+      </c>
+      <c r="D93">
+        <v>3500</v>
+      </c>
+      <c r="E93">
+        <v>24796527000</v>
+      </c>
+      <c r="F93">
+        <v>26983815000</v>
+      </c>
+      <c r="G93">
+        <v>65202000</v>
+      </c>
+      <c r="H93">
+        <v>2828700</v>
+      </c>
+      <c r="I93">
+        <v>51845544000</v>
+      </c>
+      <c r="J93" t="str">
+        <v>2023-01-12T13:44:00.000Z</v>
+      </c>
+      <c r="K93">
+        <v>4267285196000</v>
+      </c>
+      <c r="L93">
+        <v>242049300</v>
+      </c>
+      <c r="M93">
+        <v>10400</v>
+      </c>
+      <c r="N93">
+        <v>2187288000</v>
+      </c>
+      <c r="O93">
+        <v>-22849100</v>
+      </c>
+      <c r="P93">
+        <v>-265946128000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>1673531160000</v>
+      </c>
+      <c r="B94">
+        <v>2014000</v>
+      </c>
+      <c r="C94">
+        <v>1039200</v>
+      </c>
+      <c r="D94">
+        <v>20500</v>
+      </c>
+      <c r="E94">
+        <v>40723791000</v>
+      </c>
+      <c r="F94">
+        <v>16938058000</v>
+      </c>
+      <c r="G94">
+        <v>401869000</v>
+      </c>
+      <c r="H94">
+        <v>3073700</v>
+      </c>
+      <c r="I94">
+        <v>58063718000</v>
+      </c>
+      <c r="J94" t="str">
+        <v>2023-01-12T13:46:00.000Z</v>
+      </c>
+      <c r="K94">
+        <v>4325348914000</v>
+      </c>
+      <c r="L94">
+        <v>245123000</v>
+      </c>
+      <c r="M94">
+        <v>-974800</v>
+      </c>
+      <c r="N94">
+        <v>-23785733000</v>
+      </c>
+      <c r="O94">
+        <v>-23823900</v>
+      </c>
+      <c r="P94">
+        <v>-289731861000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>1673531280000</v>
+      </c>
+      <c r="B95">
+        <v>3523600</v>
+      </c>
+      <c r="C95">
+        <v>872800</v>
+      </c>
+      <c r="D95">
+        <v>52400</v>
+      </c>
+      <c r="E95">
+        <v>58719584000</v>
+      </c>
+      <c r="F95">
+        <v>17518089000</v>
+      </c>
+      <c r="G95">
+        <v>1794359000</v>
+      </c>
+      <c r="H95">
+        <v>4448800</v>
+      </c>
+      <c r="I95">
+        <v>78032032000</v>
+      </c>
+      <c r="J95" t="str">
+        <v>2023-01-12T13:48:00.000Z</v>
+      </c>
+      <c r="K95">
+        <v>4403380946000</v>
+      </c>
+      <c r="L95">
+        <v>249571800</v>
+      </c>
+      <c r="M95">
+        <v>-2650800</v>
+      </c>
+      <c r="N95">
+        <v>-41201495000</v>
+      </c>
+      <c r="O95">
+        <v>-26474700</v>
+      </c>
+      <c r="P95">
+        <v>-330933356000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>1673531400000</v>
+      </c>
+      <c r="B96">
+        <v>1981900</v>
+      </c>
+      <c r="C96">
+        <v>1511600</v>
+      </c>
+      <c r="D96">
+        <v>24800</v>
+      </c>
+      <c r="E96">
+        <v>34046280000</v>
+      </c>
+      <c r="F96">
+        <v>23098884000</v>
+      </c>
+      <c r="G96">
+        <v>341493000</v>
+      </c>
+      <c r="H96">
+        <v>3518300</v>
+      </c>
+      <c r="I96">
+        <v>57486657000</v>
+      </c>
+      <c r="J96" t="str">
+        <v>2023-01-12T13:50:00.000Z</v>
+      </c>
+      <c r="K96">
+        <v>4460867603000</v>
+      </c>
+      <c r="L96">
+        <v>253090100</v>
+      </c>
+      <c r="M96">
+        <v>-470300</v>
+      </c>
+      <c r="N96">
+        <v>-10947396000</v>
+      </c>
+      <c r="O96">
+        <v>-26945000</v>
+      </c>
+      <c r="P96">
+        <v>-341880752000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>1673531520000</v>
+      </c>
+      <c r="B97">
+        <v>1272500</v>
+      </c>
+      <c r="C97">
+        <v>2165300</v>
+      </c>
+      <c r="D97">
+        <v>19000</v>
+      </c>
+      <c r="E97">
+        <v>22693558000</v>
+      </c>
+      <c r="F97">
+        <v>37896956000</v>
+      </c>
+      <c r="G97">
+        <v>567130000</v>
+      </c>
+      <c r="H97">
+        <v>3456800</v>
+      </c>
+      <c r="I97">
+        <v>61157644000</v>
+      </c>
+      <c r="J97" t="str">
+        <v>2023-01-12T13:52:00.000Z</v>
+      </c>
+      <c r="K97">
+        <v>4522025247000</v>
+      </c>
+      <c r="L97">
+        <v>256546900</v>
+      </c>
+      <c r="M97">
+        <v>892800</v>
+      </c>
+      <c r="N97">
+        <v>15203398000</v>
+      </c>
+      <c r="O97">
+        <v>-26052200</v>
+      </c>
+      <c r="P97">
+        <v>-326677354000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>1673531640000</v>
+      </c>
+      <c r="B98">
+        <v>1330600</v>
+      </c>
+      <c r="C98">
+        <v>3985300</v>
+      </c>
+      <c r="D98">
+        <v>4900</v>
+      </c>
+      <c r="E98">
+        <v>23808450000</v>
+      </c>
+      <c r="F98">
+        <v>62290008000</v>
+      </c>
+      <c r="G98">
+        <v>130538000</v>
+      </c>
+      <c r="H98">
+        <v>5320800</v>
+      </c>
+      <c r="I98">
+        <v>86228996000</v>
+      </c>
+      <c r="J98" t="str">
+        <v>2023-01-12T13:54:00.000Z</v>
+      </c>
+      <c r="K98">
+        <v>4608254243000</v>
+      </c>
+      <c r="L98">
+        <v>261867700</v>
+      </c>
+      <c r="M98">
+        <v>2654700</v>
+      </c>
+      <c r="N98">
+        <v>38481558000</v>
+      </c>
+      <c r="O98">
+        <v>-23397500</v>
+      </c>
+      <c r="P98">
+        <v>-288195796000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>1673531760000</v>
+      </c>
+      <c r="B99">
+        <v>1500200</v>
+      </c>
+      <c r="C99">
+        <v>4911100</v>
+      </c>
+      <c r="D99">
+        <v>39600</v>
+      </c>
+      <c r="E99">
+        <v>23594298000</v>
+      </c>
+      <c r="F99">
+        <v>78091831000</v>
+      </c>
+      <c r="G99">
+        <v>592866000</v>
+      </c>
+      <c r="H99">
+        <v>6450900</v>
+      </c>
+      <c r="I99">
+        <v>102278995000</v>
+      </c>
+      <c r="J99" t="str">
+        <v>2023-01-12T13:56:00.000Z</v>
+      </c>
+      <c r="K99">
+        <v>4710533238000</v>
+      </c>
+      <c r="L99">
+        <v>268318600</v>
+      </c>
+      <c r="M99">
+        <v>3410900</v>
+      </c>
+      <c r="N99">
+        <v>54497533000</v>
+      </c>
+      <c r="O99">
+        <v>-19986600</v>
+      </c>
+      <c r="P99">
+        <v>-233698263000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>1673531880000</v>
+      </c>
+      <c r="B100">
+        <v>2313000</v>
+      </c>
+      <c r="C100">
+        <v>4682200</v>
+      </c>
+      <c r="D100">
+        <v>41500</v>
+      </c>
+      <c r="E100">
+        <v>29396615000</v>
+      </c>
+      <c r="F100">
+        <v>74843005000</v>
+      </c>
+      <c r="G100">
+        <v>561559000</v>
+      </c>
+      <c r="H100">
+        <v>7036700</v>
+      </c>
+      <c r="I100">
+        <v>104801179000</v>
+      </c>
+      <c r="J100" t="str">
+        <v>2023-01-12T13:58:00.000Z</v>
+      </c>
+      <c r="K100">
+        <v>4815334417000</v>
+      </c>
+      <c r="L100">
+        <v>275355300</v>
+      </c>
+      <c r="M100">
+        <v>2369200</v>
+      </c>
+      <c r="N100">
+        <v>45446390000</v>
+      </c>
+      <c r="O100">
+        <v>-17617400</v>
+      </c>
+      <c r="P100">
+        <v>-188251873000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>1673532000000</v>
+      </c>
+      <c r="B101">
+        <v>1705100</v>
+      </c>
+      <c r="C101">
+        <v>5445000</v>
+      </c>
+      <c r="D101">
+        <v>24700</v>
+      </c>
+      <c r="E101">
+        <v>23211577000</v>
+      </c>
+      <c r="F101">
+        <v>90311100000</v>
+      </c>
+      <c r="G101">
+        <v>537311000</v>
+      </c>
+      <c r="H101">
+        <v>7174800</v>
+      </c>
+      <c r="I101">
+        <v>114059988000</v>
+      </c>
+      <c r="J101" t="str">
+        <v>2023-01-12T14:00:00.000Z</v>
+      </c>
+      <c r="K101">
+        <v>4929394405000</v>
+      </c>
+      <c r="L101">
+        <v>282530100</v>
+      </c>
+      <c r="M101">
+        <v>3739900</v>
+      </c>
+      <c r="N101">
+        <v>67099523000</v>
+      </c>
+      <c r="O101">
+        <v>-13877500</v>
+      </c>
+      <c r="P101">
+        <v>-121152350000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>1673532120000</v>
+      </c>
+      <c r="B102">
+        <v>2541100</v>
+      </c>
+      <c r="C102">
+        <v>3023400</v>
+      </c>
+      <c r="D102">
+        <v>22000</v>
+      </c>
+      <c r="E102">
+        <v>37299994000</v>
+      </c>
+      <c r="F102">
+        <v>51114002000</v>
+      </c>
+      <c r="G102">
+        <v>555975000</v>
+      </c>
+      <c r="H102">
+        <v>5586500</v>
+      </c>
+      <c r="I102">
+        <v>88969971000</v>
+      </c>
+      <c r="J102" t="str">
+        <v>2023-01-12T14:02:00.000Z</v>
+      </c>
+      <c r="K102">
+        <v>5018364376000</v>
+      </c>
+      <c r="L102">
+        <v>288116600</v>
+      </c>
+      <c r="M102">
+        <v>482300</v>
+      </c>
+      <c r="N102">
+        <v>13814008000</v>
+      </c>
+      <c r="O102">
+        <v>-13395200</v>
+      </c>
+      <c r="P102">
+        <v>-107338342000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>1673532240000</v>
+      </c>
+      <c r="B103">
+        <v>2778300</v>
+      </c>
+      <c r="C103">
+        <v>1641000</v>
+      </c>
+      <c r="D103">
+        <v>21400</v>
+      </c>
+      <c r="E103">
+        <v>47395900000</v>
+      </c>
+      <c r="F103">
+        <v>31552454000</v>
+      </c>
+      <c r="G103">
+        <v>345022000</v>
+      </c>
+      <c r="H103">
+        <v>4440700</v>
+      </c>
+      <c r="I103">
+        <v>79293376000</v>
+      </c>
+      <c r="J103" t="str">
+        <v>2023-01-12T14:04:00.000Z</v>
+      </c>
+      <c r="K103">
+        <v>5097657752000</v>
+      </c>
+      <c r="L103">
+        <v>292557300</v>
+      </c>
+      <c r="M103">
+        <v>-1137300</v>
+      </c>
+      <c r="N103">
+        <v>-15843446000</v>
+      </c>
+      <c r="O103">
+        <v>-14532500</v>
+      </c>
+      <c r="P103">
+        <v>-123181788000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>1673532360000</v>
+      </c>
+      <c r="B104">
+        <v>2134000</v>
+      </c>
+      <c r="C104">
+        <v>1467800</v>
+      </c>
+      <c r="D104">
+        <v>35600</v>
+      </c>
+      <c r="E104">
+        <v>36101448000</v>
+      </c>
+      <c r="F104">
+        <v>25085361000</v>
+      </c>
+      <c r="G104">
+        <v>1113539000</v>
+      </c>
+      <c r="H104">
+        <v>3637400</v>
+      </c>
+      <c r="I104">
+        <v>62300348000</v>
+      </c>
+      <c r="J104" t="str">
+        <v>2023-01-12T14:06:00.000Z</v>
+      </c>
+      <c r="K104">
+        <v>5159958100000</v>
+      </c>
+      <c r="L104">
+        <v>296194700</v>
+      </c>
+      <c r="M104">
+        <v>-666200</v>
+      </c>
+      <c r="N104">
+        <v>-11016087000</v>
+      </c>
+      <c r="O104">
+        <v>-15198700</v>
+      </c>
+      <c r="P104">
+        <v>-134197875000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>1673532480000</v>
+      </c>
+      <c r="B105">
+        <v>2044200</v>
+      </c>
+      <c r="C105">
+        <v>951300</v>
+      </c>
+      <c r="D105">
+        <v>6900</v>
+      </c>
+      <c r="E105">
+        <v>30521964000</v>
+      </c>
+      <c r="F105">
+        <v>15640353000</v>
+      </c>
+      <c r="G105">
+        <v>167580000</v>
+      </c>
+      <c r="H105">
+        <v>3002400</v>
+      </c>
+      <c r="I105">
+        <v>46329897000</v>
+      </c>
+      <c r="J105" t="str">
+        <v>2023-01-12T14:08:00.000Z</v>
+      </c>
+      <c r="K105">
+        <v>5206287997000</v>
+      </c>
+      <c r="L105">
+        <v>299197100</v>
+      </c>
+      <c r="M105">
+        <v>-1092900</v>
+      </c>
+      <c r="N105">
+        <v>-14881611000</v>
+      </c>
+      <c r="O105">
+        <v>-16291600</v>
+      </c>
+      <c r="P105">
+        <v>-149079486000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>1673532600000</v>
+      </c>
+      <c r="B106">
+        <v>1342000</v>
+      </c>
+      <c r="C106">
+        <v>834600</v>
+      </c>
+      <c r="D106">
+        <v>14400</v>
+      </c>
+      <c r="E106">
+        <v>22550878000</v>
+      </c>
+      <c r="F106">
+        <v>18973644000</v>
+      </c>
+      <c r="G106">
+        <v>239833000</v>
+      </c>
+      <c r="H106">
+        <v>2191000</v>
+      </c>
+      <c r="I106">
+        <v>41764355000</v>
+      </c>
+      <c r="J106" t="str">
+        <v>2023-01-12T14:10:00.000Z</v>
+      </c>
+      <c r="K106">
+        <v>5248052352000</v>
+      </c>
+      <c r="L106">
+        <v>301388100</v>
+      </c>
+      <c r="M106">
+        <v>-507400</v>
+      </c>
+      <c r="N106">
+        <v>-3577234000</v>
+      </c>
+      <c r="O106">
+        <v>-16799000</v>
+      </c>
+      <c r="P106">
+        <v>-152656720000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>1673532720000</v>
+      </c>
+      <c r="B107">
+        <v>2796500</v>
+      </c>
+      <c r="C107">
+        <v>1195100</v>
+      </c>
+      <c r="D107">
+        <v>40700</v>
+      </c>
+      <c r="E107">
+        <v>53637196000</v>
+      </c>
+      <c r="F107">
+        <v>20288124000</v>
+      </c>
+      <c r="G107">
+        <v>546995000</v>
+      </c>
+      <c r="H107">
+        <v>4032300</v>
+      </c>
+      <c r="I107">
+        <v>74472315000</v>
+      </c>
+      <c r="J107" t="str">
+        <v>2023-01-12T14:12:00.000Z</v>
+      </c>
+      <c r="K107">
+        <v>5322524667000</v>
+      </c>
+      <c r="L107">
+        <v>305420400</v>
+      </c>
+      <c r="M107">
+        <v>-1601400</v>
+      </c>
+      <c r="N107">
+        <v>-33349072000</v>
+      </c>
+      <c r="O107">
+        <v>-18400400</v>
+      </c>
+      <c r="P107">
+        <v>-186005792000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>1673532840000</v>
+      </c>
+      <c r="B108">
+        <v>4989800</v>
+      </c>
+      <c r="C108">
+        <v>1519000</v>
+      </c>
+      <c r="D108">
+        <v>105500</v>
+      </c>
+      <c r="E108">
+        <v>86658241000</v>
+      </c>
+      <c r="F108">
+        <v>27436633000</v>
+      </c>
+      <c r="G108">
+        <v>2314983000</v>
+      </c>
+      <c r="H108">
+        <v>6614300</v>
+      </c>
+      <c r="I108">
+        <v>116409857000</v>
+      </c>
+      <c r="J108" t="str">
+        <v>2023-01-12T14:14:00.000Z</v>
+      </c>
+      <c r="K108">
+        <v>5438934524000</v>
+      </c>
+      <c r="L108">
+        <v>312034700</v>
+      </c>
+      <c r="M108">
+        <v>-3470800</v>
+      </c>
+      <c r="N108">
+        <v>-59221608000</v>
+      </c>
+      <c r="O108">
+        <v>-21871200</v>
+      </c>
+      <c r="P108">
+        <v>-245227400000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>1673532960000</v>
+      </c>
+      <c r="B109">
+        <v>2116500</v>
+      </c>
+      <c r="C109">
+        <v>2130700</v>
+      </c>
+      <c r="D109">
+        <v>40100</v>
+      </c>
+      <c r="E109">
+        <v>40108854000</v>
+      </c>
+      <c r="F109">
+        <v>40988891000</v>
+      </c>
+      <c r="G109">
+        <v>698113000</v>
+      </c>
+      <c r="H109">
+        <v>4287300</v>
+      </c>
+      <c r="I109">
+        <v>81795858000</v>
+      </c>
+      <c r="J109" t="str">
+        <v>2023-01-12T14:16:00.000Z</v>
+      </c>
+      <c r="K109">
+        <v>5520730382000</v>
+      </c>
+      <c r="L109">
+        <v>316322000</v>
+      </c>
+      <c r="M109">
+        <v>14200</v>
+      </c>
+      <c r="N109">
+        <v>880037000</v>
+      </c>
+      <c r="O109">
+        <v>-21857000</v>
+      </c>
+      <c r="P109">
+        <v>-244347363000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>1673533080000</v>
+      </c>
+      <c r="B110">
+        <v>1803800</v>
+      </c>
+      <c r="C110">
+        <v>2559000</v>
+      </c>
+      <c r="D110">
+        <v>17700</v>
+      </c>
+      <c r="E110">
+        <v>31207650000</v>
+      </c>
+      <c r="F110">
+        <v>48344126000</v>
+      </c>
+      <c r="G110">
+        <v>244742000</v>
+      </c>
+      <c r="H110">
+        <v>4380500</v>
+      </c>
+      <c r="I110">
+        <v>79796518000</v>
+      </c>
+      <c r="J110" t="str">
+        <v>2023-01-12T14:18:00.000Z</v>
+      </c>
+      <c r="K110">
+        <v>5600526900000</v>
+      </c>
+      <c r="L110">
+        <v>320702500</v>
+      </c>
+      <c r="M110">
+        <v>755200</v>
+      </c>
+      <c r="N110">
+        <v>17136476000</v>
+      </c>
+      <c r="O110">
+        <v>-21101800</v>
+      </c>
+      <c r="P110">
+        <v>-227210887000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>1673533200000</v>
+      </c>
+      <c r="B111">
+        <v>1195400</v>
+      </c>
+      <c r="C111">
+        <v>3583700</v>
+      </c>
+      <c r="D111">
+        <v>10700</v>
+      </c>
+      <c r="E111">
+        <v>23268127000</v>
+      </c>
+      <c r="F111">
+        <v>66961233000</v>
+      </c>
+      <c r="G111">
+        <v>319260000</v>
+      </c>
+      <c r="H111">
+        <v>4789800</v>
+      </c>
+      <c r="I111">
+        <v>90548620000</v>
+      </c>
+      <c r="J111" t="str">
+        <v>2023-01-12T14:20:00.000Z</v>
+      </c>
+      <c r="K111">
+        <v>5691075520000</v>
+      </c>
+      <c r="L111">
+        <v>325492300</v>
+      </c>
+      <c r="M111">
+        <v>2388300</v>
+      </c>
+      <c r="N111">
+        <v>43693106000</v>
+      </c>
+      <c r="O111">
+        <v>-18713500</v>
+      </c>
+      <c r="P111">
+        <v>-183517781000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>1673533320000</v>
+      </c>
+      <c r="B112">
+        <v>1468300</v>
+      </c>
+      <c r="C112">
+        <v>2563400</v>
+      </c>
+      <c r="D112">
+        <v>8000</v>
+      </c>
+      <c r="E112">
+        <v>25855910000</v>
+      </c>
+      <c r="F112">
+        <v>48290724000</v>
+      </c>
+      <c r="G112">
+        <v>99252000</v>
+      </c>
+      <c r="H112">
+        <v>4039700</v>
+      </c>
+      <c r="I112">
+        <v>74245886000</v>
+      </c>
+      <c r="J112" t="str">
+        <v>2023-01-12T14:22:00.000Z</v>
+      </c>
+      <c r="K112">
+        <v>5765321406000</v>
+      </c>
+      <c r="L112">
+        <v>329532000</v>
+      </c>
+      <c r="M112">
+        <v>1095100</v>
+      </c>
+      <c r="N112">
+        <v>22434814000</v>
+      </c>
+      <c r="O112">
+        <v>-17618400</v>
+      </c>
+      <c r="P112">
+        <v>-161082967000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>1673533440000</v>
+      </c>
+      <c r="B113">
+        <v>1903200</v>
+      </c>
+      <c r="C113">
+        <v>2821200</v>
+      </c>
+      <c r="D113">
+        <v>37900</v>
+      </c>
+      <c r="E113">
+        <v>28430673000</v>
+      </c>
+      <c r="F113">
+        <v>47518462000</v>
+      </c>
+      <c r="G113">
+        <v>655244000</v>
+      </c>
+      <c r="H113">
+        <v>4762300</v>
+      </c>
+      <c r="I113">
+        <v>76604379000</v>
+      </c>
+      <c r="J113" t="str">
+        <v>2023-01-12T14:24:00.000Z</v>
+      </c>
+      <c r="K113">
+        <v>5841925785000</v>
+      </c>
+      <c r="L113">
+        <v>334294300</v>
+      </c>
+      <c r="M113">
+        <v>918000</v>
+      </c>
+      <c r="N113">
+        <v>19087789000</v>
+      </c>
+      <c r="O113">
+        <v>-16700400</v>
+      </c>
+      <c r="P113">
+        <v>-141995178000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>1673533560000</v>
+      </c>
+      <c r="B114">
+        <v>3519200</v>
+      </c>
+      <c r="C114">
+        <v>2025400</v>
+      </c>
+      <c r="D114">
+        <v>66400</v>
+      </c>
+      <c r="E114">
+        <v>49009915000</v>
+      </c>
+      <c r="F114">
+        <v>37485817000</v>
+      </c>
+      <c r="G114">
+        <v>1299121000</v>
+      </c>
+      <c r="H114">
+        <v>5611000</v>
+      </c>
+      <c r="I114">
+        <v>87794853000</v>
+      </c>
+      <c r="J114" t="str">
+        <v>2023-01-12T14:26:00.000Z</v>
+      </c>
+      <c r="K114">
+        <v>5929720638000</v>
+      </c>
+      <c r="L114">
+        <v>339905300</v>
+      </c>
+      <c r="M114">
+        <v>-1493800</v>
+      </c>
+      <c r="N114">
+        <v>-11524098000</v>
+      </c>
+      <c r="O114">
+        <v>-18194200</v>
+      </c>
+      <c r="P114">
+        <v>-153519276000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>1673533680000</v>
+      </c>
+      <c r="B115">
+        <v>2950200</v>
+      </c>
+      <c r="C115">
+        <v>3321300</v>
+      </c>
+      <c r="D115">
+        <v>83200</v>
+      </c>
+      <c r="E115">
+        <v>46998501000</v>
+      </c>
+      <c r="F115">
+        <v>50206738000</v>
+      </c>
+      <c r="G115">
+        <v>1618392000</v>
+      </c>
+      <c r="H115">
+        <v>6354700</v>
+      </c>
+      <c r="I115">
+        <v>98823631000</v>
+      </c>
+      <c r="J115" t="str">
+        <v>2023-01-12T14:28:00.000Z</v>
+      </c>
+      <c r="K115">
+        <v>6028544269000</v>
+      </c>
+      <c r="L115">
+        <v>346260000</v>
+      </c>
+      <c r="M115">
+        <v>371100</v>
+      </c>
+      <c r="N115">
+        <v>3208237000</v>
+      </c>
+      <c r="O115">
+        <v>-17823100</v>
+      </c>
+      <c r="P115">
+        <v>-150311039000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>1673533800000</v>
+      </c>
+      <c r="B116">
+        <v>31200</v>
+      </c>
+      <c r="C116">
+        <v>11800</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>458566000</v>
+      </c>
+      <c r="F116">
+        <v>171170000</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>43000</v>
+      </c>
+      <c r="I116">
+        <v>629736000</v>
+      </c>
+      <c r="J116" t="str">
+        <v>2023-01-12T14:30:00.000Z</v>
+      </c>
+      <c r="K116">
+        <v>6029174005000</v>
+      </c>
+      <c r="L116">
+        <v>346303000</v>
+      </c>
+      <c r="M116">
+        <v>-19400</v>
+      </c>
+      <c r="N116">
+        <v>-287396000</v>
+      </c>
+      <c r="O116">
+        <v>-17842500</v>
+      </c>
+      <c r="P116">
+        <v>-150598435000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>1673534640000</v>
+      </c>
+      <c r="B117">
+        <v>2058400</v>
+      </c>
+      <c r="C117">
         <v>3540600</v>
       </c>
-      <c r="D50">
-        <v>14131800</v>
-      </c>
-      <c r="E50">
-        <v>34356595000</v>
-      </c>
-      <c r="F50">
+      <c r="D117">
+        <v>14158900</v>
+      </c>
+      <c r="E117">
+        <v>34562675000</v>
+      </c>
+      <c r="F117">
         <v>82521190000</v>
       </c>
-      <c r="G50">
-        <v>254240979000</v>
-      </c>
-      <c r="H50">
-        <v>19708400</v>
-      </c>
-      <c r="I50">
-        <v>371118764000</v>
-      </c>
-      <c r="J50" t="str">
-        <v>2023-01-12T14:45:00.000Z</v>
-      </c>
-      <c r="K50">
+      <c r="G117">
+        <v>254410440000</v>
+      </c>
+      <c r="H117">
+        <v>19757900</v>
+      </c>
+      <c r="I117">
+        <v>371494305000</v>
+      </c>
+      <c r="J117" t="str">
+        <v>2023-01-12T14:44:00.000Z</v>
+      </c>
+      <c r="K117">
         <v>6400668310000</v>
       </c>
-      <c r="L50">
+      <c r="L117">
         <v>366060900</v>
       </c>
-      <c r="M50">
-        <v>1504600</v>
-      </c>
-      <c r="N50">
-        <v>48164595000</v>
-      </c>
-      <c r="O50">
+      <c r="M117">
+        <v>1482200</v>
+      </c>
+      <c r="N117">
+        <v>47958515000</v>
+      </c>
+      <c r="O117">
         <v>-16360300</v>
       </c>
-      <c r="P50">
+      <c r="P117">
         <v>-102639920000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P50"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P117"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/name/vnindex/20230112/VNINDEX_HOSE_5p_20230112.xlsx
+++ b/name/vnindex/20230112/VNINDEX_HOSE_5p_20230112.xlsx
@@ -466,25 +466,25 @@
         <v>2677500</v>
       </c>
       <c r="E2">
-        <v>22935573000</v>
+        <v>19373938200</v>
       </c>
       <c r="F2">
-        <v>27059386000</v>
+        <v>23851197400</v>
       </c>
       <c r="G2">
-        <v>37708719000</v>
+        <v>37269059100</v>
       </c>
       <c r="H2">
         <v>5606600</v>
       </c>
       <c r="I2">
-        <v>87703678000</v>
+        <v>80494194700</v>
       </c>
       <c r="J2" t="str">
         <v>2023-01-12T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>87703678000</v>
+        <v>80494194700</v>
       </c>
       <c r="L2">
         <v>5606600</v>
@@ -493,13 +493,13 @@
         <v>294500</v>
       </c>
       <c r="N2">
-        <v>4123813000</v>
+        <v>4477259200</v>
       </c>
       <c r="O2">
         <v>294500</v>
       </c>
       <c r="P2">
-        <v>4123813000</v>
+        <v>4477259200</v>
       </c>
     </row>
     <row r="3">
@@ -516,10 +516,10 @@
         <v>23700</v>
       </c>
       <c r="E3">
-        <v>15067882000</v>
+        <v>13927423600</v>
       </c>
       <c r="F3">
-        <v>30489182000</v>
+        <v>29798373500</v>
       </c>
       <c r="G3">
         <v>322875000</v>
@@ -528,13 +528,13 @@
         <v>2759000</v>
       </c>
       <c r="I3">
-        <v>45879939000</v>
+        <v>44048672100</v>
       </c>
       <c r="J3" t="str">
         <v>2023-01-12T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>133583617000</v>
+        <v>124542866800</v>
       </c>
       <c r="L3">
         <v>8365600</v>
@@ -543,13 +543,13 @@
         <v>746900</v>
       </c>
       <c r="N3">
-        <v>15421300000</v>
+        <v>15870949900</v>
       </c>
       <c r="O3">
         <v>1041400</v>
       </c>
       <c r="P3">
-        <v>19545113000</v>
+        <v>20348209100</v>
       </c>
     </row>
     <row r="4">
@@ -566,10 +566,10 @@
         <v>69800</v>
       </c>
       <c r="E4">
-        <v>21792304000</v>
+        <v>21131365600</v>
       </c>
       <c r="F4">
-        <v>26988524000</v>
+        <v>25962650900</v>
       </c>
       <c r="G4">
         <v>435659000.00000006</v>
@@ -578,13 +578,13 @@
         <v>2891600</v>
       </c>
       <c r="I4">
-        <v>49216487000</v>
+        <v>47529675500</v>
       </c>
       <c r="J4" t="str">
         <v>2023-01-12T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>182800104000</v>
+        <v>172072542300</v>
       </c>
       <c r="L4">
         <v>11257200</v>
@@ -593,13 +593,13 @@
         <v>221400</v>
       </c>
       <c r="N4">
-        <v>5196220000</v>
+        <v>4831285300</v>
       </c>
       <c r="O4">
         <v>1262800</v>
       </c>
       <c r="P4">
-        <v>24741333000</v>
+        <v>25179494400</v>
       </c>
     </row>
     <row r="5">
@@ -616,10 +616,10 @@
         <v>10000</v>
       </c>
       <c r="E5">
-        <v>17827625000</v>
+        <v>17159493800</v>
       </c>
       <c r="F5">
-        <v>31734685000</v>
+        <v>29778942700</v>
       </c>
       <c r="G5">
         <v>154465000</v>
@@ -628,13 +628,13 @@
         <v>2599900</v>
       </c>
       <c r="I5">
-        <v>49716775000</v>
+        <v>47092901500</v>
       </c>
       <c r="J5" t="str">
         <v>2023-01-12T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>232516879000</v>
+        <v>219165443800</v>
       </c>
       <c r="L5">
         <v>13857100</v>
@@ -643,13 +643,13 @@
         <v>432900</v>
       </c>
       <c r="N5">
-        <v>13907060000</v>
+        <v>12619448900</v>
       </c>
       <c r="O5">
         <v>1695700</v>
       </c>
       <c r="P5">
-        <v>38648393000</v>
+        <v>37798943300</v>
       </c>
     </row>
     <row r="6">
@@ -666,10 +666,10 @@
         <v>144600</v>
       </c>
       <c r="E6">
-        <v>15079027000</v>
+        <v>14705600800</v>
       </c>
       <c r="F6">
-        <v>29367178000</v>
+        <v>29182562800</v>
       </c>
       <c r="G6">
         <v>2120642000</v>
@@ -678,13 +678,13 @@
         <v>2928400</v>
       </c>
       <c r="I6">
-        <v>46566847000</v>
+        <v>46008805600</v>
       </c>
       <c r="J6" t="str">
         <v>2023-01-12T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>279083726000</v>
+        <v>265174249400</v>
       </c>
       <c r="L6">
         <v>16785500</v>
@@ -693,13 +693,13 @@
         <v>564200</v>
       </c>
       <c r="N6">
-        <v>14288151000</v>
+        <v>14476962000</v>
       </c>
       <c r="O6">
         <v>2259900</v>
       </c>
       <c r="P6">
-        <v>52936544000</v>
+        <v>52275905300</v>
       </c>
     </row>
     <row r="7">
@@ -716,10 +716,10 @@
         <v>71700</v>
       </c>
       <c r="E7">
-        <v>16551903000</v>
+        <v>16184271000</v>
       </c>
       <c r="F7">
-        <v>23303858000</v>
+        <v>21988075100</v>
       </c>
       <c r="G7">
         <v>1580851000</v>
@@ -728,13 +728,13 @@
         <v>2532000</v>
       </c>
       <c r="I7">
-        <v>41436612000</v>
+        <v>39753197100</v>
       </c>
       <c r="J7" t="str">
         <v>2023-01-12T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>320520338000</v>
+        <v>304927446500</v>
       </c>
       <c r="L7">
         <v>19317500</v>
@@ -743,13 +743,13 @@
         <v>310500</v>
       </c>
       <c r="N7">
-        <v>6751955000</v>
+        <v>5803804100</v>
       </c>
       <c r="O7">
         <v>2570400</v>
       </c>
       <c r="P7">
-        <v>59688499000</v>
+        <v>58079709400</v>
       </c>
     </row>
     <row r="8">
@@ -766,10 +766,10 @@
         <v>25700</v>
       </c>
       <c r="E8">
-        <v>18957416000</v>
+        <v>17546628200</v>
       </c>
       <c r="F8">
-        <v>17741881000</v>
+        <v>16455368800</v>
       </c>
       <c r="G8">
         <v>199714000</v>
@@ -778,13 +778,13 @@
         <v>2080300</v>
       </c>
       <c r="I8">
-        <v>36899011000</v>
+        <v>34201711000</v>
       </c>
       <c r="J8" t="str">
         <v>2023-01-12T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>357419349000</v>
+        <v>339129157500</v>
       </c>
       <c r="L8">
         <v>21397800</v>
@@ -793,13 +793,13 @@
         <v>-135400</v>
       </c>
       <c r="N8">
-        <v>-1215535000</v>
+        <v>-1091259400</v>
       </c>
       <c r="O8">
         <v>2435000</v>
       </c>
       <c r="P8">
-        <v>58472964000</v>
+        <v>56988450000</v>
       </c>
     </row>
     <row r="9">
@@ -816,10 +816,10 @@
         <v>5300</v>
       </c>
       <c r="E9">
-        <v>16076090000</v>
+        <v>14865302000</v>
       </c>
       <c r="F9">
-        <v>14368592000</v>
+        <v>13707054200</v>
       </c>
       <c r="G9">
         <v>57346000</v>
@@ -828,13 +828,13 @@
         <v>1774500</v>
       </c>
       <c r="I9">
-        <v>30502028000</v>
+        <v>28629702200</v>
       </c>
       <c r="J9" t="str">
         <v>2023-01-12T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>387921377000</v>
+        <v>367758859700</v>
       </c>
       <c r="L9">
         <v>23172300</v>
@@ -843,13 +843,13 @@
         <v>-249600</v>
       </c>
       <c r="N9">
-        <v>-1707498000</v>
+        <v>-1158247800</v>
       </c>
       <c r="O9">
         <v>2185400</v>
       </c>
       <c r="P9">
-        <v>56765466000</v>
+        <v>55830202200</v>
       </c>
     </row>
     <row r="10">
@@ -866,10 +866,10 @@
         <v>18700</v>
       </c>
       <c r="E10">
-        <v>21545848000</v>
+        <v>20258536600</v>
       </c>
       <c r="F10">
-        <v>18109751000</v>
+        <v>17247813800</v>
       </c>
       <c r="G10">
         <v>368429000</v>
@@ -878,13 +878,13 @@
         <v>2166800</v>
       </c>
       <c r="I10">
-        <v>40024028000</v>
+        <v>37874779400</v>
       </c>
       <c r="J10" t="str">
         <v>2023-01-12T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>427945405000</v>
+        <v>405633639100</v>
       </c>
       <c r="L10">
         <v>25339100</v>
@@ -893,13 +893,13 @@
         <v>-257900</v>
       </c>
       <c r="N10">
-        <v>-3436097000</v>
+        <v>-3010722800</v>
       </c>
       <c r="O10">
         <v>1927500</v>
       </c>
       <c r="P10">
-        <v>53329369000</v>
+        <v>52819479400</v>
       </c>
     </row>
     <row r="11">
@@ -916,10 +916,10 @@
         <v>1100</v>
       </c>
       <c r="E11">
-        <v>14441394000</v>
+        <v>14027508300</v>
       </c>
       <c r="F11">
-        <v>17328705000</v>
+        <v>13710526800</v>
       </c>
       <c r="G11">
         <v>10865000</v>
@@ -928,13 +928,13 @@
         <v>1825200</v>
       </c>
       <c r="I11">
-        <v>31780964000</v>
+        <v>27748900100</v>
       </c>
       <c r="J11" t="str">
         <v>2023-01-12T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>459726369000</v>
+        <v>433382539200</v>
       </c>
       <c r="L11">
         <v>27164300</v>
@@ -943,13 +943,13 @@
         <v>177500</v>
       </c>
       <c r="N11">
-        <v>2887311000</v>
+        <v>-316981500</v>
       </c>
       <c r="O11">
         <v>2105000</v>
       </c>
       <c r="P11">
-        <v>56216680000</v>
+        <v>52502497900</v>
       </c>
     </row>
     <row r="12">
@@ -966,25 +966,25 @@
         <v>10600</v>
       </c>
       <c r="E12">
-        <v>16337325000</v>
+        <v>15906356400</v>
       </c>
       <c r="F12">
-        <v>29497623000</v>
+        <v>20703226200</v>
       </c>
       <c r="G12">
-        <v>421532000</v>
+        <v>295658000</v>
       </c>
       <c r="H12">
         <v>2642200</v>
       </c>
       <c r="I12">
-        <v>46256480000</v>
+        <v>36905240600</v>
       </c>
       <c r="J12" t="str">
         <v>2023-01-12T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>505982849000</v>
+        <v>470287779800</v>
       </c>
       <c r="L12">
         <v>29806500</v>
@@ -993,13 +993,13 @@
         <v>617600</v>
       </c>
       <c r="N12">
-        <v>13160298000</v>
+        <v>4796869800</v>
       </c>
       <c r="O12">
         <v>2722600</v>
       </c>
       <c r="P12">
-        <v>69376978000</v>
+        <v>57299367700</v>
       </c>
     </row>
     <row r="13">
@@ -1016,25 +1016,25 @@
         <v>10200</v>
       </c>
       <c r="E13">
-        <v>23026196000</v>
+        <v>22438284500</v>
       </c>
       <c r="F13">
-        <v>22709471000</v>
+        <v>17536549100</v>
       </c>
       <c r="G13">
-        <v>185100000</v>
+        <v>180105000</v>
       </c>
       <c r="H13">
         <v>2652800</v>
       </c>
       <c r="I13">
-        <v>45920767000</v>
+        <v>40154938600</v>
       </c>
       <c r="J13" t="str">
         <v>2023-01-12T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>551903616000</v>
+        <v>510442718400</v>
       </c>
       <c r="L13">
         <v>32459300</v>
@@ -1043,13 +1043,13 @@
         <v>-112000</v>
       </c>
       <c r="N13">
-        <v>-316725000</v>
+        <v>-4901735400</v>
       </c>
       <c r="O13">
         <v>2610600</v>
       </c>
       <c r="P13">
-        <v>69060253000</v>
+        <v>52397632300</v>
       </c>
     </row>
     <row r="14">
@@ -1066,25 +1066,25 @@
         <v>22000</v>
       </c>
       <c r="E14">
-        <v>27416029000</v>
+        <v>26744900800</v>
       </c>
       <c r="F14">
-        <v>14240069000</v>
+        <v>13364045900</v>
       </c>
       <c r="G14">
-        <v>689885000</v>
+        <v>684490400</v>
       </c>
       <c r="H14">
         <v>2520400</v>
       </c>
       <c r="I14">
-        <v>42345983000</v>
+        <v>40793437100</v>
       </c>
       <c r="J14" t="str">
         <v>2023-01-12T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>594249599000</v>
+        <v>551236155500</v>
       </c>
       <c r="L14">
         <v>34979700</v>
@@ -1093,13 +1093,13 @@
         <v>-1022000</v>
       </c>
       <c r="N14">
-        <v>-13175960000</v>
+        <v>-13380854900</v>
       </c>
       <c r="O14">
         <v>1588600</v>
       </c>
       <c r="P14">
-        <v>55884293000</v>
+        <v>39016777400</v>
       </c>
     </row>
     <row r="15">
@@ -1116,10 +1116,10 @@
         <v>7800</v>
       </c>
       <c r="E15">
-        <v>18721393000</v>
+        <v>18048067000</v>
       </c>
       <c r="F15">
-        <v>14307119000</v>
+        <v>14180345900</v>
       </c>
       <c r="G15">
         <v>108868000</v>
@@ -1128,13 +1128,13 @@
         <v>2055400</v>
       </c>
       <c r="I15">
-        <v>33137380000</v>
+        <v>32337280900</v>
       </c>
       <c r="J15" t="str">
         <v>2023-01-12T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>627386979000</v>
+        <v>583573436400</v>
       </c>
       <c r="L15">
         <v>37035100</v>
@@ -1143,13 +1143,13 @@
         <v>-502000</v>
       </c>
       <c r="N15">
-        <v>-4414274000</v>
+        <v>-3867721100</v>
       </c>
       <c r="O15">
         <v>1086600</v>
       </c>
       <c r="P15">
-        <v>51470019000</v>
+        <v>35149056300</v>
       </c>
     </row>
     <row r="16">
@@ -1166,10 +1166,10 @@
         <v>9400</v>
       </c>
       <c r="E16">
-        <v>14107283000</v>
+        <v>13543447400</v>
       </c>
       <c r="F16">
-        <v>17241478000</v>
+        <v>15442378900</v>
       </c>
       <c r="G16">
         <v>63458000</v>
@@ -1178,13 +1178,13 @@
         <v>1729100</v>
       </c>
       <c r="I16">
-        <v>31412219000</v>
+        <v>29049284300</v>
       </c>
       <c r="J16" t="str">
         <v>2023-01-12T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>658799198000</v>
+        <v>612622720700</v>
       </c>
       <c r="L16">
         <v>38764200</v>
@@ -1193,13 +1193,13 @@
         <v>67100</v>
       </c>
       <c r="N16">
-        <v>3134195000</v>
+        <v>1898931500</v>
       </c>
       <c r="O16">
         <v>1153700</v>
       </c>
       <c r="P16">
-        <v>54604214000</v>
+        <v>37047987800</v>
       </c>
     </row>
     <row r="17">
@@ -1216,10 +1216,10 @@
         <v>12700</v>
       </c>
       <c r="E17">
-        <v>17105237000</v>
+        <v>16042800500</v>
       </c>
       <c r="F17">
-        <v>24815372000</v>
+        <v>24724063400</v>
       </c>
       <c r="G17">
         <v>194956000</v>
@@ -1228,13 +1228,13 @@
         <v>2365600</v>
       </c>
       <c r="I17">
-        <v>42115565000</v>
+        <v>40961819900</v>
       </c>
       <c r="J17" t="str">
         <v>2023-01-12T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>700914763000</v>
+        <v>653584540600</v>
       </c>
       <c r="L17">
         <v>41129800</v>
@@ -1243,13 +1243,13 @@
         <v>95900</v>
       </c>
       <c r="N17">
-        <v>7710135000</v>
+        <v>8681262900</v>
       </c>
       <c r="O17">
         <v>1249600</v>
       </c>
       <c r="P17">
-        <v>62314349000</v>
+        <v>45729250700</v>
       </c>
     </row>
     <row r="18">
@@ -1266,25 +1266,25 @@
         <v>25400</v>
       </c>
       <c r="E18">
-        <v>10249041000</v>
+        <v>9687503100</v>
       </c>
       <c r="F18">
-        <v>24763352000</v>
+        <v>21931486700</v>
       </c>
       <c r="G18">
-        <v>212872000</v>
+        <v>196888000</v>
       </c>
       <c r="H18">
         <v>1878300</v>
       </c>
       <c r="I18">
-        <v>35225265000</v>
+        <v>31815877800</v>
       </c>
       <c r="J18" t="str">
         <v>2023-01-12T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>736140028000</v>
+        <v>685400418400</v>
       </c>
       <c r="L18">
         <v>43008100</v>
@@ -1293,13 +1293,13 @@
         <v>579900</v>
       </c>
       <c r="N18">
-        <v>14514311000</v>
+        <v>12243983600</v>
       </c>
       <c r="O18">
         <v>1829500</v>
       </c>
       <c r="P18">
-        <v>76828660000</v>
+        <v>57973234300</v>
       </c>
     </row>
     <row r="19">
@@ -1316,10 +1316,10 @@
         <v>24000</v>
       </c>
       <c r="E19">
-        <v>11873061000</v>
+        <v>10750784400</v>
       </c>
       <c r="F19">
-        <v>18212204000</v>
+        <v>17422094900</v>
       </c>
       <c r="G19">
         <v>286343000</v>
@@ -1328,13 +1328,13 @@
         <v>2094600</v>
       </c>
       <c r="I19">
-        <v>30371608000</v>
+        <v>28459222300</v>
       </c>
       <c r="J19" t="str">
         <v>2023-01-12T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>766511636000</v>
+        <v>713859640700</v>
       </c>
       <c r="L19">
         <v>45102700</v>
@@ -1343,13 +1343,13 @@
         <v>288600</v>
       </c>
       <c r="N19">
-        <v>6339143000</v>
+        <v>6671310500</v>
       </c>
       <c r="O19">
         <v>2118100</v>
       </c>
       <c r="P19">
-        <v>83167803000</v>
+        <v>64644544800</v>
       </c>
     </row>
     <row r="20">
@@ -1366,10 +1366,10 @@
         <v>19400</v>
       </c>
       <c r="E20">
-        <v>13032566000</v>
+        <v>11407992200</v>
       </c>
       <c r="F20">
-        <v>18250308000</v>
+        <v>17617941000</v>
       </c>
       <c r="G20">
         <v>137953000</v>
@@ -1378,13 +1378,13 @@
         <v>1844500</v>
       </c>
       <c r="I20">
-        <v>31420827000</v>
+        <v>29163886200</v>
       </c>
       <c r="J20" t="str">
         <v>2023-01-12T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>797932463000</v>
+        <v>743023526900</v>
       </c>
       <c r="L20">
         <v>46947200</v>
@@ -1393,13 +1393,13 @@
         <v>517900</v>
       </c>
       <c r="N20">
-        <v>5217742000</v>
+        <v>6209948800</v>
       </c>
       <c r="O20">
         <v>2636000</v>
       </c>
       <c r="P20">
-        <v>88385545000</v>
+        <v>70854493600</v>
       </c>
     </row>
     <row r="21">
@@ -1416,10 +1416,10 @@
         <v>16200</v>
       </c>
       <c r="E21">
-        <v>15270518000</v>
+        <v>14078711000</v>
       </c>
       <c r="F21">
-        <v>34954306000</v>
+        <v>33667494100</v>
       </c>
       <c r="G21">
         <v>272670000</v>
@@ -1428,13 +1428,13 @@
         <v>2668000</v>
       </c>
       <c r="I21">
-        <v>50497494000</v>
+        <v>48018875100</v>
       </c>
       <c r="J21" t="str">
         <v>2023-01-12T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>848429957000</v>
+        <v>791042402000</v>
       </c>
       <c r="L21">
         <v>49615200</v>
@@ -1443,13 +1443,13 @@
         <v>880000</v>
       </c>
       <c r="N21">
-        <v>19683788000</v>
+        <v>19588783100</v>
       </c>
       <c r="O21">
         <v>3516000</v>
       </c>
       <c r="P21">
-        <v>108069333000</v>
+        <v>90443276700</v>
       </c>
     </row>
     <row r="22">
@@ -1466,10 +1466,10 @@
         <v>4800</v>
       </c>
       <c r="E22">
-        <v>18993834000</v>
+        <v>18452975400</v>
       </c>
       <c r="F22">
-        <v>25433151000</v>
+        <v>24095789700</v>
       </c>
       <c r="G22">
         <v>97080000</v>
@@ -1478,13 +1478,13 @@
         <v>2351500</v>
       </c>
       <c r="I22">
-        <v>44524065000</v>
+        <v>42645845100</v>
       </c>
       <c r="J22" t="str">
         <v>2023-01-12T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>892954022000</v>
+        <v>833688247100</v>
       </c>
       <c r="L22">
         <v>51966700</v>
@@ -1493,13 +1493,13 @@
         <v>550500</v>
       </c>
       <c r="N22">
-        <v>6439317000</v>
+        <v>5642814300</v>
       </c>
       <c r="O22">
         <v>4066500</v>
       </c>
       <c r="P22">
-        <v>114508650000</v>
+        <v>96086091000</v>
       </c>
     </row>
     <row r="23">
@@ -1516,10 +1516,10 @@
         <v>1500</v>
       </c>
       <c r="E23">
-        <v>23877042000</v>
+        <v>23393326200</v>
       </c>
       <c r="F23">
-        <v>23406178000</v>
+        <v>22016369200</v>
       </c>
       <c r="G23">
         <v>40682000</v>
@@ -1528,13 +1528,13 @@
         <v>2604900</v>
       </c>
       <c r="I23">
-        <v>47323902000</v>
+        <v>45450377400</v>
       </c>
       <c r="J23" t="str">
         <v>2023-01-12T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>940277924000</v>
+        <v>879138624500</v>
       </c>
       <c r="L23">
         <v>54571600</v>
@@ -1543,13 +1543,13 @@
         <v>276400</v>
       </c>
       <c r="N23">
-        <v>-470864000</v>
+        <v>-1376957000</v>
       </c>
       <c r="O23">
         <v>4342900</v>
       </c>
       <c r="P23">
-        <v>114037786000</v>
+        <v>94709134000</v>
       </c>
     </row>
     <row r="24">
@@ -1566,10 +1566,10 @@
         <v>1400</v>
       </c>
       <c r="E24">
-        <v>11843586000</v>
+        <v>9950281200</v>
       </c>
       <c r="F24">
-        <v>24247004000</v>
+        <v>23188663400</v>
       </c>
       <c r="G24">
         <v>101399000</v>
@@ -1578,13 +1578,13 @@
         <v>1794000</v>
       </c>
       <c r="I24">
-        <v>36191989000</v>
+        <v>33240343600</v>
       </c>
       <c r="J24" t="str">
         <v>2023-01-12T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>976469913000</v>
+        <v>912378968100</v>
       </c>
       <c r="L24">
         <v>56365600</v>
@@ -1593,13 +1593,13 @@
         <v>534200</v>
       </c>
       <c r="N24">
-        <v>12403418000</v>
+        <v>13238382200</v>
       </c>
       <c r="O24">
         <v>4877100</v>
       </c>
       <c r="P24">
-        <v>126441204000</v>
+        <v>107947516200</v>
       </c>
     </row>
     <row r="25">
@@ -1616,10 +1616,10 @@
         <v>100</v>
       </c>
       <c r="E25">
-        <v>20967141000</v>
+        <v>19762347000</v>
       </c>
       <c r="F25">
-        <v>19414407000</v>
+        <v>18389832600</v>
       </c>
       <c r="G25">
         <v>362000</v>
@@ -1628,13 +1628,13 @@
         <v>2044800</v>
       </c>
       <c r="I25">
-        <v>40381910000</v>
+        <v>38152541600</v>
       </c>
       <c r="J25" t="str">
         <v>2023-01-12T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>1016851823000</v>
+        <v>950531509700</v>
       </c>
       <c r="L25">
         <v>58410400</v>
@@ -1643,13 +1643,13 @@
         <v>-105700</v>
       </c>
       <c r="N25">
-        <v>-1552734000</v>
+        <v>-1372514400</v>
       </c>
       <c r="O25">
         <v>4771400</v>
       </c>
       <c r="P25">
-        <v>124888470000</v>
+        <v>106575001800</v>
       </c>
     </row>
     <row r="26">
@@ -1666,25 +1666,25 @@
         <v>20600</v>
       </c>
       <c r="E26">
-        <v>20699194000</v>
+        <v>19936457500</v>
       </c>
       <c r="F26">
-        <v>14332387000</v>
+        <v>13731788200</v>
       </c>
       <c r="G26">
-        <v>558370000</v>
+        <v>541786600</v>
       </c>
       <c r="H26">
         <v>1677900</v>
       </c>
       <c r="I26">
-        <v>35589951000</v>
+        <v>34210032300</v>
       </c>
       <c r="J26" t="str">
         <v>2023-01-12T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>1052441774000</v>
+        <v>984741542000</v>
       </c>
       <c r="L26">
         <v>60088300</v>
@@ -1693,13 +1693,13 @@
         <v>-51500</v>
       </c>
       <c r="N26">
-        <v>-6366807000</v>
+        <v>-6204669300</v>
       </c>
       <c r="O26">
         <v>4719900</v>
       </c>
       <c r="P26">
-        <v>118521663000</v>
+        <v>100370332500</v>
       </c>
     </row>
     <row r="27">
@@ -1716,10 +1716,10 @@
         <v>100</v>
       </c>
       <c r="E27">
-        <v>19244525000</v>
+        <v>19085684000</v>
       </c>
       <c r="F27">
-        <v>9906496000</v>
+        <v>8095408900</v>
       </c>
       <c r="G27">
         <v>1370000</v>
@@ -1728,13 +1728,13 @@
         <v>1582600</v>
       </c>
       <c r="I27">
-        <v>29152391000</v>
+        <v>27182462900</v>
       </c>
       <c r="J27" t="str">
         <v>2023-01-12T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>1081594165000</v>
+        <v>1011924004900</v>
       </c>
       <c r="L27">
         <v>61670900</v>
@@ -1743,13 +1743,13 @@
         <v>-503900</v>
       </c>
       <c r="N27">
-        <v>-9338029000</v>
+        <v>-10990275100</v>
       </c>
       <c r="O27">
         <v>4216000</v>
       </c>
       <c r="P27">
-        <v>109183634000</v>
+        <v>89380057400</v>
       </c>
     </row>
     <row r="28">
@@ -1766,10 +1766,10 @@
         <v>24900</v>
       </c>
       <c r="E28">
-        <v>30991381000</v>
+        <v>30066506800</v>
       </c>
       <c r="F28">
-        <v>10155709000</v>
+        <v>9257508100</v>
       </c>
       <c r="G28">
         <v>516636000</v>
@@ -1778,13 +1778,13 @@
         <v>2271700</v>
       </c>
       <c r="I28">
-        <v>41663726000</v>
+        <v>39840650900</v>
       </c>
       <c r="J28" t="str">
         <v>2023-01-12T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>1123257891000</v>
+        <v>1051764655800</v>
       </c>
       <c r="L28">
         <v>63942600</v>
@@ -1793,13 +1793,13 @@
         <v>-1163600</v>
       </c>
       <c r="N28">
-        <v>-20835672000</v>
+        <v>-20808998700</v>
       </c>
       <c r="O28">
         <v>3052400</v>
       </c>
       <c r="P28">
-        <v>88347962000</v>
+        <v>68571058700</v>
       </c>
     </row>
     <row r="29">
@@ -1816,10 +1816,10 @@
         <v>100</v>
       </c>
       <c r="E29">
-        <v>27825686000</v>
+        <v>27375037100</v>
       </c>
       <c r="F29">
-        <v>12511455000</v>
+        <v>11321346300</v>
       </c>
       <c r="G29">
         <v>5650000</v>
@@ -1828,13 +1828,13 @@
         <v>2330600</v>
       </c>
       <c r="I29">
-        <v>40342791000</v>
+        <v>38702033400</v>
       </c>
       <c r="J29" t="str">
         <v>2023-01-12T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>1163600682000</v>
+        <v>1090466689200</v>
       </c>
       <c r="L29">
         <v>66273200</v>
@@ -1843,13 +1843,13 @@
         <v>-1130500</v>
       </c>
       <c r="N29">
-        <v>-15314231000</v>
+        <v>-16053690800</v>
       </c>
       <c r="O29">
         <v>1921900</v>
       </c>
       <c r="P29">
-        <v>73033731000</v>
+        <v>52517367900</v>
       </c>
     </row>
     <row r="30">
@@ -1866,10 +1866,10 @@
         <v>4400</v>
       </c>
       <c r="E30">
-        <v>25023046000</v>
+        <v>24741527800</v>
       </c>
       <c r="F30">
-        <v>8681394000</v>
+        <v>8502173400</v>
       </c>
       <c r="G30">
         <v>91410000</v>
@@ -1878,13 +1878,13 @@
         <v>2062500</v>
       </c>
       <c r="I30">
-        <v>33795850000</v>
+        <v>33335111200</v>
       </c>
       <c r="J30" t="str">
         <v>2023-01-12T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>1197396532000</v>
+        <v>1123801800400</v>
       </c>
       <c r="L30">
         <v>68335700</v>
@@ -1893,13 +1893,13 @@
         <v>-1195700</v>
       </c>
       <c r="N30">
-        <v>-16341652000</v>
+        <v>-16239354400</v>
       </c>
       <c r="O30">
         <v>726200</v>
       </c>
       <c r="P30">
-        <v>56692079000</v>
+        <v>36278013500</v>
       </c>
     </row>
     <row r="31">
@@ -1916,25 +1916,25 @@
         <v>32500</v>
       </c>
       <c r="E31">
-        <v>31515428000</v>
+        <v>28993852100</v>
       </c>
       <c r="F31">
-        <v>11202486000</v>
+        <v>9977312400</v>
       </c>
       <c r="G31">
-        <v>779300000</v>
+        <v>727352000</v>
       </c>
       <c r="H31">
         <v>2378600</v>
       </c>
       <c r="I31">
-        <v>43497214000</v>
+        <v>39698516500</v>
       </c>
       <c r="J31" t="str">
         <v>2023-01-12T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>1240893746000</v>
+        <v>1163500316900</v>
       </c>
       <c r="L31">
         <v>70714300</v>
@@ -1943,13 +1943,13 @@
         <v>-1085300</v>
       </c>
       <c r="N31">
-        <v>-20312942000</v>
+        <v>-19016539700</v>
       </c>
       <c r="O31">
         <v>-359100</v>
       </c>
       <c r="P31">
-        <v>36379137000</v>
+        <v>17261473800</v>
       </c>
     </row>
     <row r="32">
@@ -1966,10 +1966,10 @@
         <v>6200</v>
       </c>
       <c r="E32">
-        <v>28871150000</v>
+        <v>27961160900</v>
       </c>
       <c r="F32">
-        <v>10927680000</v>
+        <v>9658150800</v>
       </c>
       <c r="G32">
         <v>56275000</v>
@@ -1978,13 +1978,13 @@
         <v>2351000</v>
       </c>
       <c r="I32">
-        <v>39855105000</v>
+        <v>37675586700</v>
       </c>
       <c r="J32" t="str">
         <v>2023-01-12T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>1280748851000</v>
+        <v>1201175903600</v>
       </c>
       <c r="L32">
         <v>73065300</v>
@@ -1993,13 +1993,13 @@
         <v>-1137800</v>
       </c>
       <c r="N32">
-        <v>-17943470000</v>
+        <v>-18303010100</v>
       </c>
       <c r="O32">
         <v>-1496900</v>
       </c>
       <c r="P32">
-        <v>18435667000</v>
+        <v>-1041536300</v>
       </c>
     </row>
     <row r="33">
@@ -2016,10 +2016,10 @@
         <v>2500</v>
       </c>
       <c r="E33">
-        <v>23973257000</v>
+        <v>19117617500</v>
       </c>
       <c r="F33">
-        <v>9704773000</v>
+        <v>9216062200</v>
       </c>
       <c r="G33">
         <v>67090000</v>
@@ -2028,13 +2028,13 @@
         <v>1740100</v>
       </c>
       <c r="I33">
-        <v>33745120000</v>
+        <v>28400769700</v>
       </c>
       <c r="J33" t="str">
         <v>2023-01-12T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>1314493971000</v>
+        <v>1229576673300</v>
       </c>
       <c r="L33">
         <v>74805400</v>
@@ -2043,13 +2043,13 @@
         <v>-759400</v>
       </c>
       <c r="N33">
-        <v>-14268484000</v>
+        <v>-9901555300</v>
       </c>
       <c r="O33">
         <v>-2256300</v>
       </c>
       <c r="P33">
-        <v>4167183000</v>
+        <v>-10943091600</v>
       </c>
     </row>
     <row r="34">
@@ -2066,10 +2066,10 @@
         <v>5200</v>
       </c>
       <c r="E34">
-        <v>30808758000</v>
+        <v>28354215000</v>
       </c>
       <c r="F34">
-        <v>12813702000</v>
+        <v>10360957200</v>
       </c>
       <c r="G34">
         <v>146949000</v>
@@ -2078,13 +2078,13 @@
         <v>2341900</v>
       </c>
       <c r="I34">
-        <v>43769409000</v>
+        <v>38862121200</v>
       </c>
       <c r="J34" t="str">
         <v>2023-01-12T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>1358263380000</v>
+        <v>1268438794500</v>
       </c>
       <c r="L34">
         <v>77147300</v>
@@ -2093,13 +2093,13 @@
         <v>-1020500</v>
       </c>
       <c r="N34">
-        <v>-17995056000</v>
+        <v>-17993257800</v>
       </c>
       <c r="O34">
         <v>-3276800</v>
       </c>
       <c r="P34">
-        <v>-13827873000</v>
+        <v>-28936349400</v>
       </c>
     </row>
     <row r="35">
@@ -2116,25 +2116,25 @@
         <v>1500</v>
       </c>
       <c r="E35">
-        <v>30667251000</v>
+        <v>28969350600</v>
       </c>
       <c r="F35">
-        <v>13056114000</v>
+        <v>12025745400</v>
       </c>
       <c r="G35">
-        <v>88250000</v>
+        <v>79059200</v>
       </c>
       <c r="H35">
         <v>2605700</v>
       </c>
       <c r="I35">
-        <v>43811615000</v>
+        <v>41074155200</v>
       </c>
       <c r="J35" t="str">
         <v>2023-01-12T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>1402074995000</v>
+        <v>1309512949700</v>
       </c>
       <c r="L35">
         <v>79753000</v>
@@ -2143,13 +2143,13 @@
         <v>-1253600</v>
       </c>
       <c r="N35">
-        <v>-17611137000</v>
+        <v>-16943605200</v>
       </c>
       <c r="O35">
         <v>-4530400</v>
       </c>
       <c r="P35">
-        <v>-31439010000</v>
+        <v>-45879954600</v>
       </c>
     </row>
     <row r="36">
@@ -2166,10 +2166,10 @@
         <v>562000</v>
       </c>
       <c r="E36">
-        <v>26311405000</v>
+        <v>25823093800</v>
       </c>
       <c r="F36">
-        <v>13005377000</v>
+        <v>12705677000</v>
       </c>
       <c r="G36">
         <v>3130242000</v>
@@ -2178,13 +2178,13 @@
         <v>2838700</v>
       </c>
       <c r="I36">
-        <v>42447024000</v>
+        <v>41659012800</v>
       </c>
       <c r="J36" t="str">
         <v>2023-01-12T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>1444522019000</v>
+        <v>1351171962500</v>
       </c>
       <c r="L36">
         <v>82591700</v>
@@ -2193,13 +2193,13 @@
         <v>-833500</v>
       </c>
       <c r="N36">
-        <v>-13306028000</v>
+        <v>-13117416800</v>
       </c>
       <c r="O36">
         <v>-5363900</v>
       </c>
       <c r="P36">
-        <v>-44745038000</v>
+        <v>-58997371400</v>
       </c>
     </row>
     <row r="37">
@@ -2216,10 +2216,10 @@
         <v>7200</v>
       </c>
       <c r="E37">
-        <v>24856870000</v>
+        <v>23729698300</v>
       </c>
       <c r="F37">
-        <v>14548114000</v>
+        <v>13760802100</v>
       </c>
       <c r="G37">
         <v>47699000</v>
@@ -2228,13 +2228,13 @@
         <v>2259100</v>
       </c>
       <c r="I37">
-        <v>39452683000</v>
+        <v>37538199400</v>
       </c>
       <c r="J37" t="str">
         <v>2023-01-12T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>1483974702000</v>
+        <v>1388710161900</v>
       </c>
       <c r="L37">
         <v>84850800</v>
@@ -2243,13 +2243,13 @@
         <v>-694500</v>
       </c>
       <c r="N37">
-        <v>-10308756000</v>
+        <v>-9968896200</v>
       </c>
       <c r="O37">
         <v>-6058400</v>
       </c>
       <c r="P37">
-        <v>-55053794000</v>
+        <v>-68966267600</v>
       </c>
     </row>
     <row r="38">
@@ -2266,10 +2266,10 @@
         <v>14400</v>
       </c>
       <c r="E38">
-        <v>19518348000</v>
+        <v>17747021100</v>
       </c>
       <c r="F38">
-        <v>13104222000</v>
+        <v>12019308000</v>
       </c>
       <c r="G38">
         <v>100656000</v>
@@ -2278,13 +2278,13 @@
         <v>2043100</v>
       </c>
       <c r="I38">
-        <v>32723226000</v>
+        <v>29866985100</v>
       </c>
       <c r="J38" t="str">
         <v>2023-01-12T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>1516697928000</v>
+        <v>1418577147000</v>
       </c>
       <c r="L38">
         <v>86893900</v>
@@ -2293,13 +2293,13 @@
         <v>-415100</v>
       </c>
       <c r="N38">
-        <v>-6414126000</v>
+        <v>-5727713100</v>
       </c>
       <c r="O38">
         <v>-6473500</v>
       </c>
       <c r="P38">
-        <v>-61467920000</v>
+        <v>-74693980700</v>
       </c>
     </row>
     <row r="39">
@@ -2316,10 +2316,10 @@
         <v>16000</v>
       </c>
       <c r="E39">
-        <v>13201869000</v>
+        <v>12841130100</v>
       </c>
       <c r="F39">
-        <v>15400066000</v>
+        <v>14122544800</v>
       </c>
       <c r="G39">
         <v>381473000</v>
@@ -2328,13 +2328,13 @@
         <v>1618100</v>
       </c>
       <c r="I39">
-        <v>28983408000</v>
+        <v>27345147900</v>
       </c>
       <c r="J39" t="str">
         <v>2023-01-12T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>1545681336000</v>
+        <v>1445922294900</v>
       </c>
       <c r="L39">
         <v>88512000</v>
@@ -2343,13 +2343,13 @@
         <v>83700</v>
       </c>
       <c r="N39">
-        <v>2198197000</v>
+        <v>1281414700</v>
       </c>
       <c r="O39">
         <v>-6389800</v>
       </c>
       <c r="P39">
-        <v>-59269723000</v>
+        <v>-73412566000</v>
       </c>
     </row>
     <row r="40">
@@ -2366,10 +2366,10 @@
         <v>5300</v>
       </c>
       <c r="E40">
-        <v>12323133000</v>
+        <v>12013642800</v>
       </c>
       <c r="F40">
-        <v>16114064000</v>
+        <v>15698380100</v>
       </c>
       <c r="G40">
         <v>92005000</v>
@@ -2378,13 +2378,13 @@
         <v>1677400</v>
       </c>
       <c r="I40">
-        <v>28529202000</v>
+        <v>27804027900</v>
       </c>
       <c r="J40" t="str">
         <v>2023-01-12T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>1574210538000</v>
+        <v>1473726322800</v>
       </c>
       <c r="L40">
         <v>90189400</v>
@@ -2393,13 +2393,13 @@
         <v>-86100</v>
       </c>
       <c r="N40">
-        <v>3790931000</v>
+        <v>3684737300</v>
       </c>
       <c r="O40">
         <v>-6475900</v>
       </c>
       <c r="P40">
-        <v>-55478792000</v>
+        <v>-69727828700</v>
       </c>
     </row>
     <row r="41">
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="E41">
-        <v>11953377000</v>
+        <v>11012019300</v>
       </c>
       <c r="F41">
-        <v>23160003000</v>
+        <v>20528736900</v>
       </c>
       <c r="G41">
         <v>156087000</v>
@@ -2428,13 +2428,13 @@
         <v>1700300</v>
       </c>
       <c r="I41">
-        <v>35269467000</v>
+        <v>31696843200</v>
       </c>
       <c r="J41" t="str">
         <v>2023-01-12T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>1609480005000</v>
+        <v>1505423166000</v>
       </c>
       <c r="L41">
         <v>91889700</v>
@@ -2443,13 +2443,13 @@
         <v>523700</v>
       </c>
       <c r="N41">
-        <v>11206626000</v>
+        <v>9516717600</v>
       </c>
       <c r="O41">
         <v>-5952200</v>
       </c>
       <c r="P41">
-        <v>-44272166000</v>
+        <v>-60211111100</v>
       </c>
     </row>
     <row r="42">
@@ -2466,10 +2466,10 @@
         <v>1400</v>
       </c>
       <c r="E42">
-        <v>10044042000</v>
+        <v>9781205100</v>
       </c>
       <c r="F42">
-        <v>28125297000</v>
+        <v>24631294500</v>
       </c>
       <c r="G42">
         <v>13883000</v>
@@ -2478,13 +2478,13 @@
         <v>1734700</v>
       </c>
       <c r="I42">
-        <v>38183222000</v>
+        <v>34426382600</v>
       </c>
       <c r="J42" t="str">
         <v>2023-01-12T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>1647663227000</v>
+        <v>1539849548600</v>
       </c>
       <c r="L42">
         <v>93624400</v>
@@ -2493,13 +2493,13 @@
         <v>734700</v>
       </c>
       <c r="N42">
-        <v>18081255000</v>
+        <v>14850089400</v>
       </c>
       <c r="O42">
         <v>-5217500</v>
       </c>
       <c r="P42">
-        <v>-26190911000</v>
+        <v>-45361021700</v>
       </c>
     </row>
     <row r="43">
@@ -2516,10 +2516,10 @@
         <v>4300</v>
       </c>
       <c r="E43">
-        <v>9739834000</v>
+        <v>9288685600</v>
       </c>
       <c r="F43">
-        <v>25798982000</v>
+        <v>25062818900</v>
       </c>
       <c r="G43">
         <v>50709000</v>
@@ -2528,13 +2528,13 @@
         <v>1829700</v>
       </c>
       <c r="I43">
-        <v>35589525000</v>
+        <v>34402213500</v>
       </c>
       <c r="J43" t="str">
         <v>2023-01-12T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>1683252752000</v>
+        <v>1574251762100</v>
       </c>
       <c r="L43">
         <v>95454100</v>
@@ -2543,13 +2543,13 @@
         <v>729400</v>
       </c>
       <c r="N43">
-        <v>16059148000</v>
+        <v>15774133300</v>
       </c>
       <c r="O43">
         <v>-4488100</v>
       </c>
       <c r="P43">
-        <v>-10131763000</v>
+        <v>-29586888400</v>
       </c>
     </row>
     <row r="44">
@@ -2566,25 +2566,25 @@
         <v>2600</v>
       </c>
       <c r="E44">
-        <v>18570920000</v>
+        <v>18260330900</v>
       </c>
       <c r="F44">
-        <v>19937182000</v>
+        <v>19588431100</v>
       </c>
       <c r="G44">
-        <v>192370000</v>
+        <v>177884500</v>
       </c>
       <c r="H44">
         <v>1877400</v>
       </c>
       <c r="I44">
-        <v>38700472000</v>
+        <v>38026646500</v>
       </c>
       <c r="J44" t="str">
         <v>2023-01-12T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>1721953224000</v>
+        <v>1612278408600</v>
       </c>
       <c r="L44">
         <v>97331500</v>
@@ -2593,13 +2593,13 @@
         <v>196000</v>
       </c>
       <c r="N44">
-        <v>1366262000</v>
+        <v>1328100200</v>
       </c>
       <c r="O44">
         <v>-4292100</v>
       </c>
       <c r="P44">
-        <v>-8765501000</v>
+        <v>-28258788200</v>
       </c>
     </row>
     <row r="45">
@@ -2616,10 +2616,10 @@
         <v>4400</v>
       </c>
       <c r="E45">
-        <v>18704825000</v>
+        <v>18046683800</v>
       </c>
       <c r="F45">
-        <v>16027090000</v>
+        <v>14754963400</v>
       </c>
       <c r="G45">
         <v>36494000</v>
@@ -2628,13 +2628,13 @@
         <v>1882000</v>
       </c>
       <c r="I45">
-        <v>34768409000</v>
+        <v>32838141200</v>
       </c>
       <c r="J45" t="str">
         <v>2023-01-12T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>1756721633000</v>
+        <v>1645116549800</v>
       </c>
       <c r="L45">
         <v>99213500</v>
@@ -2643,13 +2643,13 @@
         <v>-142200</v>
       </c>
       <c r="N45">
-        <v>-2677735000</v>
+        <v>-3291720400</v>
       </c>
       <c r="O45">
         <v>-4434300</v>
       </c>
       <c r="P45">
-        <v>-11443236000</v>
+        <v>-31550508600</v>
       </c>
     </row>
     <row r="46">
@@ -2666,10 +2666,10 @@
         <v>3100</v>
       </c>
       <c r="E46">
-        <v>12363196000</v>
+        <v>12279679600</v>
       </c>
       <c r="F46">
-        <v>12440032000</v>
+        <v>11311561600</v>
       </c>
       <c r="G46">
         <v>78315000</v>
@@ -2678,13 +2678,13 @@
         <v>1429700</v>
       </c>
       <c r="I46">
-        <v>24881543000</v>
+        <v>23669556200</v>
       </c>
       <c r="J46" t="str">
         <v>2023-01-12T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>1781603176000</v>
+        <v>1668786106000</v>
       </c>
       <c r="L46">
         <v>100643200</v>
@@ -2693,13 +2693,13 @@
         <v>-111600</v>
       </c>
       <c r="N46">
-        <v>76836000</v>
+        <v>-968118000</v>
       </c>
       <c r="O46">
         <v>-4545900</v>
       </c>
       <c r="P46">
-        <v>-11366400000</v>
+        <v>-32518626600</v>
       </c>
     </row>
     <row r="47">
@@ -2716,10 +2716,10 @@
         <v>1000</v>
       </c>
       <c r="E47">
-        <v>16690924000</v>
+        <v>16457257900</v>
       </c>
       <c r="F47">
-        <v>24089844000</v>
+        <v>21904631400</v>
       </c>
       <c r="G47">
         <v>15500000</v>
@@ -2728,13 +2728,13 @@
         <v>2099000</v>
       </c>
       <c r="I47">
-        <v>40796268000</v>
+        <v>38377389300</v>
       </c>
       <c r="J47" t="str">
         <v>2023-01-12T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>1822399444000</v>
+        <v>1707163495300</v>
       </c>
       <c r="L47">
         <v>102742200</v>
@@ -2743,13 +2743,13 @@
         <v>247200</v>
       </c>
       <c r="N47">
-        <v>7398920000</v>
+        <v>5447373500</v>
       </c>
       <c r="O47">
         <v>-4298700</v>
       </c>
       <c r="P47">
-        <v>-3967480000</v>
+        <v>-27071253100</v>
       </c>
     </row>
     <row r="48">
@@ -2766,10 +2766,10 @@
         <v>11600</v>
       </c>
       <c r="E48">
-        <v>16176839000</v>
+        <v>15675241100</v>
       </c>
       <c r="F48">
-        <v>17154364000</v>
+        <v>15821897800</v>
       </c>
       <c r="G48">
         <v>68388000</v>
@@ -2778,13 +2778,13 @@
         <v>1758000</v>
       </c>
       <c r="I48">
-        <v>33399591000</v>
+        <v>31565526900</v>
       </c>
       <c r="J48" t="str">
         <v>2023-01-12T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>1855799035000</v>
+        <v>1738729022200</v>
       </c>
       <c r="L48">
         <v>104500200</v>
@@ -2793,13 +2793,13 @@
         <v>120200</v>
       </c>
       <c r="N48">
-        <v>977525000</v>
+        <v>146656700</v>
       </c>
       <c r="O48">
         <v>-4178500</v>
       </c>
       <c r="P48">
-        <v>-2989955000</v>
+        <v>-26924596400</v>
       </c>
     </row>
     <row r="49">
@@ -2816,10 +2816,10 @@
         <v>4500</v>
       </c>
       <c r="E49">
-        <v>20667267000</v>
+        <v>20205429300</v>
       </c>
       <c r="F49">
-        <v>13737809000</v>
+        <v>12143504900</v>
       </c>
       <c r="G49">
         <v>118700000</v>
@@ -2828,13 +2828,13 @@
         <v>1866800</v>
       </c>
       <c r="I49">
-        <v>34523776000</v>
+        <v>32467634200</v>
       </c>
       <c r="J49" t="str">
         <v>2023-01-12T10:48:00.000Z</v>
       </c>
       <c r="K49">
-        <v>1890322811000</v>
+        <v>1771196656400</v>
       </c>
       <c r="L49">
         <v>106367000</v>
@@ -2843,13 +2843,13 @@
         <v>-650100</v>
       </c>
       <c r="N49">
-        <v>-6929458000</v>
+        <v>-8061924400</v>
       </c>
       <c r="O49">
         <v>-4828600</v>
       </c>
       <c r="P49">
-        <v>-9919413000</v>
+        <v>-34986520800</v>
       </c>
     </row>
     <row r="50">
@@ -2866,10 +2866,10 @@
         <v>1200</v>
       </c>
       <c r="E50">
-        <v>16862168000</v>
+        <v>16538192300</v>
       </c>
       <c r="F50">
-        <v>20583576000</v>
+        <v>18753507900</v>
       </c>
       <c r="G50">
         <v>19210000</v>
@@ -2878,13 +2878,13 @@
         <v>1887700</v>
       </c>
       <c r="I50">
-        <v>37464954000</v>
+        <v>35310910200</v>
       </c>
       <c r="J50" t="str">
         <v>2023-01-12T10:50:00.000Z</v>
       </c>
       <c r="K50">
-        <v>1927787765000</v>
+        <v>1806507566600</v>
       </c>
       <c r="L50">
         <v>108254700</v>
@@ -2893,13 +2893,13 @@
         <v>169500</v>
       </c>
       <c r="N50">
-        <v>3721408000</v>
+        <v>2215315600</v>
       </c>
       <c r="O50">
         <v>-4659100</v>
       </c>
       <c r="P50">
-        <v>-6198005000</v>
+        <v>-32771205200</v>
       </c>
     </row>
     <row r="51">
@@ -2916,10 +2916,10 @@
         <v>5500</v>
       </c>
       <c r="E51">
-        <v>27404372000</v>
+        <v>27010766000</v>
       </c>
       <c r="F51">
-        <v>15535415000</v>
+        <v>15055695200</v>
       </c>
       <c r="G51">
         <v>52257000</v>
@@ -2928,13 +2928,13 @@
         <v>2237800</v>
       </c>
       <c r="I51">
-        <v>42992044000</v>
+        <v>42118718200</v>
       </c>
       <c r="J51" t="str">
         <v>2023-01-12T10:52:00.000Z</v>
       </c>
       <c r="K51">
-        <v>1970779809000</v>
+        <v>1848626284800</v>
       </c>
       <c r="L51">
         <v>110492500</v>
@@ -2943,13 +2943,13 @@
         <v>-722700</v>
       </c>
       <c r="N51">
-        <v>-11868957000</v>
+        <v>-11955070800</v>
       </c>
       <c r="O51">
         <v>-5381800</v>
       </c>
       <c r="P51">
-        <v>-18066962000</v>
+        <v>-44726276000</v>
       </c>
     </row>
     <row r="52">
@@ -2966,10 +2966,10 @@
         <v>2400</v>
       </c>
       <c r="E52">
-        <v>22418645000</v>
+        <v>20798466800</v>
       </c>
       <c r="F52">
-        <v>12189946000</v>
+        <v>11730905500</v>
       </c>
       <c r="G52">
         <v>54786000</v>
@@ -2978,13 +2978,13 @@
         <v>1848300</v>
       </c>
       <c r="I52">
-        <v>34663377000</v>
+        <v>32584158300</v>
       </c>
       <c r="J52" t="str">
         <v>2023-01-12T10:54:00.000Z</v>
       </c>
       <c r="K52">
-        <v>2005443186000</v>
+        <v>1881210443100</v>
       </c>
       <c r="L52">
         <v>112340800</v>
@@ -2993,13 +2993,13 @@
         <v>-602100</v>
       </c>
       <c r="N52">
-        <v>-10228699000</v>
+        <v>-9067561300</v>
       </c>
       <c r="O52">
         <v>-5983900</v>
       </c>
       <c r="P52">
-        <v>-28295661000</v>
+        <v>-53793837300</v>
       </c>
     </row>
     <row r="53">
@@ -3016,10 +3016,10 @@
         <v>2900</v>
       </c>
       <c r="E53">
-        <v>11616794000</v>
+        <v>10602409400</v>
       </c>
       <c r="F53">
-        <v>14261631000</v>
+        <v>13868924100</v>
       </c>
       <c r="G53">
         <v>72350000</v>
@@ -3028,13 +3028,13 @@
         <v>1321800</v>
       </c>
       <c r="I53">
-        <v>25950775000</v>
+        <v>24543683500</v>
       </c>
       <c r="J53" t="str">
         <v>2023-01-12T10:56:00.000Z</v>
       </c>
       <c r="K53">
-        <v>2031393961000</v>
+        <v>1905754126600</v>
       </c>
       <c r="L53">
         <v>113662600</v>
@@ -3043,13 +3043,13 @@
         <v>99100</v>
       </c>
       <c r="N53">
-        <v>2644837000</v>
+        <v>3266514700</v>
       </c>
       <c r="O53">
         <v>-5884800</v>
       </c>
       <c r="P53">
-        <v>-25650824000</v>
+        <v>-50527322600</v>
       </c>
     </row>
     <row r="54">
@@ -3066,10 +3066,10 @@
         <v>1100</v>
       </c>
       <c r="E54">
-        <v>18885899000</v>
+        <v>17878707200</v>
       </c>
       <c r="F54">
-        <v>13547299000</v>
+        <v>13431115300</v>
       </c>
       <c r="G54">
         <v>31857999.999999996</v>
@@ -3078,13 +3078,13 @@
         <v>1571800</v>
       </c>
       <c r="I54">
-        <v>32465056000</v>
+        <v>31341680500</v>
       </c>
       <c r="J54" t="str">
         <v>2023-01-12T10:58:00.000Z</v>
       </c>
       <c r="K54">
-        <v>2063859017000</v>
+        <v>1937095807100</v>
       </c>
       <c r="L54">
         <v>115234400</v>
@@ -3093,13 +3093,13 @@
         <v>-254700</v>
       </c>
       <c r="N54">
-        <v>-5338600000</v>
+        <v>-4447591900</v>
       </c>
       <c r="O54">
         <v>-6139500</v>
       </c>
       <c r="P54">
-        <v>-30989424000</v>
+        <v>-54974914500</v>
       </c>
     </row>
     <row r="55">
@@ -3116,10 +3116,10 @@
         <v>17800</v>
       </c>
       <c r="E55">
-        <v>17120395000</v>
+        <v>16847168500</v>
       </c>
       <c r="F55">
-        <v>19072927000</v>
+        <v>17103198700</v>
       </c>
       <c r="G55">
         <v>418470000</v>
@@ -3128,13 +3128,13 @@
         <v>1907600</v>
       </c>
       <c r="I55">
-        <v>36611792000</v>
+        <v>34368837200</v>
       </c>
       <c r="J55" t="str">
         <v>2023-01-12T11:00:00.000Z</v>
       </c>
       <c r="K55">
-        <v>2100470809000</v>
+        <v>1971464644300</v>
       </c>
       <c r="L55">
         <v>117142000</v>
@@ -3143,13 +3143,13 @@
         <v>-165200</v>
       </c>
       <c r="N55">
-        <v>1952532000</v>
+        <v>256030200</v>
       </c>
       <c r="O55">
         <v>-6304700</v>
       </c>
       <c r="P55">
-        <v>-29036892000</v>
+        <v>-54718884300</v>
       </c>
     </row>
     <row r="56">
@@ -3166,10 +3166,10 @@
         <v>5000</v>
       </c>
       <c r="E56">
-        <v>35518764000</v>
+        <v>30092395800</v>
       </c>
       <c r="F56">
-        <v>18999246000</v>
+        <v>17594751900</v>
       </c>
       <c r="G56">
         <v>134425000</v>
@@ -3178,13 +3178,13 @@
         <v>2922900</v>
       </c>
       <c r="I56">
-        <v>54652435000</v>
+        <v>47821572700</v>
       </c>
       <c r="J56" t="str">
         <v>2023-01-12T11:02:00.000Z</v>
       </c>
       <c r="K56">
-        <v>2155123244000</v>
+        <v>2019286217000</v>
       </c>
       <c r="L56">
         <v>120064900</v>
@@ -3193,13 +3193,13 @@
         <v>-940300</v>
       </c>
       <c r="N56">
-        <v>-16519518000</v>
+        <v>-12497643900</v>
       </c>
       <c r="O56">
         <v>-7245000</v>
       </c>
       <c r="P56">
-        <v>-45556410000</v>
+        <v>-67216528200</v>
       </c>
     </row>
     <row r="57">
@@ -3216,10 +3216,10 @@
         <v>37100</v>
       </c>
       <c r="E57">
-        <v>28778912000</v>
+        <v>22550546600</v>
       </c>
       <c r="F57">
-        <v>12704978000</v>
+        <v>10747837100</v>
       </c>
       <c r="G57">
         <v>597073000</v>
@@ -3228,13 +3228,13 @@
         <v>2545000</v>
       </c>
       <c r="I57">
-        <v>42080963000</v>
+        <v>33895456700</v>
       </c>
       <c r="J57" t="str">
         <v>2023-01-12T11:04:00.000Z</v>
       </c>
       <c r="K57">
-        <v>2197204207000</v>
+        <v>2053181673700</v>
       </c>
       <c r="L57">
         <v>122609900</v>
@@ -3243,13 +3243,13 @@
         <v>-994300</v>
       </c>
       <c r="N57">
-        <v>-16073934000</v>
+        <v>-11802709500</v>
       </c>
       <c r="O57">
         <v>-8239300</v>
       </c>
       <c r="P57">
-        <v>-61630344000</v>
+        <v>-79019237700</v>
       </c>
     </row>
     <row r="58">
@@ -3266,10 +3266,10 @@
         <v>13000</v>
       </c>
       <c r="E58">
-        <v>26568717000</v>
+        <v>25704182400</v>
       </c>
       <c r="F58">
-        <v>15105148000</v>
+        <v>14536417300</v>
       </c>
       <c r="G58">
         <v>471089000</v>
@@ -3278,13 +3278,13 @@
         <v>2510700</v>
       </c>
       <c r="I58">
-        <v>42144954000</v>
+        <v>40711688700</v>
       </c>
       <c r="J58" t="str">
         <v>2023-01-12T11:06:00.000Z</v>
       </c>
       <c r="K58">
-        <v>2239349161000</v>
+        <v>2093893362400</v>
       </c>
       <c r="L58">
         <v>125120600</v>
@@ -3293,13 +3293,13 @@
         <v>-962700</v>
       </c>
       <c r="N58">
-        <v>-11463569000</v>
+        <v>-11167765100</v>
       </c>
       <c r="O58">
         <v>-9202000</v>
       </c>
       <c r="P58">
-        <v>-73093913000</v>
+        <v>-90187002800</v>
       </c>
     </row>
     <row r="59">
@@ -3316,10 +3316,10 @@
         <v>1200</v>
       </c>
       <c r="E59">
-        <v>19817495000</v>
+        <v>16991124200</v>
       </c>
       <c r="F59">
-        <v>11211285000</v>
+        <v>10339357800</v>
       </c>
       <c r="G59">
         <v>18818000</v>
@@ -3328,13 +3328,13 @@
         <v>1853700</v>
       </c>
       <c r="I59">
-        <v>31047598000</v>
+        <v>27349300000</v>
       </c>
       <c r="J59" t="str">
         <v>2023-01-12T11:08:00.000Z</v>
       </c>
       <c r="K59">
-        <v>2270396759000</v>
+        <v>2121242662400</v>
       </c>
       <c r="L59">
         <v>126974300</v>
@@ -3343,13 +3343,13 @@
         <v>-685100</v>
       </c>
       <c r="N59">
-        <v>-8606210000</v>
+        <v>-6651766400</v>
       </c>
       <c r="O59">
         <v>-9887100</v>
       </c>
       <c r="P59">
-        <v>-81700123000</v>
+        <v>-96838769200</v>
       </c>
     </row>
     <row r="60">
@@ -3366,10 +3366,10 @@
         <v>2200</v>
       </c>
       <c r="E60">
-        <v>32157591000</v>
+        <v>28282270200</v>
       </c>
       <c r="F60">
-        <v>11131186000</v>
+        <v>10699618000</v>
       </c>
       <c r="G60">
         <v>87490000</v>
@@ -3378,13 +3378,13 @@
         <v>2603200</v>
       </c>
       <c r="I60">
-        <v>43376267000</v>
+        <v>39069378200</v>
       </c>
       <c r="J60" t="str">
         <v>2023-01-12T11:10:00.000Z</v>
       </c>
       <c r="K60">
-        <v>2313773026000</v>
+        <v>2160312040600</v>
       </c>
       <c r="L60">
         <v>129577500</v>
@@ -3393,13 +3393,13 @@
         <v>-1500800</v>
       </c>
       <c r="N60">
-        <v>-21026405000</v>
+        <v>-17582652200</v>
       </c>
       <c r="O60">
         <v>-11387900</v>
       </c>
       <c r="P60">
-        <v>-102726528000</v>
+        <v>-114421421400</v>
       </c>
     </row>
     <row r="61">
@@ -3416,10 +3416,10 @@
         <v>5300</v>
       </c>
       <c r="E61">
-        <v>19682541000</v>
+        <v>18882541800</v>
       </c>
       <c r="F61">
-        <v>17470817000</v>
+        <v>16896691700</v>
       </c>
       <c r="G61">
         <v>85116000</v>
@@ -3428,13 +3428,13 @@
         <v>2059100</v>
       </c>
       <c r="I61">
-        <v>37238474000</v>
+        <v>35864349500</v>
       </c>
       <c r="J61" t="str">
         <v>2023-01-12T11:12:00.000Z</v>
       </c>
       <c r="K61">
-        <v>2351011500000</v>
+        <v>2196176390100</v>
       </c>
       <c r="L61">
         <v>131636600</v>
@@ -3443,13 +3443,13 @@
         <v>41800</v>
       </c>
       <c r="N61">
-        <v>-2211724000</v>
+        <v>-1985850100</v>
       </c>
       <c r="O61">
         <v>-11346100</v>
       </c>
       <c r="P61">
-        <v>-104938252000</v>
+        <v>-116407271500</v>
       </c>
     </row>
     <row r="62">
@@ -3466,10 +3466,10 @@
         <v>40400</v>
       </c>
       <c r="E62">
-        <v>34524883000</v>
+        <v>27909505000</v>
       </c>
       <c r="F62">
-        <v>20411220000</v>
+        <v>19124108400</v>
       </c>
       <c r="G62">
         <v>445815000</v>
@@ -3478,13 +3478,13 @@
         <v>3329600</v>
       </c>
       <c r="I62">
-        <v>55381918000</v>
+        <v>47479428400</v>
       </c>
       <c r="J62" t="str">
         <v>2023-01-12T11:14:00.000Z</v>
       </c>
       <c r="K62">
-        <v>2406393418000</v>
+        <v>2243655818500</v>
       </c>
       <c r="L62">
         <v>134966200</v>
@@ -3493,13 +3493,13 @@
         <v>-708000</v>
       </c>
       <c r="N62">
-        <v>-14113663000</v>
+        <v>-8785396600</v>
       </c>
       <c r="O62">
         <v>-12054100</v>
       </c>
       <c r="P62">
-        <v>-119051915000</v>
+        <v>-125192668100</v>
       </c>
     </row>
     <row r="63">
@@ -3516,10 +3516,10 @@
         <v>4900</v>
       </c>
       <c r="E63">
-        <v>22218997000</v>
+        <v>20456761000</v>
       </c>
       <c r="F63">
-        <v>22531790000</v>
+        <v>14939390000</v>
       </c>
       <c r="G63">
         <v>134304000</v>
@@ -3528,13 +3528,13 @@
         <v>2646200</v>
       </c>
       <c r="I63">
-        <v>44885091000</v>
+        <v>35530455000</v>
       </c>
       <c r="J63" t="str">
         <v>2023-01-12T11:16:00.000Z</v>
       </c>
       <c r="K63">
-        <v>2451278509000</v>
+        <v>2279186273500</v>
       </c>
       <c r="L63">
         <v>137612400</v>
@@ -3543,13 +3543,13 @@
         <v>6100</v>
       </c>
       <c r="N63">
-        <v>312793000</v>
+        <v>-5517371000</v>
       </c>
       <c r="O63">
         <v>-12048000</v>
       </c>
       <c r="P63">
-        <v>-118739122000</v>
+        <v>-130710039100</v>
       </c>
     </row>
     <row r="64">
@@ -3566,10 +3566,10 @@
         <v>900</v>
       </c>
       <c r="E64">
-        <v>17844750000</v>
+        <v>17329365900</v>
       </c>
       <c r="F64">
-        <v>20111801000</v>
+        <v>17206209500</v>
       </c>
       <c r="G64">
         <v>31645000</v>
@@ -3578,13 +3578,13 @@
         <v>2088200</v>
       </c>
       <c r="I64">
-        <v>37988196000</v>
+        <v>34567220400</v>
       </c>
       <c r="J64" t="str">
         <v>2023-01-12T11:18:00.000Z</v>
       </c>
       <c r="K64">
-        <v>2489266705000</v>
+        <v>2313753493900</v>
       </c>
       <c r="L64">
         <v>139700600</v>
@@ -3593,13 +3593,13 @@
         <v>92300</v>
       </c>
       <c r="N64">
-        <v>2267051000</v>
+        <v>-123156400</v>
       </c>
       <c r="O64">
         <v>-11955700</v>
       </c>
       <c r="P64">
-        <v>-116472071000</v>
+        <v>-130833195500</v>
       </c>
     </row>
     <row r="65">
@@ -3616,10 +3616,10 @@
         <v>4700</v>
       </c>
       <c r="E65">
-        <v>13418071000</v>
+        <v>10780611100</v>
       </c>
       <c r="F65">
-        <v>32656584000</v>
+        <v>24769179300</v>
       </c>
       <c r="G65">
         <v>118211000</v>
@@ -3628,13 +3628,13 @@
         <v>2301500</v>
       </c>
       <c r="I65">
-        <v>46192866000</v>
+        <v>35668001400</v>
       </c>
       <c r="J65" t="str">
         <v>2023-01-12T11:20:00.000Z</v>
       </c>
       <c r="K65">
-        <v>2535459571000</v>
+        <v>2349421495300</v>
       </c>
       <c r="L65">
         <v>142002100</v>
@@ -3643,13 +3643,13 @@
         <v>860800</v>
       </c>
       <c r="N65">
-        <v>19238513000</v>
+        <v>13988568200</v>
       </c>
       <c r="O65">
         <v>-11094900</v>
       </c>
       <c r="P65">
-        <v>-97233558000</v>
+        <v>-116844627300</v>
       </c>
     </row>
     <row r="66">
@@ -3666,10 +3666,10 @@
         <v>11300</v>
       </c>
       <c r="E66">
-        <v>12421612000</v>
+        <v>12056677300</v>
       </c>
       <c r="F66">
-        <v>16370870000</v>
+        <v>14160582500</v>
       </c>
       <c r="G66">
         <v>87500000</v>
@@ -3678,13 +3678,13 @@
         <v>1565900</v>
       </c>
       <c r="I66">
-        <v>28879982000</v>
+        <v>26304759800</v>
       </c>
       <c r="J66" t="str">
         <v>2023-01-12T11:22:00.000Z</v>
       </c>
       <c r="K66">
-        <v>2564339553000</v>
+        <v>2375726255100</v>
       </c>
       <c r="L66">
         <v>143568000</v>
@@ -3693,13 +3693,13 @@
         <v>110800</v>
       </c>
       <c r="N66">
-        <v>3949258000</v>
+        <v>2103905200</v>
       </c>
       <c r="O66">
         <v>-10984100</v>
       </c>
       <c r="P66">
-        <v>-93284300000</v>
+        <v>-114740722100</v>
       </c>
     </row>
     <row r="67">
@@ -3716,25 +3716,25 @@
         <v>19000</v>
       </c>
       <c r="E67">
-        <v>9194973000</v>
+        <v>8741427000</v>
       </c>
       <c r="F67">
-        <v>26256607000</v>
+        <v>23069996800</v>
       </c>
       <c r="G67">
-        <v>613508000</v>
+        <v>267354500</v>
       </c>
       <c r="H67">
         <v>1543400</v>
       </c>
       <c r="I67">
-        <v>36065088000</v>
+        <v>32078778300</v>
       </c>
       <c r="J67" t="str">
         <v>2023-01-12T11:24:00.000Z</v>
       </c>
       <c r="K67">
-        <v>2600404641000</v>
+        <v>2407805033400</v>
       </c>
       <c r="L67">
         <v>145111400</v>
@@ -3743,13 +3743,13 @@
         <v>602400</v>
       </c>
       <c r="N67">
-        <v>17061634000</v>
+        <v>14328569800</v>
       </c>
       <c r="O67">
         <v>-10381700</v>
       </c>
       <c r="P67">
-        <v>-76222666000</v>
+        <v>-100412152300</v>
       </c>
     </row>
     <row r="68">
@@ -3766,10 +3766,10 @@
         <v>3400</v>
       </c>
       <c r="E68">
-        <v>11688679000</v>
+        <v>10394674300</v>
       </c>
       <c r="F68">
-        <v>25210897000</v>
+        <v>23774235100</v>
       </c>
       <c r="G68">
         <v>39355000</v>
@@ -3778,13 +3778,13 @@
         <v>1889500</v>
       </c>
       <c r="I68">
-        <v>36938931000</v>
+        <v>34208264400</v>
       </c>
       <c r="J68" t="str">
         <v>2023-01-12T11:26:00.000Z</v>
       </c>
       <c r="K68">
-        <v>2637343572000</v>
+        <v>2442013297800</v>
       </c>
       <c r="L68">
         <v>147000900</v>
@@ -3793,13 +3793,13 @@
         <v>761700</v>
       </c>
       <c r="N68">
-        <v>13522218000</v>
+        <v>13379560800</v>
       </c>
       <c r="O68">
         <v>-9620000</v>
       </c>
       <c r="P68">
-        <v>-62700448000</v>
+        <v>-87032591500</v>
       </c>
     </row>
     <row r="69">
@@ -3816,10 +3816,10 @@
         <v>1400</v>
       </c>
       <c r="E69">
-        <v>15332446000</v>
+        <v>14177901700</v>
       </c>
       <c r="F69">
-        <v>16317814000</v>
+        <v>11491545100</v>
       </c>
       <c r="G69">
         <v>131180000</v>
@@ -3828,13 +3828,13 @@
         <v>1655200</v>
       </c>
       <c r="I69">
-        <v>31781440000</v>
+        <v>25800626800</v>
       </c>
       <c r="J69" t="str">
         <v>2023-01-12T11:28:00.000Z</v>
       </c>
       <c r="K69">
-        <v>2669125012000</v>
+        <v>2467813924600</v>
       </c>
       <c r="L69">
         <v>148656100</v>
@@ -3843,13 +3843,13 @@
         <v>-24600</v>
       </c>
       <c r="N69">
-        <v>985368000</v>
+        <v>-2686356600</v>
       </c>
       <c r="O69">
         <v>-9644600</v>
       </c>
       <c r="P69">
-        <v>-61715080000</v>
+        <v>-89718948100</v>
       </c>
     </row>
     <row r="70">
@@ -3884,7 +3884,7 @@
         <v>2023-01-12T11:30:00.000Z</v>
       </c>
       <c r="K70">
-        <v>2669187532000</v>
+        <v>2467876444600</v>
       </c>
       <c r="L70">
         <v>148658500</v>
@@ -3899,7 +3899,7 @@
         <v>-9642200</v>
       </c>
       <c r="P70">
-        <v>-61652560000</v>
+        <v>-89656428100</v>
       </c>
     </row>
     <row r="71">
@@ -3916,25 +3916,25 @@
         <v>202800</v>
       </c>
       <c r="E71">
-        <v>59083776000</v>
+        <v>51358608900</v>
       </c>
       <c r="F71">
-        <v>51432443000</v>
+        <v>47690089100</v>
       </c>
       <c r="G71">
-        <v>3130753000</v>
+        <v>3127156600</v>
       </c>
       <c r="H71">
         <v>6666800</v>
       </c>
       <c r="I71">
-        <v>113646972000</v>
+        <v>102175854600</v>
       </c>
       <c r="J71" t="str">
         <v>2023-01-12T13:00:00.000Z</v>
       </c>
       <c r="K71">
-        <v>2782834504000</v>
+        <v>2570052299200</v>
       </c>
       <c r="L71">
         <v>155325300</v>
@@ -3943,13 +3943,13 @@
         <v>-793400</v>
       </c>
       <c r="N71">
-        <v>-7651333000</v>
+        <v>-3668519800</v>
       </c>
       <c r="O71">
         <v>-10435600</v>
       </c>
       <c r="P71">
-        <v>-69303893000</v>
+        <v>-93324947900</v>
       </c>
     </row>
     <row r="72">
@@ -3966,10 +3966,10 @@
         <v>16000</v>
       </c>
       <c r="E72">
-        <v>26427855000</v>
+        <v>20871916500</v>
       </c>
       <c r="F72">
-        <v>39710085000</v>
+        <v>37873523400</v>
       </c>
       <c r="G72">
         <v>148902000</v>
@@ -3978,13 +3978,13 @@
         <v>3667500</v>
       </c>
       <c r="I72">
-        <v>66286842000</v>
+        <v>58894341900</v>
       </c>
       <c r="J72" t="str">
         <v>2023-01-12T13:02:00.000Z</v>
       </c>
       <c r="K72">
-        <v>2849121346000</v>
+        <v>2628946641100</v>
       </c>
       <c r="L72">
         <v>158992800</v>
@@ -3993,13 +3993,13 @@
         <v>798100</v>
       </c>
       <c r="N72">
-        <v>13282230000</v>
+        <v>17001606900</v>
       </c>
       <c r="O72">
         <v>-9637500</v>
       </c>
       <c r="P72">
-        <v>-56021663000</v>
+        <v>-76323341000</v>
       </c>
     </row>
     <row r="73">
@@ -4016,10 +4016,10 @@
         <v>25400</v>
       </c>
       <c r="E73">
-        <v>22627896000</v>
+        <v>22468056000</v>
       </c>
       <c r="F73">
-        <v>36951707000</v>
+        <v>32878184600</v>
       </c>
       <c r="G73">
         <v>254017000</v>
@@ -4028,13 +4028,13 @@
         <v>3622200</v>
       </c>
       <c r="I73">
-        <v>59833620000</v>
+        <v>55600257600</v>
       </c>
       <c r="J73" t="str">
         <v>2023-01-12T13:04:00.000Z</v>
       </c>
       <c r="K73">
-        <v>2908954966000</v>
+        <v>2684546898700</v>
       </c>
       <c r="L73">
         <v>162615000</v>
@@ -4043,13 +4043,13 @@
         <v>966600</v>
       </c>
       <c r="N73">
-        <v>14323811000</v>
+        <v>10410128600</v>
       </c>
       <c r="O73">
         <v>-8670900</v>
       </c>
       <c r="P73">
-        <v>-41697852000</v>
+        <v>-65913212400</v>
       </c>
     </row>
     <row r="74">
@@ -4066,10 +4066,10 @@
         <v>14800</v>
       </c>
       <c r="E74">
-        <v>24694401000</v>
+        <v>24038457600</v>
       </c>
       <c r="F74">
-        <v>20872263000</v>
+        <v>19291944900</v>
       </c>
       <c r="G74">
         <v>454291000</v>
@@ -4078,13 +4078,13 @@
         <v>2623600</v>
       </c>
       <c r="I74">
-        <v>46020955000</v>
+        <v>43784693500</v>
       </c>
       <c r="J74" t="str">
         <v>2023-01-12T13:06:00.000Z</v>
       </c>
       <c r="K74">
-        <v>2954975921000</v>
+        <v>2728331592200</v>
       </c>
       <c r="L74">
         <v>165238600</v>
@@ -4093,13 +4093,13 @@
         <v>-305000</v>
       </c>
       <c r="N74">
-        <v>-3822138000</v>
+        <v>-4746512700</v>
       </c>
       <c r="O74">
         <v>-8975900</v>
       </c>
       <c r="P74">
-        <v>-45519990000</v>
+        <v>-70659725100</v>
       </c>
     </row>
     <row r="75">
@@ -4116,25 +4116,25 @@
         <v>7600</v>
       </c>
       <c r="E75">
-        <v>45430841000</v>
+        <v>44281191800</v>
       </c>
       <c r="F75">
-        <v>21241663000</v>
+        <v>17769538600</v>
       </c>
       <c r="G75">
-        <v>75303000</v>
+        <v>67211100</v>
       </c>
       <c r="H75">
         <v>3829200</v>
       </c>
       <c r="I75">
-        <v>66747807000</v>
+        <v>62117941500</v>
       </c>
       <c r="J75" t="str">
         <v>2023-01-12T13:08:00.000Z</v>
       </c>
       <c r="K75">
-        <v>3021723728000</v>
+        <v>2790449533700</v>
       </c>
       <c r="L75">
         <v>169067800</v>
@@ -4143,13 +4143,13 @@
         <v>-1283200</v>
       </c>
       <c r="N75">
-        <v>-24189178000</v>
+        <v>-26511653200</v>
       </c>
       <c r="O75">
         <v>-10259100</v>
       </c>
       <c r="P75">
-        <v>-69709168000</v>
+        <v>-97171378300</v>
       </c>
     </row>
     <row r="76">
@@ -4166,10 +4166,10 @@
         <v>19900</v>
       </c>
       <c r="E76">
-        <v>45261453000</v>
+        <v>41239379100</v>
       </c>
       <c r="F76">
-        <v>15319039000</v>
+        <v>13812247300</v>
       </c>
       <c r="G76">
         <v>426063000</v>
@@ -4178,13 +4178,13 @@
         <v>3541400</v>
       </c>
       <c r="I76">
-        <v>61006555000</v>
+        <v>55477689400</v>
       </c>
       <c r="J76" t="str">
         <v>2023-01-12T13:10:00.000Z</v>
       </c>
       <c r="K76">
-        <v>3082730283000</v>
+        <v>2845927223100</v>
       </c>
       <c r="L76">
         <v>172609200</v>
@@ -4193,13 +4193,13 @@
         <v>-1970100</v>
       </c>
       <c r="N76">
-        <v>-29942414000</v>
+        <v>-27427131800</v>
       </c>
       <c r="O76">
         <v>-12229200</v>
       </c>
       <c r="P76">
-        <v>-99651582000</v>
+        <v>-124598510100</v>
       </c>
     </row>
     <row r="77">
@@ -4216,25 +4216,25 @@
         <v>10600</v>
       </c>
       <c r="E77">
-        <v>61688759000</v>
+        <v>57658493300</v>
       </c>
       <c r="F77">
-        <v>10898005000</v>
+        <v>10040463400</v>
       </c>
       <c r="G77">
-        <v>313781000</v>
+        <v>268826000</v>
       </c>
       <c r="H77">
         <v>4587800</v>
       </c>
       <c r="I77">
-        <v>72900545000</v>
+        <v>67967782700</v>
       </c>
       <c r="J77" t="str">
         <v>2023-01-12T13:12:00.000Z</v>
       </c>
       <c r="K77">
-        <v>3155630828000</v>
+        <v>2913895005800</v>
       </c>
       <c r="L77">
         <v>177197000</v>
@@ -4243,13 +4243,13 @@
         <v>-3417000</v>
       </c>
       <c r="N77">
-        <v>-50790754000</v>
+        <v>-47618029900</v>
       </c>
       <c r="O77">
         <v>-15646200</v>
       </c>
       <c r="P77">
-        <v>-150442336000</v>
+        <v>-172216540000</v>
       </c>
     </row>
     <row r="78">
@@ -4266,10 +4266,10 @@
         <v>35700</v>
       </c>
       <c r="E78">
-        <v>82974808000</v>
+        <v>66627771400</v>
       </c>
       <c r="F78">
-        <v>19363913000</v>
+        <v>18253224800</v>
       </c>
       <c r="G78">
         <v>719241000</v>
@@ -4278,13 +4278,13 @@
         <v>6521000</v>
       </c>
       <c r="I78">
-        <v>103057962000</v>
+        <v>85600237200</v>
       </c>
       <c r="J78" t="str">
         <v>2023-01-12T13:14:00.000Z</v>
       </c>
       <c r="K78">
-        <v>3258688790000</v>
+        <v>2999495243000</v>
       </c>
       <c r="L78">
         <v>183718000</v>
@@ -4293,13 +4293,13 @@
         <v>-4234700</v>
       </c>
       <c r="N78">
-        <v>-63610895000</v>
+        <v>-48374546600</v>
       </c>
       <c r="O78">
         <v>-19880900</v>
       </c>
       <c r="P78">
-        <v>-214053231000</v>
+        <v>-220591086600</v>
       </c>
     </row>
     <row r="79">
@@ -4316,10 +4316,10 @@
         <v>25300</v>
       </c>
       <c r="E79">
-        <v>50810079000</v>
+        <v>44141554200</v>
       </c>
       <c r="F79">
-        <v>26378994000</v>
+        <v>24603171600</v>
       </c>
       <c r="G79">
         <v>370345000</v>
@@ -4328,13 +4328,13 @@
         <v>4504700</v>
       </c>
       <c r="I79">
-        <v>77559418000</v>
+        <v>69115070800</v>
       </c>
       <c r="J79" t="str">
         <v>2023-01-12T13:16:00.000Z</v>
       </c>
       <c r="K79">
-        <v>3336248208000</v>
+        <v>3068610313800</v>
       </c>
       <c r="L79">
         <v>188222700</v>
@@ -4343,13 +4343,13 @@
         <v>-1621800</v>
       </c>
       <c r="N79">
-        <v>-24431085000</v>
+        <v>-19538382600</v>
       </c>
       <c r="O79">
         <v>-21502700</v>
       </c>
       <c r="P79">
-        <v>-238484316000</v>
+        <v>-240129469200</v>
       </c>
     </row>
     <row r="80">
@@ -4366,25 +4366,25 @@
         <v>6800</v>
       </c>
       <c r="E80">
-        <v>33013455000</v>
+        <v>29350022100</v>
       </c>
       <c r="F80">
-        <v>41812226000</v>
+        <v>36547096400</v>
       </c>
       <c r="G80">
-        <v>89593000</v>
+        <v>80602000</v>
       </c>
       <c r="H80">
         <v>4605300</v>
       </c>
       <c r="I80">
-        <v>74915274000</v>
+        <v>65977720500</v>
       </c>
       <c r="J80" t="str">
         <v>2023-01-12T13:18:00.000Z</v>
       </c>
       <c r="K80">
-        <v>3411163482000</v>
+        <v>3134588034300</v>
       </c>
       <c r="L80">
         <v>192828000</v>
@@ -4393,13 +4393,13 @@
         <v>298100</v>
       </c>
       <c r="N80">
-        <v>8798771000</v>
+        <v>7197074300</v>
       </c>
       <c r="O80">
         <v>-21204600</v>
       </c>
       <c r="P80">
-        <v>-229685545000</v>
+        <v>-232932394900</v>
       </c>
     </row>
     <row r="81">
@@ -4416,10 +4416,10 @@
         <v>11900</v>
       </c>
       <c r="E81">
-        <v>16082062000</v>
+        <v>14329915900</v>
       </c>
       <c r="F81">
-        <v>42105387000</v>
+        <v>34331868300</v>
       </c>
       <c r="G81">
         <v>161959000</v>
@@ -4428,13 +4428,13 @@
         <v>3527800</v>
       </c>
       <c r="I81">
-        <v>58349408000</v>
+        <v>48823743200</v>
       </c>
       <c r="J81" t="str">
         <v>2023-01-12T13:20:00.000Z</v>
       </c>
       <c r="K81">
-        <v>3469512890000</v>
+        <v>3183411777500</v>
       </c>
       <c r="L81">
         <v>196355800</v>
@@ -4443,13 +4443,13 @@
         <v>1526100</v>
       </c>
       <c r="N81">
-        <v>26023325000</v>
+        <v>20001952400</v>
       </c>
       <c r="O81">
         <v>-19678500</v>
       </c>
       <c r="P81">
-        <v>-203662220000</v>
+        <v>-212930442500</v>
       </c>
     </row>
     <row r="82">
@@ -4466,10 +4466,10 @@
         <v>34600</v>
       </c>
       <c r="E82">
-        <v>21913856000</v>
+        <v>18381591800</v>
       </c>
       <c r="F82">
-        <v>42977225000</v>
+        <v>41109095000</v>
       </c>
       <c r="G82">
         <v>232642000</v>
@@ -4478,13 +4478,13 @@
         <v>3733900</v>
       </c>
       <c r="I82">
-        <v>65123723000</v>
+        <v>59723328800</v>
       </c>
       <c r="J82" t="str">
         <v>2023-01-12T13:22:00.000Z</v>
       </c>
       <c r="K82">
-        <v>3534636613000</v>
+        <v>3243135106300</v>
       </c>
       <c r="L82">
         <v>200089700</v>
@@ -4493,13 +4493,13 @@
         <v>1338500</v>
       </c>
       <c r="N82">
-        <v>21063369000</v>
+        <v>22727503200</v>
       </c>
       <c r="O82">
         <v>-18340000</v>
       </c>
       <c r="P82">
-        <v>-182598851000</v>
+        <v>-190202939300</v>
       </c>
     </row>
     <row r="83">
@@ -4516,25 +4516,25 @@
         <v>22200</v>
       </c>
       <c r="E83">
-        <v>32438962000</v>
+        <v>27861544000</v>
       </c>
       <c r="F83">
-        <v>48375421000</v>
+        <v>41228375200</v>
       </c>
       <c r="G83">
-        <v>407101000</v>
+        <v>390917200</v>
       </c>
       <c r="H83">
         <v>4818900</v>
       </c>
       <c r="I83">
-        <v>81221484000</v>
+        <v>69480836400</v>
       </c>
       <c r="J83" t="str">
         <v>2023-01-12T13:24:00.000Z</v>
       </c>
       <c r="K83">
-        <v>3615858097000</v>
+        <v>3312615942700</v>
       </c>
       <c r="L83">
         <v>204908600</v>
@@ -4543,13 +4543,13 @@
         <v>1359500</v>
       </c>
       <c r="N83">
-        <v>15936459000</v>
+        <v>13366831200</v>
       </c>
       <c r="O83">
         <v>-16980500</v>
       </c>
       <c r="P83">
-        <v>-166662392000</v>
+        <v>-176836108100</v>
       </c>
     </row>
     <row r="84">
@@ -4566,25 +4566,25 @@
         <v>22500</v>
       </c>
       <c r="E84">
-        <v>35466568000</v>
+        <v>30710728600</v>
       </c>
       <c r="F84">
-        <v>43424012000</v>
+        <v>39880059500</v>
       </c>
       <c r="G84">
-        <v>476695000</v>
+        <v>322948900</v>
       </c>
       <c r="H84">
         <v>4951700</v>
       </c>
       <c r="I84">
-        <v>79367275000</v>
+        <v>70913737000</v>
       </c>
       <c r="J84" t="str">
         <v>2023-01-12T13:26:00.000Z</v>
       </c>
       <c r="K84">
-        <v>3695225372000</v>
+        <v>3383529679700</v>
       </c>
       <c r="L84">
         <v>209860300</v>
@@ -4593,13 +4593,13 @@
         <v>263800</v>
       </c>
       <c r="N84">
-        <v>7957444000</v>
+        <v>9169330900</v>
       </c>
       <c r="O84">
         <v>-16716700</v>
       </c>
       <c r="P84">
-        <v>-158704948000</v>
+        <v>-167666777200</v>
       </c>
     </row>
     <row r="85">
@@ -4616,10 +4616,10 @@
         <v>93300</v>
       </c>
       <c r="E85">
-        <v>24160813000</v>
+        <v>20925751300</v>
       </c>
       <c r="F85">
-        <v>36304796000</v>
+        <v>28862945300</v>
       </c>
       <c r="G85">
         <v>1380299000</v>
@@ -4628,13 +4628,13 @@
         <v>3413200</v>
       </c>
       <c r="I85">
-        <v>61845908000</v>
+        <v>51168995600</v>
       </c>
       <c r="J85" t="str">
         <v>2023-01-12T13:28:00.000Z</v>
       </c>
       <c r="K85">
-        <v>3757071280000</v>
+        <v>3434698675300</v>
       </c>
       <c r="L85">
         <v>213273500</v>
@@ -4643,13 +4643,13 @@
         <v>498300</v>
       </c>
       <c r="N85">
-        <v>12143983000</v>
+        <v>7937194000</v>
       </c>
       <c r="O85">
         <v>-16218400</v>
       </c>
       <c r="P85">
-        <v>-146560965000</v>
+        <v>-159729583200</v>
       </c>
     </row>
     <row r="86">
@@ -4666,10 +4666,10 @@
         <v>42100</v>
       </c>
       <c r="E86">
-        <v>29721853000</v>
+        <v>28122653800</v>
       </c>
       <c r="F86">
-        <v>34170648000</v>
+        <v>31556964300</v>
       </c>
       <c r="G86">
         <v>855382000</v>
@@ -4678,13 +4678,13 @@
         <v>3597600</v>
       </c>
       <c r="I86">
-        <v>64747883000</v>
+        <v>60535000100</v>
       </c>
       <c r="J86" t="str">
         <v>2023-01-12T13:30:00.000Z</v>
       </c>
       <c r="K86">
-        <v>3821819163000</v>
+        <v>3495233675400</v>
       </c>
       <c r="L86">
         <v>216871100</v>
@@ -4693,13 +4693,13 @@
         <v>75700</v>
       </c>
       <c r="N86">
-        <v>4448795000</v>
+        <v>3434310500</v>
       </c>
       <c r="O86">
         <v>-16142700</v>
       </c>
       <c r="P86">
-        <v>-142112170000</v>
+        <v>-156295272700</v>
       </c>
     </row>
     <row r="87">
@@ -4716,25 +4716,25 @@
         <v>9400</v>
       </c>
       <c r="E87">
-        <v>47934107000</v>
+        <v>44045199800</v>
       </c>
       <c r="F87">
-        <v>18455121000</v>
+        <v>16324154100</v>
       </c>
       <c r="G87">
-        <v>127107000</v>
+        <v>103131000</v>
       </c>
       <c r="H87">
         <v>3525200</v>
       </c>
       <c r="I87">
-        <v>66516335000</v>
+        <v>60472484900</v>
       </c>
       <c r="J87" t="str">
         <v>2023-01-12T13:32:00.000Z</v>
       </c>
       <c r="K87">
-        <v>3888335498000</v>
+        <v>3555706160300</v>
       </c>
       <c r="L87">
         <v>220396300</v>
@@ -4743,13 +4743,13 @@
         <v>-1601800</v>
       </c>
       <c r="N87">
-        <v>-29478986000</v>
+        <v>-27721045700</v>
       </c>
       <c r="O87">
         <v>-17744500</v>
       </c>
       <c r="P87">
-        <v>-171591156000</v>
+        <v>-184016318400</v>
       </c>
     </row>
     <row r="88">
@@ -4766,10 +4766,10 @@
         <v>11700</v>
       </c>
       <c r="E88">
-        <v>54616850000</v>
+        <v>51791578100</v>
       </c>
       <c r="F88">
-        <v>24167632000</v>
+        <v>18611194000</v>
       </c>
       <c r="G88">
         <v>206100000</v>
@@ -4778,13 +4778,13 @@
         <v>4451000</v>
       </c>
       <c r="I88">
-        <v>78990582000</v>
+        <v>70608872100</v>
       </c>
       <c r="J88" t="str">
         <v>2023-01-12T13:34:00.000Z</v>
       </c>
       <c r="K88">
-        <v>3967326080000</v>
+        <v>3626315032400</v>
       </c>
       <c r="L88">
         <v>224847300</v>
@@ -4793,13 +4793,13 @@
         <v>-1692500</v>
       </c>
       <c r="N88">
-        <v>-30449218000</v>
+        <v>-33180384100</v>
       </c>
       <c r="O88">
         <v>-19437000</v>
       </c>
       <c r="P88">
-        <v>-202040374000</v>
+        <v>-217196702500</v>
       </c>
     </row>
     <row r="89">
@@ -4816,10 +4816,10 @@
         <v>36300</v>
       </c>
       <c r="E89">
-        <v>42721021000</v>
+        <v>34028622100</v>
       </c>
       <c r="F89">
-        <v>26138985000</v>
+        <v>23547878700</v>
       </c>
       <c r="G89">
         <v>381346000</v>
@@ -4828,13 +4828,13 @@
         <v>3976100</v>
       </c>
       <c r="I89">
-        <v>69241352000</v>
+        <v>57957846800</v>
       </c>
       <c r="J89" t="str">
         <v>2023-01-12T13:36:00.000Z</v>
       </c>
       <c r="K89">
-        <v>4036567432000</v>
+        <v>3684272879200</v>
       </c>
       <c r="L89">
         <v>228823400</v>
@@ -4843,13 +4843,13 @@
         <v>-633000</v>
       </c>
       <c r="N89">
-        <v>-16582036000</v>
+        <v>-10480743400</v>
       </c>
       <c r="O89">
         <v>-20070000</v>
       </c>
       <c r="P89">
-        <v>-218622410000</v>
+        <v>-227677445900</v>
       </c>
     </row>
     <row r="90">
@@ -4866,10 +4866,10 @@
         <v>25900</v>
       </c>
       <c r="E90">
-        <v>49368211000</v>
+        <v>46732449400</v>
       </c>
       <c r="F90">
-        <v>17583943000</v>
+        <v>16931196400</v>
       </c>
       <c r="G90">
         <v>370059000</v>
@@ -4878,13 +4878,13 @@
         <v>4040500</v>
       </c>
       <c r="I90">
-        <v>67322213000</v>
+        <v>64033704800</v>
       </c>
       <c r="J90" t="str">
         <v>2023-01-12T13:38:00.000Z</v>
       </c>
       <c r="K90">
-        <v>4103889645000</v>
+        <v>3748306584000</v>
       </c>
       <c r="L90">
         <v>232863900</v>
@@ -4893,13 +4893,13 @@
         <v>-1765400</v>
       </c>
       <c r="N90">
-        <v>-31784268000</v>
+        <v>-29801253000</v>
       </c>
       <c r="O90">
         <v>-21835400</v>
       </c>
       <c r="P90">
-        <v>-250406678000</v>
+        <v>-257478698900</v>
       </c>
     </row>
     <row r="91">
@@ -4916,10 +4916,10 @@
         <v>13100</v>
       </c>
       <c r="E91">
-        <v>37586711000</v>
+        <v>32639463200</v>
       </c>
       <c r="F91">
-        <v>18720927000</v>
+        <v>17076373200</v>
       </c>
       <c r="G91">
         <v>227925000</v>
@@ -4928,13 +4928,13 @@
         <v>3239200</v>
       </c>
       <c r="I91">
-        <v>56535563000</v>
+        <v>49943761400</v>
       </c>
       <c r="J91" t="str">
         <v>2023-01-12T13:40:00.000Z</v>
       </c>
       <c r="K91">
-        <v>4160425208000</v>
+        <v>3798250345400</v>
       </c>
       <c r="L91">
         <v>236103100</v>
@@ -4943,13 +4943,13 @@
         <v>-1132900</v>
       </c>
       <c r="N91">
-        <v>-18865784000</v>
+        <v>-15563090000</v>
       </c>
       <c r="O91">
         <v>-22968300</v>
       </c>
       <c r="P91">
-        <v>-269272462000</v>
+        <v>-273041788900</v>
       </c>
     </row>
     <row r="92">
@@ -4966,25 +4966,25 @@
         <v>9300</v>
       </c>
       <c r="E92">
-        <v>26779362000</v>
+        <v>23963380800</v>
       </c>
       <c r="F92">
-        <v>27918408000</v>
+        <v>26212715400</v>
       </c>
       <c r="G92">
-        <v>316674000</v>
+        <v>42548400</v>
       </c>
       <c r="H92">
         <v>3117500</v>
       </c>
       <c r="I92">
-        <v>55014444000</v>
+        <v>50218644600</v>
       </c>
       <c r="J92" t="str">
         <v>2023-01-12T13:42:00.000Z</v>
       </c>
       <c r="K92">
-        <v>4215439652000</v>
+        <v>3848468990000</v>
       </c>
       <c r="L92">
         <v>239220600</v>
@@ -4993,13 +4993,13 @@
         <v>108800</v>
       </c>
       <c r="N92">
-        <v>1139046000</v>
+        <v>2249334600</v>
       </c>
       <c r="O92">
         <v>-22859500</v>
       </c>
       <c r="P92">
-        <v>-268133416000</v>
+        <v>-270792454300</v>
       </c>
     </row>
     <row r="93">
@@ -5016,25 +5016,25 @@
         <v>3500</v>
       </c>
       <c r="E93">
-        <v>24796527000</v>
+        <v>23876747700</v>
       </c>
       <c r="F93">
-        <v>26983815000</v>
+        <v>25045155600</v>
       </c>
       <c r="G93">
-        <v>65202000</v>
+        <v>53713500</v>
       </c>
       <c r="H93">
         <v>2828700</v>
       </c>
       <c r="I93">
-        <v>51845544000</v>
+        <v>48975616800</v>
       </c>
       <c r="J93" t="str">
         <v>2023-01-12T13:44:00.000Z</v>
       </c>
       <c r="K93">
-        <v>4267285196000</v>
+        <v>3897444606800</v>
       </c>
       <c r="L93">
         <v>242049300</v>
@@ -5043,13 +5043,13 @@
         <v>10400</v>
       </c>
       <c r="N93">
-        <v>2187288000</v>
+        <v>1168407900</v>
       </c>
       <c r="O93">
         <v>-22849100</v>
       </c>
       <c r="P93">
-        <v>-265946128000</v>
+        <v>-269624046400</v>
       </c>
     </row>
     <row r="94">
@@ -5066,10 +5066,10 @@
         <v>20500</v>
       </c>
       <c r="E94">
-        <v>40723791000</v>
+        <v>39031784700</v>
       </c>
       <c r="F94">
-        <v>16938058000</v>
+        <v>16015081900</v>
       </c>
       <c r="G94">
         <v>401869000</v>
@@ -5078,13 +5078,13 @@
         <v>3073700</v>
       </c>
       <c r="I94">
-        <v>58063718000</v>
+        <v>55448735600</v>
       </c>
       <c r="J94" t="str">
         <v>2023-01-12T13:46:00.000Z</v>
       </c>
       <c r="K94">
-        <v>4325348914000</v>
+        <v>3952893342400</v>
       </c>
       <c r="L94">
         <v>245123000</v>
@@ -5093,13 +5093,13 @@
         <v>-974800</v>
       </c>
       <c r="N94">
-        <v>-23785733000</v>
+        <v>-23016702800</v>
       </c>
       <c r="O94">
         <v>-23823900</v>
       </c>
       <c r="P94">
-        <v>-289731861000</v>
+        <v>-292640749200</v>
       </c>
     </row>
     <row r="95">
@@ -5116,10 +5116,10 @@
         <v>52400</v>
       </c>
       <c r="E95">
-        <v>58719584000</v>
+        <v>54437670200</v>
       </c>
       <c r="F95">
-        <v>17518089000</v>
+        <v>16618789200</v>
       </c>
       <c r="G95">
         <v>1794359000</v>
@@ -5128,13 +5128,13 @@
         <v>4448800</v>
       </c>
       <c r="I95">
-        <v>78032032000</v>
+        <v>72850818400</v>
       </c>
       <c r="J95" t="str">
         <v>2023-01-12T13:48:00.000Z</v>
       </c>
       <c r="K95">
-        <v>4403380946000</v>
+        <v>4025744160800</v>
       </c>
       <c r="L95">
         <v>249571800</v>
@@ -5143,13 +5143,13 @@
         <v>-2650800</v>
       </c>
       <c r="N95">
-        <v>-41201495000</v>
+        <v>-37818881000</v>
       </c>
       <c r="O95">
         <v>-26474700</v>
       </c>
       <c r="P95">
-        <v>-330933356000</v>
+        <v>-330459630200</v>
       </c>
     </row>
     <row r="96">
@@ -5166,10 +5166,10 @@
         <v>24800</v>
       </c>
       <c r="E96">
-        <v>34046280000</v>
+        <v>31093335900</v>
       </c>
       <c r="F96">
-        <v>23098884000</v>
+        <v>22038945000</v>
       </c>
       <c r="G96">
         <v>341493000</v>
@@ -5178,13 +5178,13 @@
         <v>3518300</v>
       </c>
       <c r="I96">
-        <v>57486657000</v>
+        <v>53473773900</v>
       </c>
       <c r="J96" t="str">
         <v>2023-01-12T13:50:00.000Z</v>
       </c>
       <c r="K96">
-        <v>4460867603000</v>
+        <v>4079217934700</v>
       </c>
       <c r="L96">
         <v>253090100</v>
@@ -5193,13 +5193,13 @@
         <v>-470300</v>
       </c>
       <c r="N96">
-        <v>-10947396000</v>
+        <v>-9054390900</v>
       </c>
       <c r="O96">
         <v>-26945000</v>
       </c>
       <c r="P96">
-        <v>-341880752000</v>
+        <v>-339514021100</v>
       </c>
     </row>
     <row r="97">
@@ -5216,25 +5216,25 @@
         <v>19000</v>
       </c>
       <c r="E97">
-        <v>22693558000</v>
+        <v>19636018600</v>
       </c>
       <c r="F97">
-        <v>37896956000</v>
+        <v>30051109700</v>
       </c>
       <c r="G97">
-        <v>567130000</v>
+        <v>530167000</v>
       </c>
       <c r="H97">
         <v>3456800</v>
       </c>
       <c r="I97">
-        <v>61157644000</v>
+        <v>50217295300</v>
       </c>
       <c r="J97" t="str">
         <v>2023-01-12T13:52:00.000Z</v>
       </c>
       <c r="K97">
-        <v>4522025247000</v>
+        <v>4129435230000</v>
       </c>
       <c r="L97">
         <v>256546900</v>
@@ -5243,13 +5243,13 @@
         <v>892800</v>
       </c>
       <c r="N97">
-        <v>15203398000</v>
+        <v>10415091100</v>
       </c>
       <c r="O97">
         <v>-26052200</v>
       </c>
       <c r="P97">
-        <v>-326677354000</v>
+        <v>-329098930000</v>
       </c>
     </row>
     <row r="98">
@@ -5266,10 +5266,10 @@
         <v>4900</v>
       </c>
       <c r="E98">
-        <v>23808450000</v>
+        <v>22473586200</v>
       </c>
       <c r="F98">
-        <v>62290008000</v>
+        <v>55211893200</v>
       </c>
       <c r="G98">
         <v>130538000</v>
@@ -5278,13 +5278,13 @@
         <v>5320800</v>
       </c>
       <c r="I98">
-        <v>86228996000</v>
+        <v>77816017400</v>
       </c>
       <c r="J98" t="str">
         <v>2023-01-12T13:54:00.000Z</v>
       </c>
       <c r="K98">
-        <v>4608254243000</v>
+        <v>4207251247400</v>
       </c>
       <c r="L98">
         <v>261867700</v>
@@ -5293,13 +5293,13 @@
         <v>2654700</v>
       </c>
       <c r="N98">
-        <v>38481558000</v>
+        <v>32738307000</v>
       </c>
       <c r="O98">
         <v>-23397500</v>
       </c>
       <c r="P98">
-        <v>-288195796000</v>
+        <v>-296360623000</v>
       </c>
     </row>
     <row r="99">
@@ -5316,25 +5316,25 @@
         <v>39600</v>
       </c>
       <c r="E99">
-        <v>23594298000</v>
+        <v>20669525700</v>
       </c>
       <c r="F99">
-        <v>78091831000</v>
+        <v>70370659900</v>
       </c>
       <c r="G99">
-        <v>592866000</v>
+        <v>562596300</v>
       </c>
       <c r="H99">
         <v>6450900</v>
       </c>
       <c r="I99">
-        <v>102278995000</v>
+        <v>91602781900</v>
       </c>
       <c r="J99" t="str">
         <v>2023-01-12T13:56:00.000Z</v>
       </c>
       <c r="K99">
-        <v>4710533238000</v>
+        <v>4298854029300</v>
       </c>
       <c r="L99">
         <v>268318600</v>
@@ -5343,13 +5343,13 @@
         <v>3410900</v>
       </c>
       <c r="N99">
-        <v>54497533000</v>
+        <v>49701134200</v>
       </c>
       <c r="O99">
         <v>-19986600</v>
       </c>
       <c r="P99">
-        <v>-233698263000</v>
+        <v>-246659488800</v>
       </c>
     </row>
     <row r="100">
@@ -5366,10 +5366,10 @@
         <v>41500</v>
       </c>
       <c r="E100">
-        <v>29396615000</v>
+        <v>28321990700</v>
       </c>
       <c r="F100">
-        <v>74843005000</v>
+        <v>67401354100</v>
       </c>
       <c r="G100">
         <v>561559000</v>
@@ -5378,13 +5378,13 @@
         <v>7036700</v>
       </c>
       <c r="I100">
-        <v>104801179000</v>
+        <v>96284903800</v>
       </c>
       <c r="J100" t="str">
         <v>2023-01-12T13:58:00.000Z</v>
       </c>
       <c r="K100">
-        <v>4815334417000</v>
+        <v>4395138933100</v>
       </c>
       <c r="L100">
         <v>275355300</v>
@@ -5393,13 +5393,13 @@
         <v>2369200</v>
       </c>
       <c r="N100">
-        <v>45446390000</v>
+        <v>39079363400</v>
       </c>
       <c r="O100">
         <v>-17617400</v>
       </c>
       <c r="P100">
-        <v>-188251873000</v>
+        <v>-207580125400</v>
       </c>
     </row>
     <row r="101">
@@ -5416,25 +5416,25 @@
         <v>24700</v>
       </c>
       <c r="E101">
-        <v>23211577000</v>
+        <v>22333256200</v>
       </c>
       <c r="F101">
-        <v>90311100000</v>
+        <v>85742473200</v>
       </c>
       <c r="G101">
-        <v>537311000</v>
+        <v>532615700</v>
       </c>
       <c r="H101">
         <v>7174800</v>
       </c>
       <c r="I101">
-        <v>114059988000</v>
+        <v>108608345100</v>
       </c>
       <c r="J101" t="str">
         <v>2023-01-12T14:00:00.000Z</v>
       </c>
       <c r="K101">
-        <v>4929394405000</v>
+        <v>4503747278200</v>
       </c>
       <c r="L101">
         <v>282530100</v>
@@ -5443,13 +5443,13 @@
         <v>3739900</v>
       </c>
       <c r="N101">
-        <v>67099523000</v>
+        <v>63409217000</v>
       </c>
       <c r="O101">
         <v>-13877500</v>
       </c>
       <c r="P101">
-        <v>-121152350000</v>
+        <v>-144170908400</v>
       </c>
     </row>
     <row r="102">
@@ -5466,10 +5466,10 @@
         <v>22000</v>
       </c>
       <c r="E102">
-        <v>37299994000</v>
+        <v>36095999200</v>
       </c>
       <c r="F102">
-        <v>51114002000</v>
+        <v>50435780900</v>
       </c>
       <c r="G102">
         <v>555975000</v>
@@ -5478,13 +5478,13 @@
         <v>5586500</v>
       </c>
       <c r="I102">
-        <v>88969971000</v>
+        <v>87087755100</v>
       </c>
       <c r="J102" t="str">
         <v>2023-01-12T14:02:00.000Z</v>
       </c>
       <c r="K102">
-        <v>5018364376000</v>
+        <v>4590835033300</v>
       </c>
       <c r="L102">
         <v>288116600</v>
@@ -5493,13 +5493,13 @@
         <v>482300</v>
       </c>
       <c r="N102">
-        <v>13814008000</v>
+        <v>14339781700</v>
       </c>
       <c r="O102">
         <v>-13395200</v>
       </c>
       <c r="P102">
-        <v>-107338342000</v>
+        <v>-129831126700</v>
       </c>
     </row>
     <row r="103">
@@ -5516,25 +5516,25 @@
         <v>21400</v>
       </c>
       <c r="E103">
-        <v>47395900000</v>
+        <v>43443756100</v>
       </c>
       <c r="F103">
-        <v>31552454000</v>
+        <v>29629978400</v>
       </c>
       <c r="G103">
-        <v>345022000</v>
+        <v>227140000</v>
       </c>
       <c r="H103">
         <v>4440700</v>
       </c>
       <c r="I103">
-        <v>79293376000</v>
+        <v>73300874500</v>
       </c>
       <c r="J103" t="str">
         <v>2023-01-12T14:04:00.000Z</v>
       </c>
       <c r="K103">
-        <v>5097657752000</v>
+        <v>4664135907800</v>
       </c>
       <c r="L103">
         <v>292557300</v>
@@ -5543,13 +5543,13 @@
         <v>-1137300</v>
       </c>
       <c r="N103">
-        <v>-15843446000</v>
+        <v>-13813777700</v>
       </c>
       <c r="O103">
         <v>-14532500</v>
       </c>
       <c r="P103">
-        <v>-123181788000</v>
+        <v>-143644904400</v>
       </c>
     </row>
     <row r="104">
@@ -5566,10 +5566,10 @@
         <v>35600</v>
       </c>
       <c r="E104">
-        <v>36101448000</v>
+        <v>33807943800</v>
       </c>
       <c r="F104">
-        <v>25085361000</v>
+        <v>22269679500</v>
       </c>
       <c r="G104">
         <v>1113539000</v>
@@ -5578,13 +5578,13 @@
         <v>3637400</v>
       </c>
       <c r="I104">
-        <v>62300348000</v>
+        <v>57191162300</v>
       </c>
       <c r="J104" t="str">
         <v>2023-01-12T14:06:00.000Z</v>
       </c>
       <c r="K104">
-        <v>5159958100000</v>
+        <v>4721327070100</v>
       </c>
       <c r="L104">
         <v>296194700</v>
@@ -5593,13 +5593,13 @@
         <v>-666200</v>
       </c>
       <c r="N104">
-        <v>-11016087000</v>
+        <v>-11538264300</v>
       </c>
       <c r="O104">
         <v>-15198700</v>
       </c>
       <c r="P104">
-        <v>-134197875000</v>
+        <v>-155183168700</v>
       </c>
     </row>
     <row r="105">
@@ -5616,25 +5616,25 @@
         <v>6900</v>
       </c>
       <c r="E105">
-        <v>30521964000</v>
+        <v>29256630600</v>
       </c>
       <c r="F105">
-        <v>15640353000</v>
+        <v>14409684900</v>
       </c>
       <c r="G105">
-        <v>167580000</v>
+        <v>118329300</v>
       </c>
       <c r="H105">
         <v>3002400</v>
       </c>
       <c r="I105">
-        <v>46329897000</v>
+        <v>43784644800</v>
       </c>
       <c r="J105" t="str">
         <v>2023-01-12T14:08:00.000Z</v>
       </c>
       <c r="K105">
-        <v>5206287997000</v>
+        <v>4765111714900</v>
       </c>
       <c r="L105">
         <v>299197100</v>
@@ -5643,13 +5643,13 @@
         <v>-1092900</v>
       </c>
       <c r="N105">
-        <v>-14881611000</v>
+        <v>-14846945700</v>
       </c>
       <c r="O105">
         <v>-16291600</v>
       </c>
       <c r="P105">
-        <v>-149079486000</v>
+        <v>-170030114400</v>
       </c>
     </row>
     <row r="106">
@@ -5666,10 +5666,10 @@
         <v>14400</v>
       </c>
       <c r="E106">
-        <v>22550878000</v>
+        <v>21629999800</v>
       </c>
       <c r="F106">
-        <v>18973644000</v>
+        <v>17949169500</v>
       </c>
       <c r="G106">
         <v>239833000</v>
@@ -5678,13 +5678,13 @@
         <v>2191000</v>
       </c>
       <c r="I106">
-        <v>41764355000</v>
+        <v>39819002300</v>
       </c>
       <c r="J106" t="str">
         <v>2023-01-12T14:10:00.000Z</v>
       </c>
       <c r="K106">
-        <v>5248052352000</v>
+        <v>4804930717200</v>
       </c>
       <c r="L106">
         <v>301388100</v>
@@ -5693,13 +5693,13 @@
         <v>-507400</v>
       </c>
       <c r="N106">
-        <v>-3577234000</v>
+        <v>-3680830300</v>
       </c>
       <c r="O106">
         <v>-16799000</v>
       </c>
       <c r="P106">
-        <v>-152656720000</v>
+        <v>-173710944700</v>
       </c>
     </row>
     <row r="107">
@@ -5716,10 +5716,10 @@
         <v>40700</v>
       </c>
       <c r="E107">
-        <v>53637196000</v>
+        <v>44831610400</v>
       </c>
       <c r="F107">
-        <v>20288124000</v>
+        <v>19245767400</v>
       </c>
       <c r="G107">
         <v>546995000</v>
@@ -5728,13 +5728,13 @@
         <v>4032300</v>
       </c>
       <c r="I107">
-        <v>74472315000</v>
+        <v>64624372800</v>
       </c>
       <c r="J107" t="str">
         <v>2023-01-12T14:12:00.000Z</v>
       </c>
       <c r="K107">
-        <v>5322524667000</v>
+        <v>4869555090000</v>
       </c>
       <c r="L107">
         <v>305420400</v>
@@ -5743,13 +5743,13 @@
         <v>-1601400</v>
       </c>
       <c r="N107">
-        <v>-33349072000</v>
+        <v>-25585843000</v>
       </c>
       <c r="O107">
         <v>-18400400</v>
       </c>
       <c r="P107">
-        <v>-186005792000</v>
+        <v>-199296787700</v>
       </c>
     </row>
     <row r="108">
@@ -5766,25 +5766,25 @@
         <v>105500</v>
       </c>
       <c r="E108">
-        <v>86658241000</v>
+        <v>78752155000</v>
       </c>
       <c r="F108">
-        <v>27436633000</v>
+        <v>25771399900</v>
       </c>
       <c r="G108">
-        <v>2314983000</v>
+        <v>1613285400</v>
       </c>
       <c r="H108">
         <v>6614300</v>
       </c>
       <c r="I108">
-        <v>116409857000</v>
+        <v>106136840300</v>
       </c>
       <c r="J108" t="str">
         <v>2023-01-12T14:14:00.000Z</v>
       </c>
       <c r="K108">
-        <v>5438934524000</v>
+        <v>4975691930300</v>
       </c>
       <c r="L108">
         <v>312034700</v>
@@ -5793,13 +5793,13 @@
         <v>-3470800</v>
       </c>
       <c r="N108">
-        <v>-59221608000</v>
+        <v>-52980755100</v>
       </c>
       <c r="O108">
         <v>-21871200</v>
       </c>
       <c r="P108">
-        <v>-245227400000</v>
+        <v>-252277542800</v>
       </c>
     </row>
     <row r="109">
@@ -5816,25 +5816,25 @@
         <v>40100</v>
       </c>
       <c r="E109">
-        <v>40108854000</v>
+        <v>35378688900</v>
       </c>
       <c r="F109">
-        <v>40988891000</v>
+        <v>27379314200</v>
       </c>
       <c r="G109">
-        <v>698113000</v>
+        <v>166645000</v>
       </c>
       <c r="H109">
         <v>4287300</v>
       </c>
       <c r="I109">
-        <v>81795858000</v>
+        <v>62924648100</v>
       </c>
       <c r="J109" t="str">
         <v>2023-01-12T14:16:00.000Z</v>
       </c>
       <c r="K109">
-        <v>5520730382000</v>
+        <v>5038616578400</v>
       </c>
       <c r="L109">
         <v>316322000</v>
@@ -5843,13 +5843,13 @@
         <v>14200</v>
       </c>
       <c r="N109">
-        <v>880037000</v>
+        <v>-7999374700</v>
       </c>
       <c r="O109">
         <v>-21857000</v>
       </c>
       <c r="P109">
-        <v>-244347363000</v>
+        <v>-260276917500</v>
       </c>
     </row>
     <row r="110">
@@ -5866,25 +5866,25 @@
         <v>17700</v>
       </c>
       <c r="E110">
-        <v>31207650000</v>
+        <v>22282983600</v>
       </c>
       <c r="F110">
-        <v>48344126000</v>
+        <v>41231845400</v>
       </c>
       <c r="G110">
-        <v>244742000</v>
+        <v>242943800</v>
       </c>
       <c r="H110">
         <v>4380500</v>
       </c>
       <c r="I110">
-        <v>79796518000</v>
+        <v>63757772800</v>
       </c>
       <c r="J110" t="str">
         <v>2023-01-12T14:18:00.000Z</v>
       </c>
       <c r="K110">
-        <v>5600526900000</v>
+        <v>5102374351200</v>
       </c>
       <c r="L110">
         <v>320702500</v>
@@ -5893,13 +5893,13 @@
         <v>755200</v>
       </c>
       <c r="N110">
-        <v>17136476000</v>
+        <v>18948861800</v>
       </c>
       <c r="O110">
         <v>-21101800</v>
       </c>
       <c r="P110">
-        <v>-227210887000</v>
+        <v>-241328055700</v>
       </c>
     </row>
     <row r="111">
@@ -5916,10 +5916,10 @@
         <v>10700</v>
       </c>
       <c r="E111">
-        <v>23268127000</v>
+        <v>18139660600</v>
       </c>
       <c r="F111">
-        <v>66961233000</v>
+        <v>61785014400</v>
       </c>
       <c r="G111">
         <v>319260000</v>
@@ -5928,13 +5928,13 @@
         <v>4789800</v>
       </c>
       <c r="I111">
-        <v>90548620000</v>
+        <v>80243935000</v>
       </c>
       <c r="J111" t="str">
         <v>2023-01-12T14:20:00.000Z</v>
       </c>
       <c r="K111">
-        <v>5691075520000</v>
+        <v>5182618286200</v>
       </c>
       <c r="L111">
         <v>325492300</v>
@@ -5943,13 +5943,13 @@
         <v>2388300</v>
       </c>
       <c r="N111">
-        <v>43693106000</v>
+        <v>43645353800</v>
       </c>
       <c r="O111">
         <v>-18713500</v>
       </c>
       <c r="P111">
-        <v>-183517781000</v>
+        <v>-197682701900</v>
       </c>
     </row>
     <row r="112">
@@ -5966,10 +5966,10 @@
         <v>8000</v>
       </c>
       <c r="E112">
-        <v>25855910000</v>
+        <v>23017151600</v>
       </c>
       <c r="F112">
-        <v>48290724000</v>
+        <v>41764257000</v>
       </c>
       <c r="G112">
         <v>99252000</v>
@@ -5978,13 +5978,13 @@
         <v>4039700</v>
       </c>
       <c r="I112">
-        <v>74245886000</v>
+        <v>64880660600</v>
       </c>
       <c r="J112" t="str">
         <v>2023-01-12T14:22:00.000Z</v>
       </c>
       <c r="K112">
-        <v>5765321406000</v>
+        <v>5247498946800</v>
       </c>
       <c r="L112">
         <v>329532000</v>
@@ -5993,13 +5993,13 @@
         <v>1095100</v>
       </c>
       <c r="N112">
-        <v>22434814000</v>
+        <v>18747105400</v>
       </c>
       <c r="O112">
         <v>-17618400</v>
       </c>
       <c r="P112">
-        <v>-161082967000</v>
+        <v>-178935596500</v>
       </c>
     </row>
     <row r="113">
@@ -6016,25 +6016,25 @@
         <v>37900</v>
       </c>
       <c r="E113">
-        <v>28430673000</v>
+        <v>24538569000</v>
       </c>
       <c r="F113">
-        <v>47518462000</v>
+        <v>43497287200</v>
       </c>
       <c r="G113">
-        <v>655244000</v>
+        <v>634265000</v>
       </c>
       <c r="H113">
         <v>4762300</v>
       </c>
       <c r="I113">
-        <v>76604379000</v>
+        <v>68670121200</v>
       </c>
       <c r="J113" t="str">
         <v>2023-01-12T14:24:00.000Z</v>
       </c>
       <c r="K113">
-        <v>5841925785000</v>
+        <v>5316169068000</v>
       </c>
       <c r="L113">
         <v>334294300</v>
@@ -6043,13 +6043,13 @@
         <v>918000</v>
       </c>
       <c r="N113">
-        <v>19087789000</v>
+        <v>18958718200</v>
       </c>
       <c r="O113">
         <v>-16700400</v>
       </c>
       <c r="P113">
-        <v>-141995178000</v>
+        <v>-159976878300</v>
       </c>
     </row>
     <row r="114">
@@ -6066,25 +6066,25 @@
         <v>66400</v>
       </c>
       <c r="E114">
-        <v>49009915000</v>
+        <v>46754972200</v>
       </c>
       <c r="F114">
-        <v>37485817000</v>
+        <v>36144060100</v>
       </c>
       <c r="G114">
-        <v>1299121000</v>
+        <v>1284136000</v>
       </c>
       <c r="H114">
         <v>5611000</v>
       </c>
       <c r="I114">
-        <v>87794853000</v>
+        <v>84183168300</v>
       </c>
       <c r="J114" t="str">
         <v>2023-01-12T14:26:00.000Z</v>
       </c>
       <c r="K114">
-        <v>5929720638000</v>
+        <v>5400352236300</v>
       </c>
       <c r="L114">
         <v>339905300</v>
@@ -6093,13 +6093,13 @@
         <v>-1493800</v>
       </c>
       <c r="N114">
-        <v>-11524098000</v>
+        <v>-10610912100</v>
       </c>
       <c r="O114">
         <v>-18194200</v>
       </c>
       <c r="P114">
-        <v>-153519276000</v>
+        <v>-170587790400</v>
       </c>
     </row>
     <row r="115">
@@ -6116,25 +6116,25 @@
         <v>83200</v>
       </c>
       <c r="E115">
-        <v>46998501000</v>
+        <v>42642161700</v>
       </c>
       <c r="F115">
-        <v>50206738000</v>
+        <v>46969878100</v>
       </c>
       <c r="G115">
-        <v>1618392000</v>
+        <v>1614396000</v>
       </c>
       <c r="H115">
         <v>6354700</v>
       </c>
       <c r="I115">
-        <v>98823631000</v>
+        <v>91226435800</v>
       </c>
       <c r="J115" t="str">
         <v>2023-01-12T14:28:00.000Z</v>
       </c>
       <c r="K115">
-        <v>6028544269000</v>
+        <v>5491578672100</v>
       </c>
       <c r="L115">
         <v>346260000</v>
@@ -6143,13 +6143,13 @@
         <v>371100</v>
       </c>
       <c r="N115">
-        <v>3208237000</v>
+        <v>4327716400</v>
       </c>
       <c r="O115">
         <v>-17823100</v>
       </c>
       <c r="P115">
-        <v>-150311039000</v>
+        <v>-166260074000</v>
       </c>
     </row>
     <row r="116">
@@ -6166,10 +6166,10 @@
         <v>0</v>
       </c>
       <c r="E116">
-        <v>458566000</v>
+        <v>444080500</v>
       </c>
       <c r="F116">
-        <v>171170000</v>
+        <v>150191000</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -6178,13 +6178,13 @@
         <v>43000</v>
       </c>
       <c r="I116">
-        <v>629736000</v>
+        <v>594271500</v>
       </c>
       <c r="J116" t="str">
         <v>2023-01-12T14:30:00.000Z</v>
       </c>
       <c r="K116">
-        <v>6029174005000</v>
+        <v>5492172943600</v>
       </c>
       <c r="L116">
         <v>346303000</v>
@@ -6193,13 +6193,13 @@
         <v>-19400</v>
       </c>
       <c r="N116">
-        <v>-287396000</v>
+        <v>-293889500</v>
       </c>
       <c r="O116">
         <v>-17842500</v>
       </c>
       <c r="P116">
-        <v>-150598435000</v>
+        <v>-166553963500</v>
       </c>
     </row>
     <row r="117">
@@ -6216,25 +6216,25 @@
         <v>14158900</v>
       </c>
       <c r="E117">
-        <v>34562675000</v>
+        <v>32130909200</v>
       </c>
       <c r="F117">
-        <v>82521190000</v>
+        <v>64672256800</v>
       </c>
       <c r="G117">
-        <v>254410440000</v>
+        <v>232706665500</v>
       </c>
       <c r="H117">
         <v>19757900</v>
       </c>
       <c r="I117">
-        <v>371494305000</v>
+        <v>329509831500</v>
       </c>
       <c r="J117" t="str">
         <v>2023-01-12T14:44:00.000Z</v>
       </c>
       <c r="K117">
-        <v>6400668310000</v>
+        <v>5821682775100</v>
       </c>
       <c r="L117">
         <v>366060900</v>
@@ -6243,13 +6243,13 @@
         <v>1482200</v>
       </c>
       <c r="N117">
-        <v>47958515000</v>
+        <v>32541347600</v>
       </c>
       <c r="O117">
         <v>-16360300</v>
       </c>
       <c r="P117">
-        <v>-102639920000</v>
+        <v>-134012615900</v>
       </c>
     </row>
   </sheetData>

--- a/name/vnindex/20230112/VNINDEX_HOSE_5p_20230112.xlsx
+++ b/name/vnindex/20230112/VNINDEX_HOSE_5p_20230112.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P117"/>
+  <dimension ref="A1:AC117"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,45 @@
       <c r="P1" t="str">
         <v>acum_busd_val</v>
       </c>
+      <c r="Q1" t="str">
+        <v>acum_val_bu</v>
+      </c>
+      <c r="R1" t="str">
+        <v>acum_val_sd</v>
+      </c>
+      <c r="S1" t="str">
+        <v>accum_bu</v>
+      </c>
+      <c r="T1" t="str">
+        <v>accum_sd</v>
+      </c>
+      <c r="U1" t="str">
+        <v>avg_val_bu</v>
+      </c>
+      <c r="V1" t="str">
+        <v>avg_val_sd</v>
+      </c>
+      <c r="W1" t="str">
+        <v>avg_val</v>
+      </c>
+      <c r="X1" t="str">
+        <v>avg_vol</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>avg_bu</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>avg_sd</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>avg_busd</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>avg_busd_val</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>rbusd</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -501,6 +540,45 @@
       <c r="P2">
         <v>4477259200</v>
       </c>
+      <c r="Q2">
+        <v>23851197400</v>
+      </c>
+      <c r="R2">
+        <v>19373938200</v>
+      </c>
+      <c r="S2">
+        <v>1611800</v>
+      </c>
+      <c r="T2">
+        <v>1317300</v>
+      </c>
+      <c r="U2">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V2">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W2">
+        <v>50186920475</v>
+      </c>
+      <c r="X2">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y2">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z2">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA2">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB2">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC2">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -551,6 +629,45 @@
       <c r="P3">
         <v>20348209100</v>
       </c>
+      <c r="Q3">
+        <v>53649570900</v>
+      </c>
+      <c r="R3">
+        <v>33301361800</v>
+      </c>
+      <c r="S3">
+        <v>3352900</v>
+      </c>
+      <c r="T3">
+        <v>2311500</v>
+      </c>
+      <c r="U3">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V3">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W3">
+        <v>50186920475</v>
+      </c>
+      <c r="X3">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y3">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z3">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA3">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB3">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC3">
+        <v>13.7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -601,6 +718,45 @@
       <c r="P4">
         <v>25179494400</v>
       </c>
+      <c r="Q4">
+        <v>79612221800</v>
+      </c>
+      <c r="R4">
+        <v>54432727400</v>
+      </c>
+      <c r="S4">
+        <v>4874500</v>
+      </c>
+      <c r="T4">
+        <v>3611700</v>
+      </c>
+      <c r="U4">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V4">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W4">
+        <v>50186920475</v>
+      </c>
+      <c r="X4">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y4">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z4">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA4">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB4">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC4">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -651,6 +807,45 @@
       <c r="P5">
         <v>37798943300</v>
       </c>
+      <c r="Q5">
+        <v>109391164500</v>
+      </c>
+      <c r="R5">
+        <v>71592221200</v>
+      </c>
+      <c r="S5">
+        <v>6385900</v>
+      </c>
+      <c r="T5">
+        <v>4690200</v>
+      </c>
+      <c r="U5">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V5">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W5">
+        <v>50186920475</v>
+      </c>
+      <c r="X5">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y5">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z5">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA5">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB5">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC5">
+        <v>10.9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -701,6 +896,45 @@
       <c r="P6">
         <v>52275905300</v>
       </c>
+      <c r="Q6">
+        <v>138573727300</v>
+      </c>
+      <c r="R6">
+        <v>86297822000</v>
+      </c>
+      <c r="S6">
+        <v>8059900</v>
+      </c>
+      <c r="T6">
+        <v>5800000</v>
+      </c>
+      <c r="U6">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V6">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W6">
+        <v>50186920475</v>
+      </c>
+      <c r="X6">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y6">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z6">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA6">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB6">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC6">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -751,6 +985,45 @@
       <c r="P7">
         <v>58079709400</v>
       </c>
+      <c r="Q7">
+        <v>160561802400</v>
+      </c>
+      <c r="R7">
+        <v>102482093000</v>
+      </c>
+      <c r="S7">
+        <v>9445300</v>
+      </c>
+      <c r="T7">
+        <v>6874900</v>
+      </c>
+      <c r="U7">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V7">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W7">
+        <v>50186920475</v>
+      </c>
+      <c r="X7">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y7">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z7">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA7">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB7">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -801,6 +1074,45 @@
       <c r="P8">
         <v>56988450000</v>
       </c>
+      <c r="Q8">
+        <v>177017171200</v>
+      </c>
+      <c r="R8">
+        <v>120028721200</v>
+      </c>
+      <c r="S8">
+        <v>10404900</v>
+      </c>
+      <c r="T8">
+        <v>7969900</v>
+      </c>
+      <c r="U8">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V8">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W8">
+        <v>50186920475</v>
+      </c>
+      <c r="X8">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y8">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z8">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA8">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB8">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC8">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -851,6 +1163,45 @@
       <c r="P9">
         <v>55830202200</v>
       </c>
+      <c r="Q9">
+        <v>190724225400</v>
+      </c>
+      <c r="R9">
+        <v>134894023200</v>
+      </c>
+      <c r="S9">
+        <v>11164700</v>
+      </c>
+      <c r="T9">
+        <v>8979300</v>
+      </c>
+      <c r="U9">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V9">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W9">
+        <v>50186920475</v>
+      </c>
+      <c r="X9">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y9">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z9">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA9">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB9">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -901,6 +1252,45 @@
       <c r="P10">
         <v>52819479400</v>
       </c>
+      <c r="Q10">
+        <v>207972039200</v>
+      </c>
+      <c r="R10">
+        <v>155152559800</v>
+      </c>
+      <c r="S10">
+        <v>12109800</v>
+      </c>
+      <c r="T10">
+        <v>10182300</v>
+      </c>
+      <c r="U10">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V10">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W10">
+        <v>50186920475</v>
+      </c>
+      <c r="X10">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y10">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z10">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA10">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB10">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC10">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -951,6 +1341,45 @@
       <c r="P11">
         <v>52502497900</v>
       </c>
+      <c r="Q11">
+        <v>221682566000</v>
+      </c>
+      <c r="R11">
+        <v>169180068100</v>
+      </c>
+      <c r="S11">
+        <v>13110600</v>
+      </c>
+      <c r="T11">
+        <v>11005600</v>
+      </c>
+      <c r="U11">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V11">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W11">
+        <v>50186920475</v>
+      </c>
+      <c r="X11">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y11">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z11">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA11">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB11">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC11">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1001,6 +1430,45 @@
       <c r="P12">
         <v>57299367700</v>
       </c>
+      <c r="Q12">
+        <v>242385792200</v>
+      </c>
+      <c r="R12">
+        <v>185086424500</v>
+      </c>
+      <c r="S12">
+        <v>14735200</v>
+      </c>
+      <c r="T12">
+        <v>12012600</v>
+      </c>
+      <c r="U12">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V12">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W12">
+        <v>50186920475</v>
+      </c>
+      <c r="X12">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y12">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z12">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA12">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB12">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC12">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1051,6 +1519,45 @@
       <c r="P13">
         <v>52397632300</v>
       </c>
+      <c r="Q13">
+        <v>259922341300</v>
+      </c>
+      <c r="R13">
+        <v>207524709000</v>
+      </c>
+      <c r="S13">
+        <v>16000500</v>
+      </c>
+      <c r="T13">
+        <v>13389900</v>
+      </c>
+      <c r="U13">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V13">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W13">
+        <v>50186920475</v>
+      </c>
+      <c r="X13">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y13">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z13">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA13">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB13">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC13">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1101,6 +1608,45 @@
       <c r="P14">
         <v>39016777400</v>
       </c>
+      <c r="Q14">
+        <v>273286387200</v>
+      </c>
+      <c r="R14">
+        <v>234269609800</v>
+      </c>
+      <c r="S14">
+        <v>16738700</v>
+      </c>
+      <c r="T14">
+        <v>15150100</v>
+      </c>
+      <c r="U14">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V14">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W14">
+        <v>50186920475</v>
+      </c>
+      <c r="X14">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y14">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z14">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA14">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB14">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC14">
+        <v>11.6</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1151,6 +1697,45 @@
       <c r="P15">
         <v>35149056300</v>
       </c>
+      <c r="Q15">
+        <v>287466733100</v>
+      </c>
+      <c r="R15">
+        <v>252317676800</v>
+      </c>
+      <c r="S15">
+        <v>17511500</v>
+      </c>
+      <c r="T15">
+        <v>16424900</v>
+      </c>
+      <c r="U15">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V15">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W15">
+        <v>50186920475</v>
+      </c>
+      <c r="X15">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y15">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z15">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA15">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB15">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC15">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1201,6 +1786,45 @@
       <c r="P16">
         <v>37047987800</v>
       </c>
+      <c r="Q16">
+        <v>302909112000</v>
+      </c>
+      <c r="R16">
+        <v>265861124200</v>
+      </c>
+      <c r="S16">
+        <v>18404900</v>
+      </c>
+      <c r="T16">
+        <v>17251200</v>
+      </c>
+      <c r="U16">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V16">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W16">
+        <v>50186920475</v>
+      </c>
+      <c r="X16">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y16">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z16">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA16">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB16">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC16">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1251,6 +1875,45 @@
       <c r="P17">
         <v>45729250700</v>
       </c>
+      <c r="Q17">
+        <v>327633175400</v>
+      </c>
+      <c r="R17">
+        <v>281903924700</v>
+      </c>
+      <c r="S17">
+        <v>19629300</v>
+      </c>
+      <c r="T17">
+        <v>18379700</v>
+      </c>
+      <c r="U17">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V17">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W17">
+        <v>50186920475</v>
+      </c>
+      <c r="X17">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y17">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z17">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA17">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB17">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC17">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1301,6 +1964,45 @@
       <c r="P18">
         <v>57973234300</v>
       </c>
+      <c r="Q18">
+        <v>349564662100</v>
+      </c>
+      <c r="R18">
+        <v>291591427800</v>
+      </c>
+      <c r="S18">
+        <v>20845700</v>
+      </c>
+      <c r="T18">
+        <v>19016200</v>
+      </c>
+      <c r="U18">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V18">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W18">
+        <v>50186920475</v>
+      </c>
+      <c r="X18">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y18">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z18">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA18">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB18">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC18">
+        <v>10.6</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1351,6 +2053,45 @@
       <c r="P19">
         <v>64644544800</v>
       </c>
+      <c r="Q19">
+        <v>366986757000</v>
+      </c>
+      <c r="R19">
+        <v>302342212200</v>
+      </c>
+      <c r="S19">
+        <v>22025300</v>
+      </c>
+      <c r="T19">
+        <v>19907200</v>
+      </c>
+      <c r="U19">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V19">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W19">
+        <v>50186920475</v>
+      </c>
+      <c r="X19">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y19">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z19">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA19">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB19">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC19">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1401,6 +2142,45 @@
       <c r="P20">
         <v>70854493600</v>
       </c>
+      <c r="Q20">
+        <v>384604698000</v>
+      </c>
+      <c r="R20">
+        <v>313750204400</v>
+      </c>
+      <c r="S20">
+        <v>23196800</v>
+      </c>
+      <c r="T20">
+        <v>20560800</v>
+      </c>
+      <c r="U20">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V20">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W20">
+        <v>50186920475</v>
+      </c>
+      <c r="X20">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y20">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z20">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA20">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB20">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC20">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1451,6 +2231,45 @@
       <c r="P21">
         <v>90443276700</v>
       </c>
+      <c r="Q21">
+        <v>418272192100</v>
+      </c>
+      <c r="R21">
+        <v>327828915400</v>
+      </c>
+      <c r="S21">
+        <v>24962700</v>
+      </c>
+      <c r="T21">
+        <v>21446700</v>
+      </c>
+      <c r="U21">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V21">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W21">
+        <v>50186920475</v>
+      </c>
+      <c r="X21">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y21">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z21">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA21">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB21">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC21">
+        <v>17</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1501,6 +2320,45 @@
       <c r="P22">
         <v>96086091000</v>
       </c>
+      <c r="Q22">
+        <v>442367981800</v>
+      </c>
+      <c r="R22">
+        <v>346281890800</v>
+      </c>
+      <c r="S22">
+        <v>26411300</v>
+      </c>
+      <c r="T22">
+        <v>22344800</v>
+      </c>
+      <c r="U22">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V22">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W22">
+        <v>50186920475</v>
+      </c>
+      <c r="X22">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y22">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z22">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA22">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB22">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC22">
+        <v>4.9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1551,6 +2409,45 @@
       <c r="P23">
         <v>94709134000</v>
       </c>
+      <c r="Q23">
+        <v>464384351000</v>
+      </c>
+      <c r="R23">
+        <v>369675217000</v>
+      </c>
+      <c r="S23">
+        <v>27851200</v>
+      </c>
+      <c r="T23">
+        <v>23508300</v>
+      </c>
+      <c r="U23">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V23">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W23">
+        <v>50186920475</v>
+      </c>
+      <c r="X23">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y23">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z23">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA23">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB23">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC23">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1601,6 +2498,45 @@
       <c r="P24">
         <v>107947516200</v>
       </c>
+      <c r="Q24">
+        <v>487573014400</v>
+      </c>
+      <c r="R24">
+        <v>379625498200</v>
+      </c>
+      <c r="S24">
+        <v>29014600</v>
+      </c>
+      <c r="T24">
+        <v>24137500</v>
+      </c>
+      <c r="U24">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V24">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W24">
+        <v>50186920475</v>
+      </c>
+      <c r="X24">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y24">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z24">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA24">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB24">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC24">
+        <v>11.5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1651,6 +2587,45 @@
       <c r="P25">
         <v>106575001800</v>
       </c>
+      <c r="Q25">
+        <v>505962847000</v>
+      </c>
+      <c r="R25">
+        <v>399387845200</v>
+      </c>
+      <c r="S25">
+        <v>29984100</v>
+      </c>
+      <c r="T25">
+        <v>25212700</v>
+      </c>
+      <c r="U25">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V25">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W25">
+        <v>50186920475</v>
+      </c>
+      <c r="X25">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y25">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z25">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA25">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB25">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC25">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1701,6 +2676,45 @@
       <c r="P26">
         <v>100370332500</v>
       </c>
+      <c r="Q26">
+        <v>519694635200</v>
+      </c>
+      <c r="R26">
+        <v>419324302700</v>
+      </c>
+      <c r="S26">
+        <v>30787000</v>
+      </c>
+      <c r="T26">
+        <v>26067100</v>
+      </c>
+      <c r="U26">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V26">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W26">
+        <v>50186920475</v>
+      </c>
+      <c r="X26">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y26">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z26">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA26">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB26">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC26">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1751,6 +2765,45 @@
       <c r="P27">
         <v>89380057400</v>
       </c>
+      <c r="Q27">
+        <v>527790044100</v>
+      </c>
+      <c r="R27">
+        <v>438409986700</v>
+      </c>
+      <c r="S27">
+        <v>31326300</v>
+      </c>
+      <c r="T27">
+        <v>27110300</v>
+      </c>
+      <c r="U27">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V27">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W27">
+        <v>50186920475</v>
+      </c>
+      <c r="X27">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y27">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z27">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA27">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB27">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC27">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1801,6 +2854,45 @@
       <c r="P28">
         <v>68571058700</v>
       </c>
+      <c r="Q28">
+        <v>537047552200</v>
+      </c>
+      <c r="R28">
+        <v>468476493500</v>
+      </c>
+      <c r="S28">
+        <v>31867900</v>
+      </c>
+      <c r="T28">
+        <v>28815500</v>
+      </c>
+      <c r="U28">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V28">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W28">
+        <v>50186920475</v>
+      </c>
+      <c r="X28">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y28">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z28">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA28">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB28">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC28">
+        <v>18</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1851,6 +2943,45 @@
       <c r="P29">
         <v>52517367900</v>
       </c>
+      <c r="Q29">
+        <v>548368898500</v>
+      </c>
+      <c r="R29">
+        <v>495851530600</v>
+      </c>
+      <c r="S29">
+        <v>32467900</v>
+      </c>
+      <c r="T29">
+        <v>30546000</v>
+      </c>
+      <c r="U29">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V29">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W29">
+        <v>50186920475</v>
+      </c>
+      <c r="X29">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y29">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z29">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA29">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB29">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC29">
+        <v>13.9</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1901,6 +3032,45 @@
       <c r="P30">
         <v>36278013500</v>
       </c>
+      <c r="Q30">
+        <v>556871071900</v>
+      </c>
+      <c r="R30">
+        <v>520593058400</v>
+      </c>
+      <c r="S30">
+        <v>32899100</v>
+      </c>
+      <c r="T30">
+        <v>32172900</v>
+      </c>
+      <c r="U30">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V30">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W30">
+        <v>50186920475</v>
+      </c>
+      <c r="X30">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y30">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z30">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA30">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB30">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC30">
+        <v>14.1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1951,6 +3121,45 @@
       <c r="P31">
         <v>17261473800</v>
       </c>
+      <c r="Q31">
+        <v>566848384300</v>
+      </c>
+      <c r="R31">
+        <v>549586910500</v>
+      </c>
+      <c r="S31">
+        <v>33529500</v>
+      </c>
+      <c r="T31">
+        <v>33888600</v>
+      </c>
+      <c r="U31">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V31">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W31">
+        <v>50186920475</v>
+      </c>
+      <c r="X31">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y31">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z31">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA31">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB31">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC31">
+        <v>16.5</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -2001,6 +3210,45 @@
       <c r="P32">
         <v>-1041536300</v>
       </c>
+      <c r="Q32">
+        <v>576506535100</v>
+      </c>
+      <c r="R32">
+        <v>577548071400</v>
+      </c>
+      <c r="S32">
+        <v>34133000</v>
+      </c>
+      <c r="T32">
+        <v>35629900</v>
+      </c>
+      <c r="U32">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V32">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W32">
+        <v>50186920475</v>
+      </c>
+      <c r="X32">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y32">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z32">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA32">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB32">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC32">
+        <v>15.8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2051,6 +3299,45 @@
       <c r="P33">
         <v>-10943091600</v>
       </c>
+      <c r="Q33">
+        <v>585722597300</v>
+      </c>
+      <c r="R33">
+        <v>596665688900</v>
+      </c>
+      <c r="S33">
+        <v>34622100</v>
+      </c>
+      <c r="T33">
+        <v>36878400</v>
+      </c>
+      <c r="U33">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V33">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W33">
+        <v>50186920475</v>
+      </c>
+      <c r="X33">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y33">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z33">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA33">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB33">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC33">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2101,6 +3388,45 @@
       <c r="P34">
         <v>-28936349400</v>
       </c>
+      <c r="Q34">
+        <v>596083554500</v>
+      </c>
+      <c r="R34">
+        <v>625019903900</v>
+      </c>
+      <c r="S34">
+        <v>35280200</v>
+      </c>
+      <c r="T34">
+        <v>38557000</v>
+      </c>
+      <c r="U34">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V34">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W34">
+        <v>50186920475</v>
+      </c>
+      <c r="X34">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y34">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z34">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA34">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB34">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC34">
+        <v>15.6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2151,6 +3477,45 @@
       <c r="P35">
         <v>-45879954600</v>
       </c>
+      <c r="Q35">
+        <v>608109299900</v>
+      </c>
+      <c r="R35">
+        <v>653989254500</v>
+      </c>
+      <c r="S35">
+        <v>35955500</v>
+      </c>
+      <c r="T35">
+        <v>40485900</v>
+      </c>
+      <c r="U35">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V35">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W35">
+        <v>50186920475</v>
+      </c>
+      <c r="X35">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y35">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z35">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA35">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB35">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC35">
+        <v>14.7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2201,6 +3566,45 @@
       <c r="P36">
         <v>-58997371400</v>
       </c>
+      <c r="Q36">
+        <v>620814976900</v>
+      </c>
+      <c r="R36">
+        <v>679812348300</v>
+      </c>
+      <c r="S36">
+        <v>36677100</v>
+      </c>
+      <c r="T36">
+        <v>42041000</v>
+      </c>
+      <c r="U36">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V36">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W36">
+        <v>50186920475</v>
+      </c>
+      <c r="X36">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y36">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z36">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA36">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB36">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC36">
+        <v>11.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2251,6 +3655,45 @@
       <c r="P37">
         <v>-68966267600</v>
       </c>
+      <c r="Q37">
+        <v>634575779000</v>
+      </c>
+      <c r="R37">
+        <v>703542046600</v>
+      </c>
+      <c r="S37">
+        <v>37455800</v>
+      </c>
+      <c r="T37">
+        <v>43514200</v>
+      </c>
+      <c r="U37">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V37">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W37">
+        <v>50186920475</v>
+      </c>
+      <c r="X37">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y37">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z37">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA37">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB37">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC37">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -2301,6 +3744,45 @@
       <c r="P38">
         <v>-74693980700</v>
       </c>
+      <c r="Q38">
+        <v>646595087000</v>
+      </c>
+      <c r="R38">
+        <v>721289067700</v>
+      </c>
+      <c r="S38">
+        <v>38262600</v>
+      </c>
+      <c r="T38">
+        <v>44736100</v>
+      </c>
+      <c r="U38">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V38">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W38">
+        <v>50186920475</v>
+      </c>
+      <c r="X38">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y38">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z38">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA38">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB38">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC38">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2351,6 +3833,45 @@
       <c r="P39">
         <v>-73412566000</v>
       </c>
+      <c r="Q39">
+        <v>660717631800</v>
+      </c>
+      <c r="R39">
+        <v>734130197800</v>
+      </c>
+      <c r="S39">
+        <v>39105500</v>
+      </c>
+      <c r="T39">
+        <v>45495300</v>
+      </c>
+      <c r="U39">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V39">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W39">
+        <v>50186920475</v>
+      </c>
+      <c r="X39">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y39">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z39">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA39">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB39">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC39">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -2401,6 +3922,45 @@
       <c r="P40">
         <v>-69727828700</v>
       </c>
+      <c r="Q40">
+        <v>676416011900</v>
+      </c>
+      <c r="R40">
+        <v>746143840600</v>
+      </c>
+      <c r="S40">
+        <v>39898500</v>
+      </c>
+      <c r="T40">
+        <v>46374400</v>
+      </c>
+      <c r="U40">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V40">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W40">
+        <v>50186920475</v>
+      </c>
+      <c r="X40">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y40">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z40">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA40">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB40">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC40">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2451,6 +4011,45 @@
       <c r="P41">
         <v>-60211111100</v>
       </c>
+      <c r="Q41">
+        <v>696944748800</v>
+      </c>
+      <c r="R41">
+        <v>757155859900</v>
+      </c>
+      <c r="S41">
+        <v>41005500</v>
+      </c>
+      <c r="T41">
+        <v>46957700</v>
+      </c>
+      <c r="U41">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V41">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W41">
+        <v>50186920475</v>
+      </c>
+      <c r="X41">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y41">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z41">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA41">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB41">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC41">
+        <v>8.2</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -2501,6 +4100,45 @@
       <c r="P42">
         <v>-45361021700</v>
       </c>
+      <c r="Q42">
+        <v>721576043300</v>
+      </c>
+      <c r="R42">
+        <v>766937065000</v>
+      </c>
+      <c r="S42">
+        <v>42239500</v>
+      </c>
+      <c r="T42">
+        <v>47457000</v>
+      </c>
+      <c r="U42">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V42">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W42">
+        <v>50186920475</v>
+      </c>
+      <c r="X42">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y42">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z42">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA42">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB42">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC42">
+        <v>12.9</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -2551,6 +4189,45 @@
       <c r="P43">
         <v>-29586888400</v>
       </c>
+      <c r="Q43">
+        <v>746638862200</v>
+      </c>
+      <c r="R43">
+        <v>776225750600</v>
+      </c>
+      <c r="S43">
+        <v>43516900</v>
+      </c>
+      <c r="T43">
+        <v>48005000</v>
+      </c>
+      <c r="U43">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V43">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W43">
+        <v>50186920475</v>
+      </c>
+      <c r="X43">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y43">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z43">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA43">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB43">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC43">
+        <v>13.7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -2601,6 +4278,45 @@
       <c r="P44">
         <v>-28258788200</v>
       </c>
+      <c r="Q44">
+        <v>766227293300</v>
+      </c>
+      <c r="R44">
+        <v>794486081500</v>
+      </c>
+      <c r="S44">
+        <v>44552300</v>
+      </c>
+      <c r="T44">
+        <v>48844400</v>
+      </c>
+      <c r="U44">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V44">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W44">
+        <v>50186920475</v>
+      </c>
+      <c r="X44">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y44">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z44">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA44">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB44">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC44">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -2651,6 +4367,45 @@
       <c r="P45">
         <v>-31550508600</v>
       </c>
+      <c r="Q45">
+        <v>780982256700</v>
+      </c>
+      <c r="R45">
+        <v>812532765300</v>
+      </c>
+      <c r="S45">
+        <v>45420000</v>
+      </c>
+      <c r="T45">
+        <v>49854300</v>
+      </c>
+      <c r="U45">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V45">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W45">
+        <v>50186920475</v>
+      </c>
+      <c r="X45">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y45">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z45">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA45">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB45">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC45">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -2701,6 +4456,45 @@
       <c r="P46">
         <v>-32518626600</v>
       </c>
+      <c r="Q46">
+        <v>792293818300</v>
+      </c>
+      <c r="R46">
+        <v>824812444900</v>
+      </c>
+      <c r="S46">
+        <v>46077500</v>
+      </c>
+      <c r="T46">
+        <v>50623400</v>
+      </c>
+      <c r="U46">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V46">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W46">
+        <v>50186920475</v>
+      </c>
+      <c r="X46">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y46">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z46">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA46">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB46">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC46">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2751,6 +4545,45 @@
       <c r="P47">
         <v>-27071253100</v>
       </c>
+      <c r="Q47">
+        <v>814198449700</v>
+      </c>
+      <c r="R47">
+        <v>841269702800</v>
+      </c>
+      <c r="S47">
+        <v>47250100</v>
+      </c>
+      <c r="T47">
+        <v>51548800</v>
+      </c>
+      <c r="U47">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V47">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W47">
+        <v>50186920475</v>
+      </c>
+      <c r="X47">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y47">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z47">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA47">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB47">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC47">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2801,6 +4634,45 @@
       <c r="P48">
         <v>-26924596400</v>
       </c>
+      <c r="Q48">
+        <v>830020347500</v>
+      </c>
+      <c r="R48">
+        <v>856944943900</v>
+      </c>
+      <c r="S48">
+        <v>48183400</v>
+      </c>
+      <c r="T48">
+        <v>52361900</v>
+      </c>
+      <c r="U48">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V48">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W48">
+        <v>50186920475</v>
+      </c>
+      <c r="X48">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y48">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z48">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA48">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB48">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC48">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2851,6 +4723,45 @@
       <c r="P49">
         <v>-34986520800</v>
       </c>
+      <c r="Q49">
+        <v>842163852400</v>
+      </c>
+      <c r="R49">
+        <v>877150373200</v>
+      </c>
+      <c r="S49">
+        <v>48789500</v>
+      </c>
+      <c r="T49">
+        <v>53618100</v>
+      </c>
+      <c r="U49">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V49">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W49">
+        <v>50186920475</v>
+      </c>
+      <c r="X49">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y49">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z49">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA49">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB49">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC49">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -2901,6 +4812,45 @@
       <c r="P50">
         <v>-32771205200</v>
       </c>
+      <c r="Q50">
+        <v>860917360300</v>
+      </c>
+      <c r="R50">
+        <v>893688565500</v>
+      </c>
+      <c r="S50">
+        <v>49817500</v>
+      </c>
+      <c r="T50">
+        <v>54476600</v>
+      </c>
+      <c r="U50">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V50">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W50">
+        <v>50186920475</v>
+      </c>
+      <c r="X50">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y50">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z50">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA50">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB50">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC50">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2951,6 +4901,45 @@
       <c r="P51">
         <v>-44726276000</v>
       </c>
+      <c r="Q51">
+        <v>875973055500</v>
+      </c>
+      <c r="R51">
+        <v>920699331500</v>
+      </c>
+      <c r="S51">
+        <v>50572300</v>
+      </c>
+      <c r="T51">
+        <v>55954100</v>
+      </c>
+      <c r="U51">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V51">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W51">
+        <v>50186920475</v>
+      </c>
+      <c r="X51">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y51">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z51">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA51">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB51">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC51">
+        <v>10.3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3001,6 +4990,45 @@
       <c r="P52">
         <v>-53793837300</v>
       </c>
+      <c r="Q52">
+        <v>887703961000</v>
+      </c>
+      <c r="R52">
+        <v>941497798300</v>
+      </c>
+      <c r="S52">
+        <v>51194200</v>
+      </c>
+      <c r="T52">
+        <v>57178100</v>
+      </c>
+      <c r="U52">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V52">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W52">
+        <v>50186920475</v>
+      </c>
+      <c r="X52">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y52">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z52">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA52">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB52">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC52">
+        <v>7.8</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3051,6 +5079,45 @@
       <c r="P53">
         <v>-50527322600</v>
       </c>
+      <c r="Q53">
+        <v>901572885100</v>
+      </c>
+      <c r="R53">
+        <v>952100207700</v>
+      </c>
+      <c r="S53">
+        <v>51903200</v>
+      </c>
+      <c r="T53">
+        <v>57788000</v>
+      </c>
+      <c r="U53">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V53">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W53">
+        <v>50186920475</v>
+      </c>
+      <c r="X53">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y53">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z53">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA53">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB53">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC53">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -3101,6 +5168,45 @@
       <c r="P54">
         <v>-54974914500</v>
       </c>
+      <c r="Q54">
+        <v>915004000400</v>
+      </c>
+      <c r="R54">
+        <v>969978914900</v>
+      </c>
+      <c r="S54">
+        <v>52561200</v>
+      </c>
+      <c r="T54">
+        <v>58700700</v>
+      </c>
+      <c r="U54">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V54">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W54">
+        <v>50186920475</v>
+      </c>
+      <c r="X54">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y54">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z54">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA54">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB54">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC54">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3151,6 +5257,45 @@
       <c r="P55">
         <v>-54718884300</v>
       </c>
+      <c r="Q55">
+        <v>932107199100</v>
+      </c>
+      <c r="R55">
+        <v>986826083400</v>
+      </c>
+      <c r="S55">
+        <v>53423500</v>
+      </c>
+      <c r="T55">
+        <v>59728200</v>
+      </c>
+      <c r="U55">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V55">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W55">
+        <v>50186920475</v>
+      </c>
+      <c r="X55">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y55">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z55">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA55">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB55">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC55">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3201,6 +5346,45 @@
       <c r="P56">
         <v>-67216528200</v>
       </c>
+      <c r="Q56">
+        <v>949701951000</v>
+      </c>
+      <c r="R56">
+        <v>1016918479200</v>
+      </c>
+      <c r="S56">
+        <v>54412300</v>
+      </c>
+      <c r="T56">
+        <v>61657300</v>
+      </c>
+      <c r="U56">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V56">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W56">
+        <v>50186920475</v>
+      </c>
+      <c r="X56">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y56">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z56">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA56">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB56">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC56">
+        <v>10.8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3251,6 +5435,45 @@
       <c r="P57">
         <v>-79019237700</v>
       </c>
+      <c r="Q57">
+        <v>960449788100</v>
+      </c>
+      <c r="R57">
+        <v>1039469025800</v>
+      </c>
+      <c r="S57">
+        <v>55169100</v>
+      </c>
+      <c r="T57">
+        <v>63408400</v>
+      </c>
+      <c r="U57">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V57">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W57">
+        <v>50186920475</v>
+      </c>
+      <c r="X57">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y57">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z57">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA57">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB57">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC57">
+        <v>10.2</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -3301,6 +5524,45 @@
       <c r="P58">
         <v>-90187002800</v>
       </c>
+      <c r="Q58">
+        <v>974986205400</v>
+      </c>
+      <c r="R58">
+        <v>1065173208200</v>
+      </c>
+      <c r="S58">
+        <v>55936600</v>
+      </c>
+      <c r="T58">
+        <v>65138600</v>
+      </c>
+      <c r="U58">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V58">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W58">
+        <v>50186920475</v>
+      </c>
+      <c r="X58">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y58">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z58">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA58">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB58">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC58">
+        <v>9.7</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3351,6 +5613,45 @@
       <c r="P59">
         <v>-96838769200</v>
       </c>
+      <c r="Q59">
+        <v>985325563200</v>
+      </c>
+      <c r="R59">
+        <v>1082164332400</v>
+      </c>
+      <c r="S59">
+        <v>56520300</v>
+      </c>
+      <c r="T59">
+        <v>66407400</v>
+      </c>
+      <c r="U59">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V59">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W59">
+        <v>50186920475</v>
+      </c>
+      <c r="X59">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y59">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z59">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA59">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB59">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC59">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3401,6 +5702,45 @@
       <c r="P60">
         <v>-114421421400</v>
       </c>
+      <c r="Q60">
+        <v>996025181200</v>
+      </c>
+      <c r="R60">
+        <v>1110446602600</v>
+      </c>
+      <c r="S60">
+        <v>57070400</v>
+      </c>
+      <c r="T60">
+        <v>68458300</v>
+      </c>
+      <c r="U60">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V60">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W60">
+        <v>50186920475</v>
+      </c>
+      <c r="X60">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y60">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z60">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA60">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB60">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC60">
+        <v>15.2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3451,6 +5791,45 @@
       <c r="P61">
         <v>-116407271500</v>
       </c>
+      <c r="Q61">
+        <v>1012921872900</v>
+      </c>
+      <c r="R61">
+        <v>1129329144400</v>
+      </c>
+      <c r="S61">
+        <v>58118200</v>
+      </c>
+      <c r="T61">
+        <v>69464300</v>
+      </c>
+      <c r="U61">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V61">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W61">
+        <v>50186920475</v>
+      </c>
+      <c r="X61">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y61">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z61">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA61">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB61">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC61">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -3501,6 +5880,45 @@
       <c r="P62">
         <v>-125192668100</v>
       </c>
+      <c r="Q62">
+        <v>1032045981300</v>
+      </c>
+      <c r="R62">
+        <v>1157238649400</v>
+      </c>
+      <c r="S62">
+        <v>59408800</v>
+      </c>
+      <c r="T62">
+        <v>71462900</v>
+      </c>
+      <c r="U62">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V62">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W62">
+        <v>50186920475</v>
+      </c>
+      <c r="X62">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y62">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z62">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA62">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB62">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC62">
+        <v>7.6</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -3551,6 +5969,45 @@
       <c r="P63">
         <v>-130710039100</v>
       </c>
+      <c r="Q63">
+        <v>1046985371300</v>
+      </c>
+      <c r="R63">
+        <v>1177695410400</v>
+      </c>
+      <c r="S63">
+        <v>60732500</v>
+      </c>
+      <c r="T63">
+        <v>72780500</v>
+      </c>
+      <c r="U63">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V63">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W63">
+        <v>50186920475</v>
+      </c>
+      <c r="X63">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y63">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z63">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA63">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB63">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC63">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -3601,6 +6058,45 @@
       <c r="P64">
         <v>-130833195500</v>
       </c>
+      <c r="Q64">
+        <v>1064191580800</v>
+      </c>
+      <c r="R64">
+        <v>1195024776300</v>
+      </c>
+      <c r="S64">
+        <v>61822300</v>
+      </c>
+      <c r="T64">
+        <v>73778000</v>
+      </c>
+      <c r="U64">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V64">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W64">
+        <v>50186920475</v>
+      </c>
+      <c r="X64">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y64">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z64">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA64">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB64">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC64">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -3651,6 +6147,45 @@
       <c r="P65">
         <v>-116844627300</v>
       </c>
+      <c r="Q65">
+        <v>1088960760100</v>
+      </c>
+      <c r="R65">
+        <v>1205805387400</v>
+      </c>
+      <c r="S65">
+        <v>63401100</v>
+      </c>
+      <c r="T65">
+        <v>74496000</v>
+      </c>
+      <c r="U65">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V65">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W65">
+        <v>50186920475</v>
+      </c>
+      <c r="X65">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y65">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z65">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA65">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB65">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC65">
+        <v>12.1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -3701,6 +6236,45 @@
       <c r="P66">
         <v>-114740722100</v>
       </c>
+      <c r="Q66">
+        <v>1103121342600</v>
+      </c>
+      <c r="R66">
+        <v>1217862064700</v>
+      </c>
+      <c r="S66">
+        <v>64233800</v>
+      </c>
+      <c r="T66">
+        <v>75217900</v>
+      </c>
+      <c r="U66">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V66">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W66">
+        <v>50186920475</v>
+      </c>
+      <c r="X66">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y66">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z66">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA66">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB66">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC66">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -3751,6 +6325,45 @@
       <c r="P67">
         <v>-100412152300</v>
       </c>
+      <c r="Q67">
+        <v>1126191339400</v>
+      </c>
+      <c r="R67">
+        <v>1226603491700</v>
+      </c>
+      <c r="S67">
+        <v>65297200</v>
+      </c>
+      <c r="T67">
+        <v>75678900</v>
+      </c>
+      <c r="U67">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V67">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W67">
+        <v>50186920475</v>
+      </c>
+      <c r="X67">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y67">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z67">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA67">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB67">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC67">
+        <v>12.4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -3801,6 +6414,45 @@
       <c r="P68">
         <v>-87032591500</v>
       </c>
+      <c r="Q68">
+        <v>1149965574500</v>
+      </c>
+      <c r="R68">
+        <v>1236998166000</v>
+      </c>
+      <c r="S68">
+        <v>66621100</v>
+      </c>
+      <c r="T68">
+        <v>76241100</v>
+      </c>
+      <c r="U68">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V68">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W68">
+        <v>50186920475</v>
+      </c>
+      <c r="X68">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y68">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z68">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA68">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB68">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC68">
+        <v>11.6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3851,6 +6503,45 @@
       <c r="P69">
         <v>-89718948100</v>
       </c>
+      <c r="Q69">
+        <v>1161457119600</v>
+      </c>
+      <c r="R69">
+        <v>1251176067700</v>
+      </c>
+      <c r="S69">
+        <v>67435700</v>
+      </c>
+      <c r="T69">
+        <v>77080300</v>
+      </c>
+      <c r="U69">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V69">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W69">
+        <v>50186920475</v>
+      </c>
+      <c r="X69">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y69">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z69">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA69">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB69">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC69">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -3901,6 +6592,45 @@
       <c r="P70">
         <v>-89656428100</v>
       </c>
+      <c r="Q70">
+        <v>1161519639600</v>
+      </c>
+      <c r="R70">
+        <v>1251176067700</v>
+      </c>
+      <c r="S70">
+        <v>67438100</v>
+      </c>
+      <c r="T70">
+        <v>77080300</v>
+      </c>
+      <c r="U70">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V70">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W70">
+        <v>50186920475</v>
+      </c>
+      <c r="X70">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y70">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z70">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA70">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB70">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC70">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -3951,6 +6681,45 @@
       <c r="P71">
         <v>-93324947900</v>
       </c>
+      <c r="Q71">
+        <v>1209209728700</v>
+      </c>
+      <c r="R71">
+        <v>1302534676600</v>
+      </c>
+      <c r="S71">
+        <v>70273400</v>
+      </c>
+      <c r="T71">
+        <v>80709000</v>
+      </c>
+      <c r="U71">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V71">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W71">
+        <v>50186920475</v>
+      </c>
+      <c r="X71">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y71">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z71">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA71">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB71">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC71">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -4001,6 +6770,45 @@
       <c r="P72">
         <v>-76323341000</v>
       </c>
+      <c r="Q72">
+        <v>1247083252100</v>
+      </c>
+      <c r="R72">
+        <v>1323406593100</v>
+      </c>
+      <c r="S72">
+        <v>72498200</v>
+      </c>
+      <c r="T72">
+        <v>82135700</v>
+      </c>
+      <c r="U72">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V72">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W72">
+        <v>50186920475</v>
+      </c>
+      <c r="X72">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y72">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z72">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA72">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB72">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC72">
+        <v>14.7</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -4051,6 +6859,45 @@
       <c r="P73">
         <v>-65913212400</v>
       </c>
+      <c r="Q73">
+        <v>1279961436700</v>
+      </c>
+      <c r="R73">
+        <v>1345874649100</v>
+      </c>
+      <c r="S73">
+        <v>74779900</v>
+      </c>
+      <c r="T73">
+        <v>83450800</v>
+      </c>
+      <c r="U73">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V73">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W73">
+        <v>50186920475</v>
+      </c>
+      <c r="X73">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y73">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z73">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA73">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB73">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC73">
+        <v>9</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -4101,6 +6948,45 @@
       <c r="P74">
         <v>-70659725100</v>
       </c>
+      <c r="Q74">
+        <v>1299253381600</v>
+      </c>
+      <c r="R74">
+        <v>1369913106700</v>
+      </c>
+      <c r="S74">
+        <v>75931800</v>
+      </c>
+      <c r="T74">
+        <v>84907700</v>
+      </c>
+      <c r="U74">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V74">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W74">
+        <v>50186920475</v>
+      </c>
+      <c r="X74">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y74">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z74">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA74">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB74">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC74">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -4151,6 +7037,45 @@
       <c r="P75">
         <v>-97171378300</v>
       </c>
+      <c r="Q75">
+        <v>1317022920200</v>
+      </c>
+      <c r="R75">
+        <v>1414194298500</v>
+      </c>
+      <c r="S75">
+        <v>77201000</v>
+      </c>
+      <c r="T75">
+        <v>87460100</v>
+      </c>
+      <c r="U75">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V75">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W75">
+        <v>50186920475</v>
+      </c>
+      <c r="X75">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y75">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z75">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA75">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB75">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC75">
+        <v>22.9</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -4201,6 +7126,45 @@
       <c r="P76">
         <v>-124598510100</v>
       </c>
+      <c r="Q76">
+        <v>1330835167500</v>
+      </c>
+      <c r="R76">
+        <v>1455433677600</v>
+      </c>
+      <c r="S76">
+        <v>77976700</v>
+      </c>
+      <c r="T76">
+        <v>90205900</v>
+      </c>
+      <c r="U76">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V76">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W76">
+        <v>50186920475</v>
+      </c>
+      <c r="X76">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y76">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z76">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA76">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB76">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC76">
+        <v>23.7</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -4251,6 +7215,45 @@
       <c r="P77">
         <v>-172216540000</v>
       </c>
+      <c r="Q77">
+        <v>1340875630900</v>
+      </c>
+      <c r="R77">
+        <v>1513092170900</v>
+      </c>
+      <c r="S77">
+        <v>78556800</v>
+      </c>
+      <c r="T77">
+        <v>94203000</v>
+      </c>
+      <c r="U77">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V77">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W77">
+        <v>50186920475</v>
+      </c>
+      <c r="X77">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y77">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z77">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA77">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB77">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC77">
+        <v>41.2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -4301,6 +7304,45 @@
       <c r="P78">
         <v>-220591086600</v>
       </c>
+      <c r="Q78">
+        <v>1359128855700</v>
+      </c>
+      <c r="R78">
+        <v>1579719942300</v>
+      </c>
+      <c r="S78">
+        <v>79682100</v>
+      </c>
+      <c r="T78">
+        <v>99563000</v>
+      </c>
+      <c r="U78">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V78">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W78">
+        <v>50186920475</v>
+      </c>
+      <c r="X78">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y78">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z78">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA78">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB78">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC78">
+        <v>41.9</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -4351,6 +7393,45 @@
       <c r="P79">
         <v>-240129469200</v>
       </c>
+      <c r="Q79">
+        <v>1383732027300</v>
+      </c>
+      <c r="R79">
+        <v>1623861496500</v>
+      </c>
+      <c r="S79">
+        <v>81110900</v>
+      </c>
+      <c r="T79">
+        <v>102613600</v>
+      </c>
+      <c r="U79">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V79">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W79">
+        <v>50186920475</v>
+      </c>
+      <c r="X79">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y79">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z79">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA79">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB79">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC79">
+        <v>16.9</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -4401,6 +7482,45 @@
       <c r="P80">
         <v>-232932394900</v>
       </c>
+      <c r="Q80">
+        <v>1420279123700</v>
+      </c>
+      <c r="R80">
+        <v>1653211518600</v>
+      </c>
+      <c r="S80">
+        <v>83559200</v>
+      </c>
+      <c r="T80">
+        <v>104763800</v>
+      </c>
+      <c r="U80">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V80">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W80">
+        <v>50186920475</v>
+      </c>
+      <c r="X80">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y80">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z80">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA80">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB80">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC80">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -4451,6 +7571,45 @@
       <c r="P81">
         <v>-212930442500</v>
       </c>
+      <c r="Q81">
+        <v>1454610992000</v>
+      </c>
+      <c r="R81">
+        <v>1667541434500</v>
+      </c>
+      <c r="S81">
+        <v>86080200</v>
+      </c>
+      <c r="T81">
+        <v>105758700</v>
+      </c>
+      <c r="U81">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V81">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W81">
+        <v>50186920475</v>
+      </c>
+      <c r="X81">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y81">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z81">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA81">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB81">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC81">
+        <v>17.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -4501,6 +7660,45 @@
       <c r="P82">
         <v>-190202939300</v>
       </c>
+      <c r="Q82">
+        <v>1495720087000</v>
+      </c>
+      <c r="R82">
+        <v>1685923026300</v>
+      </c>
+      <c r="S82">
+        <v>88599100</v>
+      </c>
+      <c r="T82">
+        <v>106939100</v>
+      </c>
+      <c r="U82">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V82">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W82">
+        <v>50186920475</v>
+      </c>
+      <c r="X82">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y82">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z82">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA82">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB82">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC82">
+        <v>19.7</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -4551,6 +7749,45 @@
       <c r="P83">
         <v>-176836108100</v>
       </c>
+      <c r="Q83">
+        <v>1536948462200</v>
+      </c>
+      <c r="R83">
+        <v>1713784570300</v>
+      </c>
+      <c r="S83">
+        <v>91677200</v>
+      </c>
+      <c r="T83">
+        <v>108657700</v>
+      </c>
+      <c r="U83">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V83">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W83">
+        <v>50186920475</v>
+      </c>
+      <c r="X83">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y83">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z83">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA83">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB83">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC83">
+        <v>11.6</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -4601,6 +7838,45 @@
       <c r="P84">
         <v>-167666777200</v>
       </c>
+      <c r="Q84">
+        <v>1576828521700</v>
+      </c>
+      <c r="R84">
+        <v>1744495298900</v>
+      </c>
+      <c r="S84">
+        <v>94273700</v>
+      </c>
+      <c r="T84">
+        <v>110990400</v>
+      </c>
+      <c r="U84">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V84">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W84">
+        <v>50186920475</v>
+      </c>
+      <c r="X84">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y84">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z84">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA84">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB84">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC84">
+        <v>7.9</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -4651,6 +7927,45 @@
       <c r="P85">
         <v>-159729583200</v>
       </c>
+      <c r="Q85">
+        <v>1605691467000</v>
+      </c>
+      <c r="R85">
+        <v>1765421050200</v>
+      </c>
+      <c r="S85">
+        <v>96182800</v>
+      </c>
+      <c r="T85">
+        <v>112401200</v>
+      </c>
+      <c r="U85">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V85">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W85">
+        <v>50186920475</v>
+      </c>
+      <c r="X85">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y85">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z85">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA85">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB85">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC85">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -4701,6 +8016,45 @@
       <c r="P86">
         <v>-156295272700</v>
       </c>
+      <c r="Q86">
+        <v>1637248431300</v>
+      </c>
+      <c r="R86">
+        <v>1793543704000</v>
+      </c>
+      <c r="S86">
+        <v>97998400</v>
+      </c>
+      <c r="T86">
+        <v>114141100</v>
+      </c>
+      <c r="U86">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V86">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W86">
+        <v>50186920475</v>
+      </c>
+      <c r="X86">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y86">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z86">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA86">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB86">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC86">
+        <v>3</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -4751,6 +8105,45 @@
       <c r="P87">
         <v>-184016318400</v>
       </c>
+      <c r="Q87">
+        <v>1653572585400</v>
+      </c>
+      <c r="R87">
+        <v>1837588903800</v>
+      </c>
+      <c r="S87">
+        <v>98955400</v>
+      </c>
+      <c r="T87">
+        <v>116699900</v>
+      </c>
+      <c r="U87">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V87">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W87">
+        <v>50186920475</v>
+      </c>
+      <c r="X87">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y87">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z87">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA87">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB87">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC87">
+        <v>24</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -4801,6 +8194,45 @@
       <c r="P88">
         <v>-217196702500</v>
       </c>
+      <c r="Q88">
+        <v>1672183779400</v>
+      </c>
+      <c r="R88">
+        <v>1889380481900</v>
+      </c>
+      <c r="S88">
+        <v>100328800</v>
+      </c>
+      <c r="T88">
+        <v>119765800</v>
+      </c>
+      <c r="U88">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V88">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W88">
+        <v>50186920475</v>
+      </c>
+      <c r="X88">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y88">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z88">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA88">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB88">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC88">
+        <v>28.7</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -4851,6 +8283,45 @@
       <c r="P89">
         <v>-227677445900</v>
       </c>
+      <c r="Q89">
+        <v>1695731658100</v>
+      </c>
+      <c r="R89">
+        <v>1923409104000</v>
+      </c>
+      <c r="S89">
+        <v>101982200</v>
+      </c>
+      <c r="T89">
+        <v>122052200</v>
+      </c>
+      <c r="U89">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V89">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W89">
+        <v>50186920475</v>
+      </c>
+      <c r="X89">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y89">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z89">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA89">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB89">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC89">
+        <v>9.1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -4901,6 +8372,45 @@
       <c r="P90">
         <v>-257478698900</v>
       </c>
+      <c r="Q90">
+        <v>1712662854500</v>
+      </c>
+      <c r="R90">
+        <v>1970141553400</v>
+      </c>
+      <c r="S90">
+        <v>103106800</v>
+      </c>
+      <c r="T90">
+        <v>124942200</v>
+      </c>
+      <c r="U90">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V90">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W90">
+        <v>50186920475</v>
+      </c>
+      <c r="X90">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y90">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z90">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA90">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB90">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC90">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -4951,6 +8461,45 @@
       <c r="P91">
         <v>-273041788900</v>
       </c>
+      <c r="Q91">
+        <v>1729739227700</v>
+      </c>
+      <c r="R91">
+        <v>2002781016600</v>
+      </c>
+      <c r="S91">
+        <v>104153400</v>
+      </c>
+      <c r="T91">
+        <v>127121700</v>
+      </c>
+      <c r="U91">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V91">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W91">
+        <v>50186920475</v>
+      </c>
+      <c r="X91">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y91">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z91">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA91">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB91">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC91">
+        <v>13.5</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -5001,6 +8550,45 @@
       <c r="P92">
         <v>-270792454300</v>
       </c>
+      <c r="Q92">
+        <v>1755951943100</v>
+      </c>
+      <c r="R92">
+        <v>2026744397400</v>
+      </c>
+      <c r="S92">
+        <v>105761900</v>
+      </c>
+      <c r="T92">
+        <v>128621400</v>
+      </c>
+      <c r="U92">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V92">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W92">
+        <v>50186920475</v>
+      </c>
+      <c r="X92">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y92">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z92">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA92">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB92">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC92">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -5051,6 +8639,45 @@
       <c r="P93">
         <v>-269624046400</v>
       </c>
+      <c r="Q93">
+        <v>1780997098700</v>
+      </c>
+      <c r="R93">
+        <v>2050621145100</v>
+      </c>
+      <c r="S93">
+        <v>107179700</v>
+      </c>
+      <c r="T93">
+        <v>130028800</v>
+      </c>
+      <c r="U93">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V93">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W93">
+        <v>50186920475</v>
+      </c>
+      <c r="X93">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y93">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z93">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA93">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB93">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC93">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -5101,6 +8728,45 @@
       <c r="P94">
         <v>-292640749200</v>
       </c>
+      <c r="Q94">
+        <v>1797012180600</v>
+      </c>
+      <c r="R94">
+        <v>2089652929800</v>
+      </c>
+      <c r="S94">
+        <v>108218900</v>
+      </c>
+      <c r="T94">
+        <v>132042800</v>
+      </c>
+      <c r="U94">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V94">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W94">
+        <v>50186920475</v>
+      </c>
+      <c r="X94">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y94">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z94">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA94">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB94">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC94">
+        <v>19.9</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -5151,6 +8817,45 @@
       <c r="P95">
         <v>-330459630200</v>
       </c>
+      <c r="Q95">
+        <v>1813630969800</v>
+      </c>
+      <c r="R95">
+        <v>2144090600000</v>
+      </c>
+      <c r="S95">
+        <v>109091700</v>
+      </c>
+      <c r="T95">
+        <v>135566400</v>
+      </c>
+      <c r="U95">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V95">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W95">
+        <v>50186920475</v>
+      </c>
+      <c r="X95">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y95">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z95">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA95">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB95">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC95">
+        <v>32.7</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -5201,6 +8906,45 @@
       <c r="P96">
         <v>-339514021100</v>
       </c>
+      <c r="Q96">
+        <v>1835669914800</v>
+      </c>
+      <c r="R96">
+        <v>2175183935900</v>
+      </c>
+      <c r="S96">
+        <v>110603300</v>
+      </c>
+      <c r="T96">
+        <v>137548300</v>
+      </c>
+      <c r="U96">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V96">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W96">
+        <v>50186920475</v>
+      </c>
+      <c r="X96">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y96">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z96">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA96">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB96">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC96">
+        <v>7.8</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -5251,6 +8995,45 @@
       <c r="P97">
         <v>-329098930000</v>
       </c>
+      <c r="Q97">
+        <v>1865721024500</v>
+      </c>
+      <c r="R97">
+        <v>2194819954500</v>
+      </c>
+      <c r="S97">
+        <v>112768600</v>
+      </c>
+      <c r="T97">
+        <v>138820800</v>
+      </c>
+      <c r="U97">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V97">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W97">
+        <v>50186920475</v>
+      </c>
+      <c r="X97">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y97">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z97">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA97">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB97">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC97">
+        <v>9</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -5301,6 +9084,45 @@
       <c r="P98">
         <v>-296360623000</v>
       </c>
+      <c r="Q98">
+        <v>1920932917700</v>
+      </c>
+      <c r="R98">
+        <v>2217293540700</v>
+      </c>
+      <c r="S98">
+        <v>116753900</v>
+      </c>
+      <c r="T98">
+        <v>140151400</v>
+      </c>
+      <c r="U98">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V98">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W98">
+        <v>50186920475</v>
+      </c>
+      <c r="X98">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y98">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z98">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA98">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB98">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC98">
+        <v>28.3</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -5351,6 +9173,45 @@
       <c r="P99">
         <v>-246659488800</v>
       </c>
+      <c r="Q99">
+        <v>1991303577600</v>
+      </c>
+      <c r="R99">
+        <v>2237963066400</v>
+      </c>
+      <c r="S99">
+        <v>121665000</v>
+      </c>
+      <c r="T99">
+        <v>141651600</v>
+      </c>
+      <c r="U99">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V99">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W99">
+        <v>50186920475</v>
+      </c>
+      <c r="X99">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y99">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z99">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA99">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB99">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC99">
+        <v>43</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -5401,6 +9262,45 @@
       <c r="P100">
         <v>-207580125400</v>
       </c>
+      <c r="Q100">
+        <v>2058704931700</v>
+      </c>
+      <c r="R100">
+        <v>2266285057100</v>
+      </c>
+      <c r="S100">
+        <v>126347200</v>
+      </c>
+      <c r="T100">
+        <v>143964600</v>
+      </c>
+      <c r="U100">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V100">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W100">
+        <v>50186920475</v>
+      </c>
+      <c r="X100">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y100">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z100">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA100">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB100">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC100">
+        <v>33.8</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -5451,6 +9351,45 @@
       <c r="P101">
         <v>-144170908400</v>
       </c>
+      <c r="Q101">
+        <v>2144447404900</v>
+      </c>
+      <c r="R101">
+        <v>2288618313300</v>
+      </c>
+      <c r="S101">
+        <v>131792200</v>
+      </c>
+      <c r="T101">
+        <v>145669700</v>
+      </c>
+      <c r="U101">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V101">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W101">
+        <v>50186920475</v>
+      </c>
+      <c r="X101">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y101">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z101">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA101">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB101">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC101">
+        <v>54.9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -5501,6 +9440,45 @@
       <c r="P102">
         <v>-129831126700</v>
       </c>
+      <c r="Q102">
+        <v>2194883185800</v>
+      </c>
+      <c r="R102">
+        <v>2324714312500</v>
+      </c>
+      <c r="S102">
+        <v>134815600</v>
+      </c>
+      <c r="T102">
+        <v>148210800</v>
+      </c>
+      <c r="U102">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V102">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W102">
+        <v>50186920475</v>
+      </c>
+      <c r="X102">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y102">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z102">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA102">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB102">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC102">
+        <v>12.4</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -5551,6 +9529,45 @@
       <c r="P103">
         <v>-143644904400</v>
       </c>
+      <c r="Q103">
+        <v>2224513164200</v>
+      </c>
+      <c r="R103">
+        <v>2368158068600</v>
+      </c>
+      <c r="S103">
+        <v>136456600</v>
+      </c>
+      <c r="T103">
+        <v>150989100</v>
+      </c>
+      <c r="U103">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V103">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W103">
+        <v>50186920475</v>
+      </c>
+      <c r="X103">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y103">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z103">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA103">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB103">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC103">
+        <v>12</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -5601,6 +9618,45 @@
       <c r="P104">
         <v>-155183168700</v>
       </c>
+      <c r="Q104">
+        <v>2246782843700</v>
+      </c>
+      <c r="R104">
+        <v>2401966012400</v>
+      </c>
+      <c r="S104">
+        <v>137924400</v>
+      </c>
+      <c r="T104">
+        <v>153123100</v>
+      </c>
+      <c r="U104">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V104">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W104">
+        <v>50186920475</v>
+      </c>
+      <c r="X104">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y104">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z104">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA104">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB104">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC104">
+        <v>10</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -5651,6 +9707,45 @@
       <c r="P105">
         <v>-170030114400</v>
       </c>
+      <c r="Q105">
+        <v>2261192528600</v>
+      </c>
+      <c r="R105">
+        <v>2431222643000</v>
+      </c>
+      <c r="S105">
+        <v>138875700</v>
+      </c>
+      <c r="T105">
+        <v>155167300</v>
+      </c>
+      <c r="U105">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V105">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W105">
+        <v>50186920475</v>
+      </c>
+      <c r="X105">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y105">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z105">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA105">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB105">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC105">
+        <v>12.9</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -5701,6 +9796,45 @@
       <c r="P106">
         <v>-173710944700</v>
       </c>
+      <c r="Q106">
+        <v>2279141698100</v>
+      </c>
+      <c r="R106">
+        <v>2452852642800</v>
+      </c>
+      <c r="S106">
+        <v>139710300</v>
+      </c>
+      <c r="T106">
+        <v>156509300</v>
+      </c>
+      <c r="U106">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V106">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W106">
+        <v>50186920475</v>
+      </c>
+      <c r="X106">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y106">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z106">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA106">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB106">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC106">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -5751,6 +9885,45 @@
       <c r="P107">
         <v>-199296787700</v>
       </c>
+      <c r="Q107">
+        <v>2298387465500</v>
+      </c>
+      <c r="R107">
+        <v>2497684253200</v>
+      </c>
+      <c r="S107">
+        <v>140905400</v>
+      </c>
+      <c r="T107">
+        <v>159305800</v>
+      </c>
+      <c r="U107">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V107">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W107">
+        <v>50186920475</v>
+      </c>
+      <c r="X107">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y107">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z107">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA107">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB107">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC107">
+        <v>22.1</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -5801,6 +9974,45 @@
       <c r="P108">
         <v>-252277542800</v>
       </c>
+      <c r="Q108">
+        <v>2324158865400</v>
+      </c>
+      <c r="R108">
+        <v>2576436408200</v>
+      </c>
+      <c r="S108">
+        <v>142424400</v>
+      </c>
+      <c r="T108">
+        <v>164295600</v>
+      </c>
+      <c r="U108">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V108">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W108">
+        <v>50186920475</v>
+      </c>
+      <c r="X108">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y108">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z108">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA108">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB108">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC108">
+        <v>45.9</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -5851,6 +10063,45 @@
       <c r="P109">
         <v>-260276917500</v>
       </c>
+      <c r="Q109">
+        <v>2351538179600</v>
+      </c>
+      <c r="R109">
+        <v>2611815097100</v>
+      </c>
+      <c r="S109">
+        <v>144555100</v>
+      </c>
+      <c r="T109">
+        <v>166412100</v>
+      </c>
+      <c r="U109">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V109">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W109">
+        <v>50186920475</v>
+      </c>
+      <c r="X109">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y109">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z109">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA109">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB109">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC109">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -5901,6 +10152,45 @@
       <c r="P110">
         <v>-241328055700</v>
       </c>
+      <c r="Q110">
+        <v>2392770025000</v>
+      </c>
+      <c r="R110">
+        <v>2634098080700</v>
+      </c>
+      <c r="S110">
+        <v>147114100</v>
+      </c>
+      <c r="T110">
+        <v>168215900</v>
+      </c>
+      <c r="U110">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V110">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W110">
+        <v>50186920475</v>
+      </c>
+      <c r="X110">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y110">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z110">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA110">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB110">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC110">
+        <v>16.4</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -5951,6 +10241,45 @@
       <c r="P111">
         <v>-197682701900</v>
       </c>
+      <c r="Q111">
+        <v>2454555039400</v>
+      </c>
+      <c r="R111">
+        <v>2652237741300</v>
+      </c>
+      <c r="S111">
+        <v>150697800</v>
+      </c>
+      <c r="T111">
+        <v>169411300</v>
+      </c>
+      <c r="U111">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V111">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W111">
+        <v>50186920475</v>
+      </c>
+      <c r="X111">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y111">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z111">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA111">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB111">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC111">
+        <v>37.8</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -6001,6 +10330,45 @@
       <c r="P112">
         <v>-178935596500</v>
       </c>
+      <c r="Q112">
+        <v>2496319296400</v>
+      </c>
+      <c r="R112">
+        <v>2675254892900</v>
+      </c>
+      <c r="S112">
+        <v>153261200</v>
+      </c>
+      <c r="T112">
+        <v>170879600</v>
+      </c>
+      <c r="U112">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V112">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W112">
+        <v>50186920475</v>
+      </c>
+      <c r="X112">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y112">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z112">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA112">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB112">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC112">
+        <v>16.2</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -6051,6 +10419,45 @@
       <c r="P113">
         <v>-159976878300</v>
       </c>
+      <c r="Q113">
+        <v>2539816583600</v>
+      </c>
+      <c r="R113">
+        <v>2699793461900</v>
+      </c>
+      <c r="S113">
+        <v>156082400</v>
+      </c>
+      <c r="T113">
+        <v>172782800</v>
+      </c>
+      <c r="U113">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V113">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W113">
+        <v>50186920475</v>
+      </c>
+      <c r="X113">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y113">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z113">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA113">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB113">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC113">
+        <v>16.4</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -6101,6 +10508,45 @@
       <c r="P114">
         <v>-170587790400</v>
       </c>
+      <c r="Q114">
+        <v>2575960643700</v>
+      </c>
+      <c r="R114">
+        <v>2746548434100</v>
+      </c>
+      <c r="S114">
+        <v>158107800</v>
+      </c>
+      <c r="T114">
+        <v>176302000</v>
+      </c>
+      <c r="U114">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V114">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W114">
+        <v>50186920475</v>
+      </c>
+      <c r="X114">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y114">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z114">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA114">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB114">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC114">
+        <v>9.2</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -6151,6 +10597,45 @@
       <c r="P115">
         <v>-166260074000</v>
       </c>
+      <c r="Q115">
+        <v>2622930521800</v>
+      </c>
+      <c r="R115">
+        <v>2789190595800</v>
+      </c>
+      <c r="S115">
+        <v>161429100</v>
+      </c>
+      <c r="T115">
+        <v>179252200</v>
+      </c>
+      <c r="U115">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V115">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W115">
+        <v>50186920475</v>
+      </c>
+      <c r="X115">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y115">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z115">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA115">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB115">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC115">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -6201,6 +10686,45 @@
       <c r="P116">
         <v>-166553963500</v>
       </c>
+      <c r="Q116">
+        <v>2623080712800</v>
+      </c>
+      <c r="R116">
+        <v>2789634676300</v>
+      </c>
+      <c r="S116">
+        <v>161440900</v>
+      </c>
+      <c r="T116">
+        <v>179283400</v>
+      </c>
+      <c r="U116">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V116">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W116">
+        <v>50186920475</v>
+      </c>
+      <c r="X116">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y116">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z116">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA116">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB116">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC116">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -6251,10 +10775,49 @@
       <c r="P117">
         <v>-134012615900</v>
       </c>
+      <c r="Q117">
+        <v>2687752969600</v>
+      </c>
+      <c r="R117">
+        <v>2821765585500</v>
+      </c>
+      <c r="S117">
+        <v>164981500</v>
+      </c>
+      <c r="T117">
+        <v>181341800</v>
+      </c>
+      <c r="U117">
+        <v>23170284220.7</v>
+      </c>
+      <c r="V117">
+        <v>24325565392.2</v>
+      </c>
+      <c r="W117">
+        <v>50186920475</v>
+      </c>
+      <c r="X117">
+        <v>3155697.4</v>
+      </c>
+      <c r="Y117">
+        <v>1422254.3</v>
+      </c>
+      <c r="Z117">
+        <v>1563291.4</v>
+      </c>
+      <c r="AA117">
+        <v>-141037.1</v>
+      </c>
+      <c r="AB117">
+        <v>-1155281171.6</v>
+      </c>
+      <c r="AC117">
+        <v>28.2</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P117"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC117"/>
   </ignoredErrors>
 </worksheet>
 </file>